--- a/design/chitiet/products.xlsx
+++ b/design/chitiet/products.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_bia" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="90">
   <si>
     <t xml:space="preserve">Posts and Telecommunications Institute of Technology
 </t>
@@ -416,7 +416,7 @@
     <t xml:space="preserve">Y</t>
   </si>
   <si>
-    <t xml:space="preserve">TextView </t>
+    <t xml:space="preserve">Text </t>
   </si>
   <si>
     <t xml:space="preserve">hiện thị tên sản phảm được load lên từ db</t>
@@ -455,18 +455,6 @@
     <t xml:space="preserve">click vào sản phẩm hiện thị thông tin chi tiết của sản phấm đó </t>
   </si>
   <si>
-    <t xml:space="preserve">[Vùng hiển thị ban đầu]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Header</t>
-  </si>
-  <si>
-    <t xml:space="preserve">component </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiển thị Header </t>
-  </si>
-  <si>
     <t xml:space="preserve">Thái  </t>
   </si>
   <si>
@@ -491,60 +479,6 @@
     <t xml:space="preserve">1. Thực hiện khởi tạo màn hình ban đầu</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Nhấn vào sản phẩm.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Xử lý check</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a. Check hạng mục</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nội dung check</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Message Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. Xử lý đăng nhập</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đối tượng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Truy xuất</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name.values</t>
-  </si>
-  <si>
-    <t xml:space="preserve">＝</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Vùng nhập].values</t>
-  </si>
-  <si>
-    <t xml:space="preserve">price.values</t>
-  </si>
-  <si>
-    <t xml:space="preserve">image.values</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thông báo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trường hợp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUCCESS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lấy sản phảm thành công </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAIL</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
 </sst>
@@ -560,7 +494,7 @@
     <numFmt numFmtId="168" formatCode="yyyy\年m\月d\日;@"/>
     <numFmt numFmtId="169" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -689,15 +623,8 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -728,20 +655,8 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor rgb="FFFFFF99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA9D18E"/>
-        <bgColor rgb="FF99CCFF"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="52">
+  <borders count="43">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1030,72 +945,9 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="hair"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top style="hair"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top style="hair"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top style="hair"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
@@ -1144,7 +996,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="229">
+  <cellXfs count="153">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1653,43 +1505,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="41" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="42" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="43" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="43" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="44" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="42" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="44" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="42" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="44" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1701,71 +1533,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -1773,19 +1549,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1801,245 +1581,13 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="19" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="24" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="24" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="25" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="25" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="28" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="46" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="30" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="30" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="32" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="32" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="31" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="42" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="42" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="43" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="43" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="44" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="41" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="19" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="19" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="24" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="42" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="51" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="45" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="7" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="7" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -2089,7 +1637,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFA9D18E"/>
+      <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -2147,9 +1695,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>37080</xdr:colOff>
+      <xdr:colOff>36720</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>65520</xdr:rowOff>
+      <xdr:rowOff>65160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2163,7 +1711,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3453840" y="22755240"/>
-          <a:ext cx="676440" cy="970560"/>
+          <a:ext cx="676080" cy="970200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2184,9 +1732,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>1080</xdr:colOff>
+      <xdr:colOff>720</xdr:colOff>
       <xdr:row>140</xdr:row>
-      <xdr:rowOff>93960</xdr:rowOff>
+      <xdr:rowOff>93600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2196,7 +1744,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3324960" y="24307560"/>
-          <a:ext cx="955440" cy="646560"/>
+          <a:ext cx="955080" cy="646200"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst>
@@ -2249,15 +1797,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>70920</xdr:colOff>
+      <xdr:colOff>70560</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>66240</xdr:rowOff>
+      <xdr:rowOff>65880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>74520</xdr:colOff>
+      <xdr:colOff>73800</xdr:colOff>
       <xdr:row>136</xdr:row>
-      <xdr:rowOff>131760</xdr:rowOff>
+      <xdr:rowOff>131040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2266,8 +1814,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="3791880" y="23726520"/>
-          <a:ext cx="3600" cy="579600"/>
+          <a:off x="3791160" y="23725800"/>
+          <a:ext cx="3240" cy="579240"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2312,9 +1860,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>122760</xdr:colOff>
+      <xdr:colOff>122400</xdr:colOff>
       <xdr:row>141</xdr:row>
-      <xdr:rowOff>84600</xdr:rowOff>
+      <xdr:rowOff>84240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2324,7 +1872,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2365920" y="22507560"/>
-          <a:ext cx="2780280" cy="2608920"/>
+          <a:ext cx="2779920" cy="2608560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2356,9 +1904,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>75240</xdr:colOff>
+      <xdr:colOff>74880</xdr:colOff>
       <xdr:row>127</xdr:row>
-      <xdr:rowOff>27720</xdr:rowOff>
+      <xdr:rowOff>27360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2368,7 +1916,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3165480" y="22231440"/>
-          <a:ext cx="1189080" cy="427680"/>
+          <a:ext cx="1188720" cy="427320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2426,9 +1974,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>65520</xdr:colOff>
+      <xdr:colOff>65160</xdr:colOff>
       <xdr:row>132</xdr:row>
-      <xdr:rowOff>94320</xdr:rowOff>
+      <xdr:rowOff>93960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2438,7 +1986,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="372240" y="23184000"/>
-          <a:ext cx="995760" cy="398880"/>
+          <a:ext cx="995400" cy="398520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2600,9 +2148,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>179640</xdr:colOff>
+      <xdr:colOff>179280</xdr:colOff>
       <xdr:row>135</xdr:row>
-      <xdr:rowOff>18000</xdr:rowOff>
+      <xdr:rowOff>17640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2612,7 +2160,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6335280" y="23621760"/>
-          <a:ext cx="914400" cy="399240"/>
+          <a:ext cx="914040" cy="398880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2668,9 +2216,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>84600</xdr:colOff>
+      <xdr:colOff>84240</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>65520</xdr:rowOff>
+      <xdr:rowOff>65160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2684,7 +2232,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6478200" y="22755240"/>
-          <a:ext cx="676440" cy="970560"/>
+          <a:ext cx="676080" cy="970200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2710,9 +2258,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>94320</xdr:colOff>
+      <xdr:colOff>93960</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>151560</xdr:rowOff>
+      <xdr:rowOff>151200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2722,7 +2270,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1788840" y="1457280"/>
-          <a:ext cx="4817520" cy="418320"/>
+          <a:ext cx="4817160" cy="417960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2758,9 +2306,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>239760</xdr:colOff>
+      <xdr:colOff>239400</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>30960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2774,7 +2322,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2100600" y="1190880"/>
-          <a:ext cx="4651200" cy="5365080"/>
+          <a:ext cx="4650840" cy="5364720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2796,14 +2344,14 @@
   </sheetPr>
   <dimension ref="A1:AX160"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="BA141" activeCellId="0" sqref="BA141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="1" style="1" width="2.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="50" style="1" width="3.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="50" style="1" width="3.11"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="60" style="1" width="9"/>
   </cols>
   <sheetData>
@@ -10687,10 +10235,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BJ1048575"/>
+  <dimension ref="A1:AMJ1048575"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AO173" activeCellId="0" sqref="AO173"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A139" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q183" activeCellId="0" sqref="Q183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.640625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11857,50 +11405,50 @@
       <c r="A52" s="17"/>
       <c r="C52" s="127"/>
       <c r="D52" s="128"/>
-      <c r="E52" s="129"/>
-      <c r="F52" s="129"/>
-      <c r="G52" s="130"/>
-      <c r="H52" s="130"/>
-      <c r="I52" s="131"/>
-      <c r="J52" s="132"/>
-      <c r="K52" s="130"/>
-      <c r="L52" s="130"/>
-      <c r="M52" s="130"/>
-      <c r="N52" s="132"/>
-      <c r="O52" s="130"/>
-      <c r="P52" s="130"/>
-      <c r="Q52" s="132"/>
-      <c r="R52" s="130"/>
-      <c r="S52" s="133"/>
-      <c r="T52" s="134"/>
-      <c r="U52" s="135"/>
+      <c r="E52" s="128"/>
+      <c r="F52" s="128"/>
+      <c r="G52" s="129"/>
+      <c r="H52" s="129"/>
+      <c r="I52" s="129"/>
+      <c r="J52" s="129"/>
+      <c r="K52" s="129"/>
+      <c r="L52" s="129"/>
+      <c r="M52" s="129"/>
+      <c r="N52" s="129"/>
+      <c r="O52" s="129"/>
+      <c r="P52" s="129"/>
+      <c r="Q52" s="129"/>
+      <c r="R52" s="129"/>
+      <c r="S52" s="128"/>
+      <c r="T52" s="127"/>
+      <c r="U52" s="130"/>
       <c r="V52" s="128"/>
-      <c r="W52" s="129"/>
-      <c r="X52" s="129"/>
-      <c r="Y52" s="133"/>
-      <c r="Z52" s="134"/>
-      <c r="AA52" s="129"/>
-      <c r="AB52" s="129"/>
-      <c r="AC52" s="129"/>
+      <c r="W52" s="128"/>
+      <c r="X52" s="128"/>
+      <c r="Y52" s="128"/>
+      <c r="Z52" s="127"/>
+      <c r="AA52" s="128"/>
+      <c r="AB52" s="128"/>
+      <c r="AC52" s="128"/>
       <c r="AD52" s="128"/>
-      <c r="AE52" s="129"/>
-      <c r="AF52" s="129"/>
-      <c r="AG52" s="129"/>
-      <c r="AH52" s="129"/>
-      <c r="AI52" s="129"/>
-      <c r="AJ52" s="129"/>
-      <c r="AK52" s="129"/>
-      <c r="AL52" s="129"/>
-      <c r="AM52" s="129"/>
-      <c r="AN52" s="129"/>
-      <c r="AO52" s="129"/>
-      <c r="AP52" s="129"/>
-      <c r="AQ52" s="129"/>
-      <c r="AR52" s="129"/>
-      <c r="AS52" s="129"/>
-      <c r="AT52" s="129"/>
-      <c r="AU52" s="129"/>
-      <c r="AV52" s="136"/>
+      <c r="AE52" s="128"/>
+      <c r="AF52" s="128"/>
+      <c r="AG52" s="128"/>
+      <c r="AH52" s="128"/>
+      <c r="AI52" s="128"/>
+      <c r="AJ52" s="128"/>
+      <c r="AK52" s="128"/>
+      <c r="AL52" s="128"/>
+      <c r="AM52" s="128"/>
+      <c r="AN52" s="128"/>
+      <c r="AO52" s="128"/>
+      <c r="AP52" s="128"/>
+      <c r="AQ52" s="128"/>
+      <c r="AR52" s="128"/>
+      <c r="AS52" s="128"/>
+      <c r="AT52" s="128"/>
+      <c r="AU52" s="128"/>
+      <c r="AV52" s="131"/>
       <c r="AW52" s="20"/>
       <c r="AX52" s="116"/>
     </row>
@@ -11932,16 +11480,16 @@
       <c r="T54" s="19"/>
       <c r="U54" s="19"/>
       <c r="V54" s="19"/>
-      <c r="W54" s="137"/>
-      <c r="X54" s="137"/>
-      <c r="Y54" s="137"/>
-      <c r="Z54" s="137"/>
+      <c r="W54" s="132"/>
+      <c r="X54" s="132"/>
+      <c r="Y54" s="132"/>
+      <c r="Z54" s="132"/>
       <c r="AA54" s="19"/>
       <c r="AB54" s="19"/>
       <c r="AC54" s="19"/>
       <c r="AD54" s="19"/>
-      <c r="AE54" s="137"/>
-      <c r="AF54" s="137"/>
+      <c r="AE54" s="132"/>
+      <c r="AF54" s="132"/>
       <c r="AG54" s="19"/>
       <c r="AH54" s="19"/>
       <c r="AI54" s="19"/>
@@ -11961,7 +11509,7 @@
     </row>
     <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="17"/>
-      <c r="C55" s="138" t="s">
+      <c r="C55" s="133" t="s">
         <v>45</v>
       </c>
       <c r="D55" s="72" t="s">
@@ -11976,18 +11524,18 @@
       <c r="K55" s="72"/>
       <c r="L55" s="72"/>
       <c r="M55" s="72"/>
-      <c r="N55" s="139" t="s">
+      <c r="N55" s="134" t="s">
         <v>63</v>
       </c>
-      <c r="O55" s="139"/>
-      <c r="P55" s="139"/>
-      <c r="Q55" s="139"/>
-      <c r="R55" s="139"/>
-      <c r="S55" s="139"/>
-      <c r="T55" s="139"/>
-      <c r="U55" s="139"/>
-      <c r="V55" s="139"/>
-      <c r="W55" s="139"/>
+      <c r="O55" s="134"/>
+      <c r="P55" s="134"/>
+      <c r="Q55" s="134"/>
+      <c r="R55" s="134"/>
+      <c r="S55" s="134"/>
+      <c r="T55" s="134"/>
+      <c r="U55" s="134"/>
+      <c r="V55" s="134"/>
+      <c r="W55" s="134"/>
       <c r="X55" s="73" t="s">
         <v>49</v>
       </c>
@@ -12019,167 +11567,167 @@
     </row>
     <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="17"/>
-      <c r="C56" s="140" t="n">
+      <c r="C56" s="135" t="n">
         <v>1</v>
       </c>
-      <c r="D56" s="141" t="s">
+      <c r="D56" s="136" t="s">
         <v>78</v>
       </c>
-      <c r="E56" s="97"/>
-      <c r="F56" s="97"/>
-      <c r="G56" s="97"/>
-      <c r="H56" s="97"/>
-      <c r="I56" s="97"/>
-      <c r="J56" s="97"/>
-      <c r="K56" s="97"/>
-      <c r="L56" s="97"/>
-      <c r="M56" s="142"/>
-      <c r="N56" s="143" t="s">
+      <c r="E56" s="137"/>
+      <c r="F56" s="137"/>
+      <c r="G56" s="137"/>
+      <c r="H56" s="137"/>
+      <c r="I56" s="137"/>
+      <c r="J56" s="137"/>
+      <c r="K56" s="137"/>
+      <c r="L56" s="137"/>
+      <c r="M56" s="138"/>
+      <c r="N56" s="136" t="s">
         <v>79</v>
       </c>
-      <c r="O56" s="144"/>
-      <c r="P56" s="144"/>
-      <c r="Q56" s="144"/>
-      <c r="R56" s="144"/>
-      <c r="S56" s="144"/>
-      <c r="T56" s="144"/>
-      <c r="U56" s="144"/>
-      <c r="V56" s="144"/>
-      <c r="W56" s="145"/>
-      <c r="X56" s="143" t="s">
+      <c r="O56" s="137"/>
+      <c r="P56" s="137"/>
+      <c r="Q56" s="137"/>
+      <c r="R56" s="137"/>
+      <c r="S56" s="137"/>
+      <c r="T56" s="137"/>
+      <c r="U56" s="137"/>
+      <c r="V56" s="137"/>
+      <c r="W56" s="138"/>
+      <c r="X56" s="136" t="s">
         <v>80</v>
       </c>
-      <c r="Y56" s="146"/>
-      <c r="Z56" s="146"/>
-      <c r="AA56" s="146"/>
-      <c r="AB56" s="144"/>
-      <c r="AC56" s="144"/>
-      <c r="AD56" s="144"/>
-      <c r="AE56" s="144"/>
-      <c r="AF56" s="146"/>
-      <c r="AG56" s="146"/>
-      <c r="AH56" s="144"/>
-      <c r="AI56" s="144"/>
-      <c r="AJ56" s="144"/>
-      <c r="AK56" s="144"/>
-      <c r="AL56" s="144"/>
-      <c r="AM56" s="144"/>
-      <c r="AN56" s="144"/>
-      <c r="AO56" s="144"/>
-      <c r="AP56" s="144"/>
-      <c r="AQ56" s="144"/>
-      <c r="AR56" s="144"/>
-      <c r="AS56" s="144"/>
-      <c r="AT56" s="144"/>
-      <c r="AU56" s="144"/>
-      <c r="AV56" s="145"/>
+      <c r="Y56" s="139"/>
+      <c r="Z56" s="139"/>
+      <c r="AA56" s="139"/>
+      <c r="AB56" s="137"/>
+      <c r="AC56" s="137"/>
+      <c r="AD56" s="137"/>
+      <c r="AE56" s="137"/>
+      <c r="AF56" s="139"/>
+      <c r="AG56" s="139"/>
+      <c r="AH56" s="137"/>
+      <c r="AI56" s="137"/>
+      <c r="AJ56" s="137"/>
+      <c r="AK56" s="137"/>
+      <c r="AL56" s="137"/>
+      <c r="AM56" s="137"/>
+      <c r="AN56" s="137"/>
+      <c r="AO56" s="137"/>
+      <c r="AP56" s="137"/>
+      <c r="AQ56" s="137"/>
+      <c r="AR56" s="137"/>
+      <c r="AS56" s="137"/>
+      <c r="AT56" s="137"/>
+      <c r="AU56" s="137"/>
+      <c r="AV56" s="138"/>
       <c r="AW56" s="20"/>
     </row>
     <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="17"/>
-      <c r="C57" s="147"/>
-      <c r="D57" s="148"/>
-      <c r="E57" s="149"/>
-      <c r="F57" s="149"/>
-      <c r="G57" s="149"/>
-      <c r="H57" s="149"/>
-      <c r="I57" s="149"/>
-      <c r="J57" s="149"/>
-      <c r="K57" s="149"/>
-      <c r="L57" s="149"/>
-      <c r="M57" s="150"/>
-      <c r="N57" s="148"/>
-      <c r="O57" s="149"/>
-      <c r="P57" s="149"/>
-      <c r="Q57" s="149"/>
-      <c r="R57" s="149"/>
-      <c r="S57" s="149"/>
-      <c r="T57" s="149"/>
-      <c r="U57" s="149"/>
-      <c r="V57" s="149"/>
-      <c r="W57" s="150"/>
-      <c r="X57" s="148"/>
-      <c r="Y57" s="151"/>
-      <c r="Z57" s="151"/>
-      <c r="AA57" s="151"/>
-      <c r="AB57" s="149"/>
-      <c r="AC57" s="149"/>
-      <c r="AD57" s="149"/>
-      <c r="AE57" s="149"/>
-      <c r="AF57" s="151"/>
-      <c r="AG57" s="151"/>
-      <c r="AH57" s="149"/>
-      <c r="AI57" s="149"/>
-      <c r="AJ57" s="149"/>
-      <c r="AK57" s="149"/>
-      <c r="AL57" s="149"/>
-      <c r="AM57" s="149"/>
-      <c r="AN57" s="149"/>
-      <c r="AO57" s="149"/>
-      <c r="AP57" s="149"/>
-      <c r="AQ57" s="149"/>
-      <c r="AR57" s="149"/>
-      <c r="AS57" s="149"/>
-      <c r="AT57" s="149"/>
-      <c r="AU57" s="149"/>
-      <c r="AV57" s="150"/>
+      <c r="C57" s="140"/>
+      <c r="D57" s="141"/>
+      <c r="E57" s="141"/>
+      <c r="F57" s="141"/>
+      <c r="G57" s="141"/>
+      <c r="H57" s="141"/>
+      <c r="I57" s="141"/>
+      <c r="J57" s="141"/>
+      <c r="K57" s="141"/>
+      <c r="L57" s="141"/>
+      <c r="M57" s="141"/>
+      <c r="N57" s="141"/>
+      <c r="O57" s="141"/>
+      <c r="P57" s="141"/>
+      <c r="Q57" s="141"/>
+      <c r="R57" s="141"/>
+      <c r="S57" s="141"/>
+      <c r="T57" s="141"/>
+      <c r="U57" s="141"/>
+      <c r="V57" s="141"/>
+      <c r="W57" s="141"/>
+      <c r="X57" s="141"/>
+      <c r="Y57" s="140"/>
+      <c r="Z57" s="140"/>
+      <c r="AA57" s="140"/>
+      <c r="AB57" s="141"/>
+      <c r="AC57" s="141"/>
+      <c r="AD57" s="141"/>
+      <c r="AE57" s="141"/>
+      <c r="AF57" s="140"/>
+      <c r="AG57" s="140"/>
+      <c r="AH57" s="141"/>
+      <c r="AI57" s="141"/>
+      <c r="AJ57" s="141"/>
+      <c r="AK57" s="141"/>
+      <c r="AL57" s="141"/>
+      <c r="AM57" s="141"/>
+      <c r="AN57" s="141"/>
+      <c r="AO57" s="141"/>
+      <c r="AP57" s="141"/>
+      <c r="AQ57" s="141"/>
+      <c r="AR57" s="141"/>
+      <c r="AS57" s="141"/>
+      <c r="AT57" s="141"/>
+      <c r="AU57" s="141"/>
+      <c r="AV57" s="141"/>
       <c r="AW57" s="20"/>
     </row>
     <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="17"/>
-      <c r="C58" s="152"/>
-      <c r="D58" s="153"/>
-      <c r="E58" s="154"/>
-      <c r="F58" s="154"/>
-      <c r="G58" s="154"/>
-      <c r="H58" s="154"/>
-      <c r="I58" s="154"/>
-      <c r="J58" s="154"/>
-      <c r="K58" s="154"/>
-      <c r="L58" s="154"/>
-      <c r="M58" s="155"/>
-      <c r="N58" s="156"/>
-      <c r="O58" s="157"/>
-      <c r="P58" s="157"/>
-      <c r="Q58" s="157"/>
-      <c r="R58" s="157"/>
-      <c r="S58" s="157"/>
-      <c r="T58" s="157"/>
-      <c r="U58" s="157"/>
-      <c r="V58" s="157"/>
-      <c r="W58" s="158"/>
-      <c r="X58" s="156"/>
-      <c r="Y58" s="159"/>
-      <c r="Z58" s="159"/>
-      <c r="AA58" s="159"/>
-      <c r="AB58" s="157"/>
-      <c r="AC58" s="157"/>
-      <c r="AD58" s="157"/>
-      <c r="AE58" s="157"/>
-      <c r="AF58" s="159"/>
-      <c r="AG58" s="159"/>
-      <c r="AH58" s="157"/>
-      <c r="AI58" s="157"/>
-      <c r="AJ58" s="157"/>
-      <c r="AK58" s="157"/>
-      <c r="AL58" s="157"/>
-      <c r="AM58" s="157"/>
-      <c r="AN58" s="157"/>
-      <c r="AO58" s="157"/>
-      <c r="AP58" s="157"/>
-      <c r="AQ58" s="157"/>
-      <c r="AR58" s="157"/>
-      <c r="AS58" s="157"/>
-      <c r="AT58" s="157"/>
-      <c r="AU58" s="157"/>
-      <c r="AV58" s="160"/>
+      <c r="C58" s="140"/>
+      <c r="D58" s="141"/>
+      <c r="E58" s="141"/>
+      <c r="F58" s="141"/>
+      <c r="G58" s="141"/>
+      <c r="H58" s="141"/>
+      <c r="I58" s="141"/>
+      <c r="J58" s="141"/>
+      <c r="K58" s="141"/>
+      <c r="L58" s="141"/>
+      <c r="M58" s="141"/>
+      <c r="N58" s="141"/>
+      <c r="O58" s="141"/>
+      <c r="P58" s="141"/>
+      <c r="Q58" s="141"/>
+      <c r="R58" s="141"/>
+      <c r="S58" s="141"/>
+      <c r="T58" s="141"/>
+      <c r="U58" s="141"/>
+      <c r="V58" s="141"/>
+      <c r="W58" s="141"/>
+      <c r="X58" s="141"/>
+      <c r="Y58" s="140"/>
+      <c r="Z58" s="140"/>
+      <c r="AA58" s="140"/>
+      <c r="AB58" s="141"/>
+      <c r="AC58" s="141"/>
+      <c r="AD58" s="141"/>
+      <c r="AE58" s="141"/>
+      <c r="AF58" s="140"/>
+      <c r="AG58" s="140"/>
+      <c r="AH58" s="141"/>
+      <c r="AI58" s="141"/>
+      <c r="AJ58" s="141"/>
+      <c r="AK58" s="141"/>
+      <c r="AL58" s="141"/>
+      <c r="AM58" s="141"/>
+      <c r="AN58" s="141"/>
+      <c r="AO58" s="141"/>
+      <c r="AP58" s="141"/>
+      <c r="AQ58" s="141"/>
+      <c r="AR58" s="141"/>
+      <c r="AS58" s="141"/>
+      <c r="AT58" s="141"/>
+      <c r="AU58" s="141"/>
+      <c r="AV58" s="142"/>
       <c r="AW58" s="20"/>
     </row>
     <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="17"/>
       <c r="B59" s="28"/>
-      <c r="C59" s="137"/>
-      <c r="D59" s="161"/>
+      <c r="C59" s="132"/>
+      <c r="D59" s="143"/>
       <c r="E59" s="19"/>
       <c r="F59" s="19"/>
       <c r="G59" s="19"/>
@@ -12200,15 +11748,15 @@
       <c r="V59" s="19"/>
       <c r="W59" s="19"/>
       <c r="X59" s="19"/>
-      <c r="Y59" s="137"/>
-      <c r="Z59" s="137"/>
-      <c r="AA59" s="137"/>
+      <c r="Y59" s="132"/>
+      <c r="Z59" s="132"/>
+      <c r="AA59" s="132"/>
       <c r="AB59" s="19"/>
       <c r="AC59" s="19"/>
       <c r="AD59" s="19"/>
       <c r="AE59" s="19"/>
-      <c r="AF59" s="137"/>
-      <c r="AG59" s="137"/>
+      <c r="AF59" s="132"/>
+      <c r="AG59" s="132"/>
       <c r="AH59" s="19"/>
       <c r="AI59" s="19"/>
       <c r="AJ59" s="19"/>
@@ -12225,285 +11773,276 @@
       <c r="AU59" s="19"/>
       <c r="AW59" s="20"/>
     </row>
-    <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="17"/>
       <c r="B60" s="28"/>
-      <c r="C60" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="19"/>
-      <c r="K60" s="19"/>
-      <c r="L60" s="19"/>
-      <c r="M60" s="19"/>
-      <c r="N60" s="19"/>
-      <c r="O60" s="19"/>
-      <c r="P60" s="19"/>
-      <c r="Q60" s="19"/>
-      <c r="R60" s="19"/>
-      <c r="S60" s="19"/>
-      <c r="T60" s="19"/>
-      <c r="U60" s="19"/>
-      <c r="V60" s="19"/>
-      <c r="W60" s="137"/>
-      <c r="X60" s="137"/>
-      <c r="Y60" s="137"/>
-      <c r="Z60" s="137"/>
-      <c r="AA60" s="19"/>
-      <c r="AB60" s="19"/>
-      <c r="AC60" s="19"/>
-      <c r="AD60" s="19"/>
-      <c r="AE60" s="137"/>
-      <c r="AF60" s="137"/>
-      <c r="AG60" s="19"/>
-      <c r="AH60" s="19"/>
-      <c r="AI60" s="19"/>
-      <c r="AJ60" s="19"/>
-      <c r="AK60" s="19"/>
-      <c r="AL60" s="19"/>
-      <c r="AM60" s="19"/>
-      <c r="AN60" s="19"/>
-      <c r="AO60" s="19"/>
-      <c r="AP60" s="19"/>
-      <c r="AQ60" s="19"/>
-      <c r="AR60" s="19"/>
-      <c r="AS60" s="19"/>
-      <c r="AT60" s="19"/>
-      <c r="AU60" s="19"/>
+      <c r="C60" s="99"/>
       <c r="AW60" s="20"/>
-    </row>
-    <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AKP60" s="0"/>
+      <c r="AKQ60" s="0"/>
+      <c r="AKR60" s="0"/>
+      <c r="AKS60" s="0"/>
+      <c r="AKT60" s="0"/>
+      <c r="AKU60" s="0"/>
+      <c r="AKV60" s="0"/>
+      <c r="AKW60" s="0"/>
+      <c r="AKX60" s="0"/>
+      <c r="AKY60" s="0"/>
+      <c r="AKZ60" s="0"/>
+      <c r="ALA60" s="0"/>
+      <c r="ALB60" s="0"/>
+      <c r="ALC60" s="0"/>
+      <c r="ALD60" s="0"/>
+      <c r="ALE60" s="0"/>
+      <c r="ALF60" s="0"/>
+      <c r="ALG60" s="0"/>
+      <c r="ALH60" s="0"/>
+      <c r="ALI60" s="0"/>
+      <c r="ALJ60" s="0"/>
+      <c r="ALK60" s="0"/>
+      <c r="ALL60" s="0"/>
+      <c r="ALM60" s="0"/>
+      <c r="ALN60" s="0"/>
+      <c r="ALO60" s="0"/>
+      <c r="ALP60" s="0"/>
+      <c r="ALQ60" s="0"/>
+      <c r="ALR60" s="0"/>
+      <c r="ALS60" s="0"/>
+      <c r="ALT60" s="0"/>
+      <c r="ALU60" s="0"/>
+      <c r="ALV60" s="0"/>
+      <c r="ALW60" s="0"/>
+      <c r="ALX60" s="0"/>
+      <c r="ALY60" s="0"/>
+      <c r="ALZ60" s="0"/>
+      <c r="AMA60" s="0"/>
+      <c r="AMB60" s="0"/>
+      <c r="AMC60" s="0"/>
+      <c r="AMD60" s="0"/>
+      <c r="AME60" s="0"/>
+      <c r="AMF60" s="0"/>
+      <c r="AMG60" s="0"/>
+      <c r="AMH60" s="0"/>
+      <c r="AMI60" s="0"/>
+      <c r="AMJ60" s="0"/>
+    </row>
+    <row r="61" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="17"/>
       <c r="B61" s="28"/>
-      <c r="C61" s="138" t="s">
-        <v>45</v>
-      </c>
-      <c r="D61" s="72" t="s">
-        <v>59</v>
-      </c>
-      <c r="E61" s="72"/>
-      <c r="F61" s="72"/>
-      <c r="G61" s="72"/>
-      <c r="H61" s="72"/>
-      <c r="I61" s="72"/>
-      <c r="J61" s="72"/>
-      <c r="K61" s="72"/>
-      <c r="L61" s="72"/>
-      <c r="M61" s="72"/>
-      <c r="N61" s="139" t="s">
-        <v>63</v>
-      </c>
-      <c r="O61" s="139"/>
-      <c r="P61" s="139"/>
-      <c r="Q61" s="139"/>
-      <c r="R61" s="139"/>
-      <c r="S61" s="139"/>
-      <c r="T61" s="139"/>
-      <c r="U61" s="139"/>
-      <c r="V61" s="139"/>
-      <c r="W61" s="139"/>
-      <c r="X61" s="73" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y61" s="73"/>
-      <c r="Z61" s="73"/>
-      <c r="AA61" s="73"/>
-      <c r="AB61" s="73"/>
-      <c r="AC61" s="73"/>
-      <c r="AD61" s="73"/>
-      <c r="AE61" s="73"/>
-      <c r="AF61" s="73"/>
-      <c r="AG61" s="73"/>
-      <c r="AH61" s="73"/>
-      <c r="AI61" s="73"/>
-      <c r="AJ61" s="73"/>
-      <c r="AK61" s="73"/>
-      <c r="AL61" s="73"/>
-      <c r="AM61" s="73"/>
-      <c r="AN61" s="73"/>
-      <c r="AO61" s="73"/>
-      <c r="AP61" s="73"/>
-      <c r="AQ61" s="73"/>
-      <c r="AR61" s="73"/>
-      <c r="AS61" s="73"/>
-      <c r="AT61" s="73"/>
-      <c r="AU61" s="73"/>
-      <c r="AV61" s="73"/>
+      <c r="C61" s="99"/>
       <c r="AW61" s="20"/>
-    </row>
-    <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AKP61" s="0"/>
+      <c r="AKQ61" s="0"/>
+      <c r="AKR61" s="0"/>
+      <c r="AKS61" s="0"/>
+      <c r="AKT61" s="0"/>
+      <c r="AKU61" s="0"/>
+      <c r="AKV61" s="0"/>
+      <c r="AKW61" s="0"/>
+      <c r="AKX61" s="0"/>
+      <c r="AKY61" s="0"/>
+      <c r="AKZ61" s="0"/>
+      <c r="ALA61" s="0"/>
+      <c r="ALB61" s="0"/>
+      <c r="ALC61" s="0"/>
+      <c r="ALD61" s="0"/>
+      <c r="ALE61" s="0"/>
+      <c r="ALF61" s="0"/>
+      <c r="ALG61" s="0"/>
+      <c r="ALH61" s="0"/>
+      <c r="ALI61" s="0"/>
+      <c r="ALJ61" s="0"/>
+      <c r="ALK61" s="0"/>
+      <c r="ALL61" s="0"/>
+      <c r="ALM61" s="0"/>
+      <c r="ALN61" s="0"/>
+      <c r="ALO61" s="0"/>
+      <c r="ALP61" s="0"/>
+      <c r="ALQ61" s="0"/>
+      <c r="ALR61" s="0"/>
+      <c r="ALS61" s="0"/>
+      <c r="ALT61" s="0"/>
+      <c r="ALU61" s="0"/>
+      <c r="ALV61" s="0"/>
+      <c r="ALW61" s="0"/>
+      <c r="ALX61" s="0"/>
+      <c r="ALY61" s="0"/>
+      <c r="ALZ61" s="0"/>
+      <c r="AMA61" s="0"/>
+      <c r="AMB61" s="0"/>
+      <c r="AMC61" s="0"/>
+      <c r="AMD61" s="0"/>
+      <c r="AME61" s="0"/>
+      <c r="AMF61" s="0"/>
+      <c r="AMG61" s="0"/>
+      <c r="AMH61" s="0"/>
+      <c r="AMI61" s="0"/>
+      <c r="AMJ61" s="0"/>
+    </row>
+    <row r="62" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="17"/>
       <c r="B62" s="28"/>
-      <c r="C62" s="140" t="n">
-        <v>1</v>
-      </c>
-      <c r="D62" s="141" t="s">
-        <v>82</v>
-      </c>
-      <c r="E62" s="97"/>
-      <c r="F62" s="97"/>
-      <c r="G62" s="97"/>
-      <c r="H62" s="97"/>
-      <c r="I62" s="97"/>
-      <c r="J62" s="97"/>
-      <c r="K62" s="97"/>
-      <c r="L62" s="97"/>
-      <c r="M62" s="142"/>
-      <c r="N62" s="143" t="s">
-        <v>83</v>
-      </c>
-      <c r="O62" s="144"/>
-      <c r="P62" s="144"/>
-      <c r="Q62" s="144"/>
-      <c r="R62" s="144"/>
-      <c r="S62" s="144"/>
-      <c r="T62" s="144"/>
-      <c r="U62" s="144"/>
-      <c r="V62" s="144"/>
-      <c r="W62" s="145"/>
-      <c r="X62" s="143" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y62" s="146"/>
-      <c r="Z62" s="146"/>
-      <c r="AA62" s="146"/>
-      <c r="AB62" s="144"/>
-      <c r="AC62" s="144"/>
-      <c r="AD62" s="144"/>
-      <c r="AE62" s="144"/>
-      <c r="AF62" s="146"/>
-      <c r="AG62" s="146"/>
-      <c r="AH62" s="144"/>
-      <c r="AI62" s="144"/>
-      <c r="AJ62" s="144"/>
-      <c r="AK62" s="144"/>
-      <c r="AL62" s="144"/>
-      <c r="AM62" s="144"/>
-      <c r="AN62" s="144"/>
-      <c r="AO62" s="144"/>
-      <c r="AP62" s="144"/>
-      <c r="AQ62" s="144"/>
-      <c r="AR62" s="144"/>
-      <c r="AS62" s="144"/>
-      <c r="AT62" s="144"/>
-      <c r="AU62" s="144"/>
-      <c r="AV62" s="145"/>
+      <c r="C62" s="99"/>
       <c r="AW62" s="20"/>
-    </row>
-    <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AKP62" s="0"/>
+      <c r="AKQ62" s="0"/>
+      <c r="AKR62" s="0"/>
+      <c r="AKS62" s="0"/>
+      <c r="AKT62" s="0"/>
+      <c r="AKU62" s="0"/>
+      <c r="AKV62" s="0"/>
+      <c r="AKW62" s="0"/>
+      <c r="AKX62" s="0"/>
+      <c r="AKY62" s="0"/>
+      <c r="AKZ62" s="0"/>
+      <c r="ALA62" s="0"/>
+      <c r="ALB62" s="0"/>
+      <c r="ALC62" s="0"/>
+      <c r="ALD62" s="0"/>
+      <c r="ALE62" s="0"/>
+      <c r="ALF62" s="0"/>
+      <c r="ALG62" s="0"/>
+      <c r="ALH62" s="0"/>
+      <c r="ALI62" s="0"/>
+      <c r="ALJ62" s="0"/>
+      <c r="ALK62" s="0"/>
+      <c r="ALL62" s="0"/>
+      <c r="ALM62" s="0"/>
+      <c r="ALN62" s="0"/>
+      <c r="ALO62" s="0"/>
+      <c r="ALP62" s="0"/>
+      <c r="ALQ62" s="0"/>
+      <c r="ALR62" s="0"/>
+      <c r="ALS62" s="0"/>
+      <c r="ALT62" s="0"/>
+      <c r="ALU62" s="0"/>
+      <c r="ALV62" s="0"/>
+      <c r="ALW62" s="0"/>
+      <c r="ALX62" s="0"/>
+      <c r="ALY62" s="0"/>
+      <c r="ALZ62" s="0"/>
+      <c r="AMA62" s="0"/>
+      <c r="AMB62" s="0"/>
+      <c r="AMC62" s="0"/>
+      <c r="AMD62" s="0"/>
+      <c r="AME62" s="0"/>
+      <c r="AMF62" s="0"/>
+      <c r="AMG62" s="0"/>
+      <c r="AMH62" s="0"/>
+      <c r="AMI62" s="0"/>
+      <c r="AMJ62" s="0"/>
+    </row>
+    <row r="63" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="17"/>
       <c r="B63" s="28"/>
-      <c r="C63" s="147" t="n">
-        <v>2</v>
-      </c>
-      <c r="D63" s="148"/>
-      <c r="E63" s="149"/>
-      <c r="F63" s="149"/>
-      <c r="G63" s="149"/>
-      <c r="H63" s="149"/>
-      <c r="I63" s="149"/>
-      <c r="J63" s="149"/>
-      <c r="K63" s="149"/>
-      <c r="L63" s="149"/>
-      <c r="M63" s="150"/>
-      <c r="N63" s="148"/>
-      <c r="O63" s="149"/>
-      <c r="P63" s="149"/>
-      <c r="Q63" s="149"/>
-      <c r="R63" s="149"/>
-      <c r="S63" s="149"/>
-      <c r="T63" s="149"/>
-      <c r="U63" s="149"/>
-      <c r="V63" s="149"/>
-      <c r="W63" s="150"/>
-      <c r="X63" s="148"/>
-      <c r="Y63" s="151"/>
-      <c r="Z63" s="151"/>
-      <c r="AA63" s="151"/>
-      <c r="AB63" s="149"/>
-      <c r="AC63" s="149"/>
-      <c r="AD63" s="149"/>
-      <c r="AE63" s="149"/>
-      <c r="AF63" s="151"/>
-      <c r="AG63" s="151"/>
-      <c r="AH63" s="149"/>
-      <c r="AI63" s="149"/>
-      <c r="AJ63" s="149"/>
-      <c r="AK63" s="149"/>
-      <c r="AL63" s="149"/>
-      <c r="AM63" s="149"/>
-      <c r="AN63" s="149"/>
-      <c r="AO63" s="149"/>
-      <c r="AP63" s="149"/>
-      <c r="AQ63" s="149"/>
-      <c r="AR63" s="149"/>
-      <c r="AS63" s="149"/>
-      <c r="AT63" s="149"/>
-      <c r="AU63" s="149"/>
-      <c r="AV63" s="150"/>
+      <c r="C63" s="99"/>
       <c r="AW63" s="20"/>
-    </row>
-    <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AKP63" s="0"/>
+      <c r="AKQ63" s="0"/>
+      <c r="AKR63" s="0"/>
+      <c r="AKS63" s="0"/>
+      <c r="AKT63" s="0"/>
+      <c r="AKU63" s="0"/>
+      <c r="AKV63" s="0"/>
+      <c r="AKW63" s="0"/>
+      <c r="AKX63" s="0"/>
+      <c r="AKY63" s="0"/>
+      <c r="AKZ63" s="0"/>
+      <c r="ALA63" s="0"/>
+      <c r="ALB63" s="0"/>
+      <c r="ALC63" s="0"/>
+      <c r="ALD63" s="0"/>
+      <c r="ALE63" s="0"/>
+      <c r="ALF63" s="0"/>
+      <c r="ALG63" s="0"/>
+      <c r="ALH63" s="0"/>
+      <c r="ALI63" s="0"/>
+      <c r="ALJ63" s="0"/>
+      <c r="ALK63" s="0"/>
+      <c r="ALL63" s="0"/>
+      <c r="ALM63" s="0"/>
+      <c r="ALN63" s="0"/>
+      <c r="ALO63" s="0"/>
+      <c r="ALP63" s="0"/>
+      <c r="ALQ63" s="0"/>
+      <c r="ALR63" s="0"/>
+      <c r="ALS63" s="0"/>
+      <c r="ALT63" s="0"/>
+      <c r="ALU63" s="0"/>
+      <c r="ALV63" s="0"/>
+      <c r="ALW63" s="0"/>
+      <c r="ALX63" s="0"/>
+      <c r="ALY63" s="0"/>
+      <c r="ALZ63" s="0"/>
+      <c r="AMA63" s="0"/>
+      <c r="AMB63" s="0"/>
+      <c r="AMC63" s="0"/>
+      <c r="AMD63" s="0"/>
+      <c r="AME63" s="0"/>
+      <c r="AMF63" s="0"/>
+      <c r="AMG63" s="0"/>
+      <c r="AMH63" s="0"/>
+      <c r="AMI63" s="0"/>
+      <c r="AMJ63" s="0"/>
+    </row>
+    <row r="64" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="17"/>
       <c r="B64" s="28"/>
-      <c r="C64" s="152"/>
-      <c r="D64" s="153"/>
-      <c r="E64" s="154"/>
-      <c r="F64" s="154"/>
-      <c r="G64" s="154"/>
-      <c r="H64" s="154"/>
-      <c r="I64" s="154"/>
-      <c r="J64" s="154"/>
-      <c r="K64" s="154"/>
-      <c r="L64" s="154"/>
-      <c r="M64" s="155"/>
-      <c r="N64" s="156"/>
-      <c r="O64" s="157"/>
-      <c r="P64" s="157"/>
-      <c r="Q64" s="157"/>
-      <c r="R64" s="157"/>
-      <c r="S64" s="157"/>
-      <c r="T64" s="157"/>
-      <c r="U64" s="157"/>
-      <c r="V64" s="157"/>
-      <c r="W64" s="158"/>
-      <c r="X64" s="156"/>
-      <c r="Y64" s="159"/>
-      <c r="Z64" s="159"/>
-      <c r="AA64" s="159"/>
-      <c r="AB64" s="157"/>
-      <c r="AC64" s="157"/>
-      <c r="AD64" s="157"/>
-      <c r="AE64" s="157"/>
-      <c r="AF64" s="159"/>
-      <c r="AG64" s="159"/>
-      <c r="AH64" s="157"/>
-      <c r="AI64" s="157"/>
-      <c r="AJ64" s="157"/>
-      <c r="AK64" s="157"/>
-      <c r="AL64" s="157"/>
-      <c r="AM64" s="157"/>
-      <c r="AN64" s="157"/>
-      <c r="AO64" s="157"/>
-      <c r="AP64" s="157"/>
-      <c r="AQ64" s="157"/>
-      <c r="AR64" s="157"/>
-      <c r="AS64" s="157"/>
-      <c r="AT64" s="157"/>
-      <c r="AU64" s="157"/>
-      <c r="AV64" s="160"/>
+      <c r="C64" s="99"/>
       <c r="AW64" s="20"/>
+      <c r="AKP64" s="0"/>
+      <c r="AKQ64" s="0"/>
+      <c r="AKR64" s="0"/>
+      <c r="AKS64" s="0"/>
+      <c r="AKT64" s="0"/>
+      <c r="AKU64" s="0"/>
+      <c r="AKV64" s="0"/>
+      <c r="AKW64" s="0"/>
+      <c r="AKX64" s="0"/>
+      <c r="AKY64" s="0"/>
+      <c r="AKZ64" s="0"/>
+      <c r="ALA64" s="0"/>
+      <c r="ALB64" s="0"/>
+      <c r="ALC64" s="0"/>
+      <c r="ALD64" s="0"/>
+      <c r="ALE64" s="0"/>
+      <c r="ALF64" s="0"/>
+      <c r="ALG64" s="0"/>
+      <c r="ALH64" s="0"/>
+      <c r="ALI64" s="0"/>
+      <c r="ALJ64" s="0"/>
+      <c r="ALK64" s="0"/>
+      <c r="ALL64" s="0"/>
+      <c r="ALM64" s="0"/>
+      <c r="ALN64" s="0"/>
+      <c r="ALO64" s="0"/>
+      <c r="ALP64" s="0"/>
+      <c r="ALQ64" s="0"/>
+      <c r="ALR64" s="0"/>
+      <c r="ALS64" s="0"/>
+      <c r="ALT64" s="0"/>
+      <c r="ALU64" s="0"/>
+      <c r="ALV64" s="0"/>
+      <c r="ALW64" s="0"/>
+      <c r="ALX64" s="0"/>
+      <c r="ALY64" s="0"/>
+      <c r="ALZ64" s="0"/>
+      <c r="AMA64" s="0"/>
+      <c r="AMB64" s="0"/>
+      <c r="AMC64" s="0"/>
+      <c r="AMD64" s="0"/>
+      <c r="AME64" s="0"/>
+      <c r="AMF64" s="0"/>
+      <c r="AMG64" s="0"/>
+      <c r="AMH64" s="0"/>
+      <c r="AMI64" s="0"/>
+      <c r="AMJ64" s="0"/>
     </row>
     <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="17"/>
       <c r="B65" s="28"/>
-      <c r="C65" s="137"/>
-      <c r="D65" s="161"/>
+      <c r="C65" s="132"/>
+      <c r="D65" s="143"/>
       <c r="E65" s="19"/>
       <c r="F65" s="19"/>
       <c r="G65" s="19"/>
@@ -12524,15 +12063,15 @@
       <c r="V65" s="19"/>
       <c r="W65" s="19"/>
       <c r="X65" s="19"/>
-      <c r="Y65" s="137"/>
-      <c r="Z65" s="137"/>
-      <c r="AA65" s="137"/>
+      <c r="Y65" s="132"/>
+      <c r="Z65" s="132"/>
+      <c r="AA65" s="132"/>
       <c r="AB65" s="19"/>
       <c r="AC65" s="19"/>
       <c r="AD65" s="19"/>
       <c r="AE65" s="19"/>
-      <c r="AF65" s="137"/>
-      <c r="AG65" s="137"/>
+      <c r="AF65" s="132"/>
+      <c r="AG65" s="132"/>
       <c r="AH65" s="19"/>
       <c r="AI65" s="19"/>
       <c r="AJ65" s="19"/>
@@ -12552,8 +12091,8 @@
     <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="17"/>
       <c r="B66" s="28"/>
-      <c r="C66" s="137"/>
-      <c r="D66" s="161"/>
+      <c r="C66" s="132"/>
+      <c r="D66" s="143"/>
       <c r="E66" s="19"/>
       <c r="F66" s="19"/>
       <c r="G66" s="19"/>
@@ -12574,15 +12113,15 @@
       <c r="V66" s="19"/>
       <c r="W66" s="19"/>
       <c r="X66" s="19"/>
-      <c r="Y66" s="137"/>
-      <c r="Z66" s="137"/>
-      <c r="AA66" s="137"/>
+      <c r="Y66" s="132"/>
+      <c r="Z66" s="132"/>
+      <c r="AA66" s="132"/>
       <c r="AB66" s="19"/>
       <c r="AC66" s="19"/>
       <c r="AD66" s="19"/>
       <c r="AE66" s="19"/>
-      <c r="AF66" s="137"/>
-      <c r="AG66" s="137"/>
+      <c r="AF66" s="132"/>
+      <c r="AG66" s="132"/>
       <c r="AH66" s="19"/>
       <c r="AI66" s="19"/>
       <c r="AJ66" s="19"/>
@@ -12602,8 +12141,8 @@
     <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="17"/>
       <c r="B67" s="28"/>
-      <c r="C67" s="137"/>
-      <c r="D67" s="161"/>
+      <c r="C67" s="132"/>
+      <c r="D67" s="143"/>
       <c r="E67" s="19"/>
       <c r="F67" s="19"/>
       <c r="G67" s="19"/>
@@ -12624,15 +12163,15 @@
       <c r="V67" s="19"/>
       <c r="W67" s="19"/>
       <c r="X67" s="19"/>
-      <c r="Y67" s="137"/>
-      <c r="Z67" s="137"/>
-      <c r="AA67" s="137"/>
+      <c r="Y67" s="132"/>
+      <c r="Z67" s="132"/>
+      <c r="AA67" s="132"/>
       <c r="AB67" s="19"/>
       <c r="AC67" s="19"/>
       <c r="AD67" s="19"/>
       <c r="AE67" s="19"/>
-      <c r="AF67" s="137"/>
-      <c r="AG67" s="137"/>
+      <c r="AF67" s="132"/>
+      <c r="AG67" s="132"/>
       <c r="AH67" s="19"/>
       <c r="AI67" s="19"/>
       <c r="AJ67" s="19"/>
@@ -12652,8 +12191,8 @@
     <row r="68" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="17"/>
       <c r="B68" s="28"/>
-      <c r="C68" s="137"/>
-      <c r="D68" s="161"/>
+      <c r="C68" s="132"/>
+      <c r="D68" s="143"/>
       <c r="E68" s="19"/>
       <c r="F68" s="19"/>
       <c r="G68" s="19"/>
@@ -12674,15 +12213,15 @@
       <c r="V68" s="19"/>
       <c r="W68" s="19"/>
       <c r="X68" s="19"/>
-      <c r="Y68" s="137"/>
-      <c r="Z68" s="137"/>
-      <c r="AA68" s="137"/>
+      <c r="Y68" s="132"/>
+      <c r="Z68" s="132"/>
+      <c r="AA68" s="132"/>
       <c r="AB68" s="19"/>
       <c r="AC68" s="19"/>
       <c r="AD68" s="19"/>
       <c r="AE68" s="19"/>
-      <c r="AF68" s="137"/>
-      <c r="AG68" s="137"/>
+      <c r="AF68" s="132"/>
+      <c r="AG68" s="132"/>
       <c r="AH68" s="19"/>
       <c r="AI68" s="19"/>
       <c r="AJ68" s="19"/>
@@ -12702,8 +12241,8 @@
     <row r="69" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="17"/>
       <c r="B69" s="28"/>
-      <c r="C69" s="137"/>
-      <c r="D69" s="161"/>
+      <c r="C69" s="132"/>
+      <c r="D69" s="143"/>
       <c r="E69" s="19"/>
       <c r="F69" s="19"/>
       <c r="G69" s="19"/>
@@ -12724,15 +12263,15 @@
       <c r="V69" s="19"/>
       <c r="W69" s="19"/>
       <c r="X69" s="19"/>
-      <c r="Y69" s="137"/>
-      <c r="Z69" s="137"/>
-      <c r="AA69" s="137"/>
+      <c r="Y69" s="132"/>
+      <c r="Z69" s="132"/>
+      <c r="AA69" s="132"/>
       <c r="AB69" s="19"/>
       <c r="AC69" s="19"/>
       <c r="AD69" s="19"/>
       <c r="AE69" s="19"/>
-      <c r="AF69" s="137"/>
-      <c r="AG69" s="137"/>
+      <c r="AF69" s="132"/>
+      <c r="AG69" s="132"/>
       <c r="AH69" s="19"/>
       <c r="AI69" s="19"/>
       <c r="AJ69" s="19"/>
@@ -12752,8 +12291,8 @@
     <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="17"/>
       <c r="B70" s="28"/>
-      <c r="C70" s="137"/>
-      <c r="D70" s="161"/>
+      <c r="C70" s="132"/>
+      <c r="D70" s="143"/>
       <c r="E70" s="19"/>
       <c r="F70" s="19"/>
       <c r="G70" s="19"/>
@@ -12774,15 +12313,15 @@
       <c r="V70" s="19"/>
       <c r="W70" s="19"/>
       <c r="X70" s="19"/>
-      <c r="Y70" s="137"/>
-      <c r="Z70" s="137"/>
-      <c r="AA70" s="137"/>
+      <c r="Y70" s="132"/>
+      <c r="Z70" s="132"/>
+      <c r="AA70" s="132"/>
       <c r="AB70" s="19"/>
       <c r="AC70" s="19"/>
       <c r="AD70" s="19"/>
       <c r="AE70" s="19"/>
-      <c r="AF70" s="137"/>
-      <c r="AG70" s="137"/>
+      <c r="AF70" s="132"/>
+      <c r="AG70" s="132"/>
       <c r="AH70" s="19"/>
       <c r="AI70" s="19"/>
       <c r="AJ70" s="19"/>
@@ -12802,8 +12341,8 @@
     <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="17"/>
       <c r="B71" s="28"/>
-      <c r="C71" s="137"/>
-      <c r="D71" s="161"/>
+      <c r="C71" s="132"/>
+      <c r="D71" s="143"/>
       <c r="E71" s="19"/>
       <c r="F71" s="19"/>
       <c r="G71" s="19"/>
@@ -12824,15 +12363,15 @@
       <c r="V71" s="19"/>
       <c r="W71" s="19"/>
       <c r="X71" s="19"/>
-      <c r="Y71" s="137"/>
-      <c r="Z71" s="137"/>
-      <c r="AA71" s="137"/>
+      <c r="Y71" s="132"/>
+      <c r="Z71" s="132"/>
+      <c r="AA71" s="132"/>
       <c r="AB71" s="19"/>
       <c r="AC71" s="19"/>
       <c r="AD71" s="19"/>
       <c r="AE71" s="19"/>
-      <c r="AF71" s="137"/>
-      <c r="AG71" s="137"/>
+      <c r="AF71" s="132"/>
+      <c r="AG71" s="132"/>
       <c r="AH71" s="19"/>
       <c r="AI71" s="19"/>
       <c r="AJ71" s="19"/>
@@ -12852,8 +12391,8 @@
     <row r="72" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="17"/>
       <c r="B72" s="28"/>
-      <c r="C72" s="137"/>
-      <c r="D72" s="161"/>
+      <c r="C72" s="132"/>
+      <c r="D72" s="143"/>
       <c r="E72" s="19"/>
       <c r="F72" s="19"/>
       <c r="G72" s="19"/>
@@ -12874,15 +12413,15 @@
       <c r="V72" s="19"/>
       <c r="W72" s="19"/>
       <c r="X72" s="19"/>
-      <c r="Y72" s="137"/>
-      <c r="Z72" s="137"/>
-      <c r="AA72" s="137"/>
+      <c r="Y72" s="132"/>
+      <c r="Z72" s="132"/>
+      <c r="AA72" s="132"/>
       <c r="AB72" s="19"/>
       <c r="AC72" s="19"/>
       <c r="AD72" s="19"/>
       <c r="AE72" s="19"/>
-      <c r="AF72" s="137"/>
-      <c r="AG72" s="137"/>
+      <c r="AF72" s="132"/>
+      <c r="AG72" s="132"/>
       <c r="AH72" s="19"/>
       <c r="AI72" s="19"/>
       <c r="AJ72" s="19"/>
@@ -12902,8 +12441,8 @@
     <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="17"/>
       <c r="B73" s="28"/>
-      <c r="C73" s="137"/>
-      <c r="D73" s="161"/>
+      <c r="C73" s="132"/>
+      <c r="D73" s="143"/>
       <c r="E73" s="19"/>
       <c r="F73" s="19"/>
       <c r="G73" s="19"/>
@@ -12924,15 +12463,15 @@
       <c r="V73" s="19"/>
       <c r="W73" s="19"/>
       <c r="X73" s="19"/>
-      <c r="Y73" s="137"/>
-      <c r="Z73" s="137"/>
-      <c r="AA73" s="137"/>
+      <c r="Y73" s="132"/>
+      <c r="Z73" s="132"/>
+      <c r="AA73" s="132"/>
       <c r="AB73" s="19"/>
       <c r="AC73" s="19"/>
       <c r="AD73" s="19"/>
       <c r="AE73" s="19"/>
-      <c r="AF73" s="137"/>
-      <c r="AG73" s="137"/>
+      <c r="AF73" s="132"/>
+      <c r="AG73" s="132"/>
       <c r="AH73" s="19"/>
       <c r="AI73" s="19"/>
       <c r="AJ73" s="19"/>
@@ -12952,8 +12491,8 @@
     <row r="74" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="17"/>
       <c r="B74" s="28"/>
-      <c r="C74" s="137"/>
-      <c r="D74" s="161"/>
+      <c r="C74" s="132"/>
+      <c r="D74" s="143"/>
       <c r="E74" s="19"/>
       <c r="F74" s="19"/>
       <c r="G74" s="19"/>
@@ -12974,15 +12513,15 @@
       <c r="V74" s="19"/>
       <c r="W74" s="19"/>
       <c r="X74" s="19"/>
-      <c r="Y74" s="137"/>
-      <c r="Z74" s="137"/>
-      <c r="AA74" s="137"/>
+      <c r="Y74" s="132"/>
+      <c r="Z74" s="132"/>
+      <c r="AA74" s="132"/>
       <c r="AB74" s="19"/>
       <c r="AC74" s="19"/>
       <c r="AD74" s="19"/>
       <c r="AE74" s="19"/>
-      <c r="AF74" s="137"/>
-      <c r="AG74" s="137"/>
+      <c r="AF74" s="132"/>
+      <c r="AG74" s="132"/>
       <c r="AH74" s="19"/>
       <c r="AI74" s="19"/>
       <c r="AJ74" s="19"/>
@@ -13002,8 +12541,8 @@
     <row r="75" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="17"/>
       <c r="B75" s="28"/>
-      <c r="C75" s="137"/>
-      <c r="D75" s="161"/>
+      <c r="C75" s="132"/>
+      <c r="D75" s="143"/>
       <c r="E75" s="19"/>
       <c r="F75" s="19"/>
       <c r="G75" s="19"/>
@@ -13024,15 +12563,15 @@
       <c r="V75" s="19"/>
       <c r="W75" s="19"/>
       <c r="X75" s="19"/>
-      <c r="Y75" s="137"/>
-      <c r="Z75" s="137"/>
-      <c r="AA75" s="137"/>
+      <c r="Y75" s="132"/>
+      <c r="Z75" s="132"/>
+      <c r="AA75" s="132"/>
       <c r="AB75" s="19"/>
       <c r="AC75" s="19"/>
       <c r="AD75" s="19"/>
       <c r="AE75" s="19"/>
-      <c r="AF75" s="137"/>
-      <c r="AG75" s="137"/>
+      <c r="AF75" s="132"/>
+      <c r="AG75" s="132"/>
       <c r="AH75" s="19"/>
       <c r="AI75" s="19"/>
       <c r="AJ75" s="19"/>
@@ -13052,8 +12591,8 @@
     <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="17"/>
       <c r="B76" s="28"/>
-      <c r="C76" s="137"/>
-      <c r="D76" s="161"/>
+      <c r="C76" s="132"/>
+      <c r="D76" s="143"/>
       <c r="E76" s="19"/>
       <c r="F76" s="19"/>
       <c r="G76" s="19"/>
@@ -13074,15 +12613,15 @@
       <c r="V76" s="19"/>
       <c r="W76" s="19"/>
       <c r="X76" s="19"/>
-      <c r="Y76" s="137"/>
-      <c r="Z76" s="137"/>
-      <c r="AA76" s="137"/>
+      <c r="Y76" s="132"/>
+      <c r="Z76" s="132"/>
+      <c r="AA76" s="132"/>
       <c r="AB76" s="19"/>
       <c r="AC76" s="19"/>
       <c r="AD76" s="19"/>
       <c r="AE76" s="19"/>
-      <c r="AF76" s="137"/>
-      <c r="AG76" s="137"/>
+      <c r="AF76" s="132"/>
+      <c r="AG76" s="132"/>
       <c r="AH76" s="19"/>
       <c r="AI76" s="19"/>
       <c r="AJ76" s="19"/>
@@ -13102,8 +12641,8 @@
     <row r="77" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="17"/>
       <c r="B77" s="28"/>
-      <c r="C77" s="137"/>
-      <c r="D77" s="161"/>
+      <c r="C77" s="132"/>
+      <c r="D77" s="143"/>
       <c r="E77" s="19"/>
       <c r="F77" s="19"/>
       <c r="G77" s="19"/>
@@ -13124,15 +12663,15 @@
       <c r="V77" s="19"/>
       <c r="W77" s="19"/>
       <c r="X77" s="19"/>
-      <c r="Y77" s="137"/>
-      <c r="Z77" s="137"/>
-      <c r="AA77" s="137"/>
+      <c r="Y77" s="132"/>
+      <c r="Z77" s="132"/>
+      <c r="AA77" s="132"/>
       <c r="AB77" s="19"/>
       <c r="AC77" s="19"/>
       <c r="AD77" s="19"/>
       <c r="AE77" s="19"/>
-      <c r="AF77" s="137"/>
-      <c r="AG77" s="137"/>
+      <c r="AF77" s="132"/>
+      <c r="AG77" s="132"/>
       <c r="AH77" s="19"/>
       <c r="AI77" s="19"/>
       <c r="AJ77" s="19"/>
@@ -13152,8 +12691,8 @@
     <row r="78" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="17"/>
       <c r="B78" s="28"/>
-      <c r="C78" s="137"/>
-      <c r="D78" s="161"/>
+      <c r="C78" s="132"/>
+      <c r="D78" s="143"/>
       <c r="E78" s="19"/>
       <c r="F78" s="19"/>
       <c r="G78" s="19"/>
@@ -13174,15 +12713,15 @@
       <c r="V78" s="19"/>
       <c r="W78" s="19"/>
       <c r="X78" s="19"/>
-      <c r="Y78" s="137"/>
-      <c r="Z78" s="137"/>
-      <c r="AA78" s="137"/>
+      <c r="Y78" s="132"/>
+      <c r="Z78" s="132"/>
+      <c r="AA78" s="132"/>
       <c r="AB78" s="19"/>
       <c r="AC78" s="19"/>
       <c r="AD78" s="19"/>
       <c r="AE78" s="19"/>
-      <c r="AF78" s="137"/>
-      <c r="AG78" s="137"/>
+      <c r="AF78" s="132"/>
+      <c r="AG78" s="132"/>
       <c r="AH78" s="19"/>
       <c r="AI78" s="19"/>
       <c r="AJ78" s="19"/>
@@ -13202,8 +12741,8 @@
     <row r="79" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="17"/>
       <c r="B79" s="28"/>
-      <c r="C79" s="137"/>
-      <c r="D79" s="161"/>
+      <c r="C79" s="132"/>
+      <c r="D79" s="143"/>
       <c r="E79" s="19"/>
       <c r="F79" s="19"/>
       <c r="G79" s="19"/>
@@ -13224,15 +12763,15 @@
       <c r="V79" s="19"/>
       <c r="W79" s="19"/>
       <c r="X79" s="19"/>
-      <c r="Y79" s="137"/>
-      <c r="Z79" s="137"/>
-      <c r="AA79" s="137"/>
+      <c r="Y79" s="132"/>
+      <c r="Z79" s="132"/>
+      <c r="AA79" s="132"/>
       <c r="AB79" s="19"/>
       <c r="AC79" s="19"/>
       <c r="AD79" s="19"/>
       <c r="AE79" s="19"/>
-      <c r="AF79" s="137"/>
-      <c r="AG79" s="137"/>
+      <c r="AF79" s="132"/>
+      <c r="AG79" s="132"/>
       <c r="AH79" s="19"/>
       <c r="AI79" s="19"/>
       <c r="AJ79" s="19"/>
@@ -13252,8 +12791,8 @@
     <row r="80" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="17"/>
       <c r="B80" s="28"/>
-      <c r="C80" s="137"/>
-      <c r="D80" s="161"/>
+      <c r="C80" s="132"/>
+      <c r="D80" s="143"/>
       <c r="E80" s="19"/>
       <c r="F80" s="19"/>
       <c r="G80" s="19"/>
@@ -13274,15 +12813,15 @@
       <c r="V80" s="19"/>
       <c r="W80" s="19"/>
       <c r="X80" s="19"/>
-      <c r="Y80" s="137"/>
-      <c r="Z80" s="137"/>
-      <c r="AA80" s="137"/>
+      <c r="Y80" s="132"/>
+      <c r="Z80" s="132"/>
+      <c r="AA80" s="132"/>
       <c r="AB80" s="19"/>
       <c r="AC80" s="19"/>
       <c r="AD80" s="19"/>
       <c r="AE80" s="19"/>
-      <c r="AF80" s="137"/>
-      <c r="AG80" s="137"/>
+      <c r="AF80" s="132"/>
+      <c r="AG80" s="132"/>
       <c r="AH80" s="19"/>
       <c r="AI80" s="19"/>
       <c r="AJ80" s="19"/>
@@ -13353,7 +12892,7 @@
       </c>
       <c r="AN81" s="6"/>
       <c r="AO81" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AP81" s="7"/>
       <c r="AQ81" s="7"/>
@@ -13499,7 +13038,7 @@
     <row r="85" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="17"/>
       <c r="B85" s="59" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D85" s="19"/>
       <c r="E85" s="19"/>
@@ -13532,7 +13071,7 @@
     <row r="86" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="17"/>
       <c r="C86" s="9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D86" s="19"/>
       <c r="E86" s="19"/>
@@ -13565,7 +13104,7 @@
     <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="17"/>
       <c r="D87" s="19" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E87" s="19"/>
       <c r="F87" s="19"/>
@@ -13627,7 +13166,7 @@
     <row r="89" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="17"/>
       <c r="C89" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D89" s="19"/>
       <c r="E89" s="19"/>
@@ -13660,7 +13199,7 @@
     <row r="90" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="17"/>
       <c r="D90" s="19" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E90" s="19"/>
       <c r="F90" s="19"/>
@@ -14805,7 +14344,7 @@
     <row r="125" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="17"/>
       <c r="B125" s="59" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D125" s="19"/>
       <c r="E125" s="19"/>
@@ -14838,7 +14377,7 @@
     <row r="126" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="17"/>
       <c r="C126" s="9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D126" s="19"/>
       <c r="E126" s="19"/>
@@ -14871,7 +14410,7 @@
     <row r="127" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="17"/>
       <c r="D127" s="19" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E127" s="19"/>
       <c r="F127" s="19"/>
@@ -15213,50 +14752,50 @@
       <c r="A134" s="17"/>
       <c r="C134" s="127"/>
       <c r="D134" s="128"/>
-      <c r="E134" s="129"/>
-      <c r="F134" s="129"/>
-      <c r="G134" s="130"/>
-      <c r="H134" s="130"/>
-      <c r="I134" s="131"/>
-      <c r="J134" s="132"/>
-      <c r="K134" s="130"/>
-      <c r="L134" s="130"/>
-      <c r="M134" s="130"/>
-      <c r="N134" s="132"/>
-      <c r="O134" s="130"/>
-      <c r="P134" s="130"/>
-      <c r="Q134" s="132"/>
-      <c r="R134" s="130"/>
-      <c r="S134" s="133"/>
-      <c r="T134" s="134"/>
-      <c r="U134" s="135"/>
+      <c r="E134" s="128"/>
+      <c r="F134" s="128"/>
+      <c r="G134" s="129"/>
+      <c r="H134" s="129"/>
+      <c r="I134" s="129"/>
+      <c r="J134" s="129"/>
+      <c r="K134" s="129"/>
+      <c r="L134" s="129"/>
+      <c r="M134" s="129"/>
+      <c r="N134" s="129"/>
+      <c r="O134" s="129"/>
+      <c r="P134" s="129"/>
+      <c r="Q134" s="129"/>
+      <c r="R134" s="129"/>
+      <c r="S134" s="128"/>
+      <c r="T134" s="127"/>
+      <c r="U134" s="130"/>
       <c r="V134" s="128"/>
-      <c r="W134" s="129"/>
-      <c r="X134" s="129"/>
-      <c r="Y134" s="133"/>
-      <c r="Z134" s="134"/>
-      <c r="AA134" s="129"/>
-      <c r="AB134" s="129"/>
-      <c r="AC134" s="129"/>
+      <c r="W134" s="128"/>
+      <c r="X134" s="128"/>
+      <c r="Y134" s="128"/>
+      <c r="Z134" s="127"/>
+      <c r="AA134" s="128"/>
+      <c r="AB134" s="128"/>
+      <c r="AC134" s="128"/>
       <c r="AD134" s="128"/>
-      <c r="AE134" s="129"/>
-      <c r="AF134" s="129"/>
-      <c r="AG134" s="129"/>
-      <c r="AH134" s="129"/>
-      <c r="AI134" s="129"/>
-      <c r="AJ134" s="129"/>
-      <c r="AK134" s="129"/>
-      <c r="AL134" s="129"/>
-      <c r="AM134" s="129"/>
-      <c r="AN134" s="129"/>
-      <c r="AO134" s="129"/>
-      <c r="AP134" s="129"/>
-      <c r="AQ134" s="129"/>
-      <c r="AR134" s="129"/>
-      <c r="AS134" s="129"/>
-      <c r="AT134" s="129"/>
-      <c r="AU134" s="129"/>
-      <c r="AV134" s="136"/>
+      <c r="AE134" s="128"/>
+      <c r="AF134" s="128"/>
+      <c r="AG134" s="128"/>
+      <c r="AH134" s="128"/>
+      <c r="AI134" s="128"/>
+      <c r="AJ134" s="128"/>
+      <c r="AK134" s="128"/>
+      <c r="AL134" s="128"/>
+      <c r="AM134" s="128"/>
+      <c r="AN134" s="128"/>
+      <c r="AO134" s="128"/>
+      <c r="AP134" s="128"/>
+      <c r="AQ134" s="128"/>
+      <c r="AR134" s="128"/>
+      <c r="AS134" s="128"/>
+      <c r="AT134" s="128"/>
+      <c r="AU134" s="128"/>
+      <c r="AV134" s="131"/>
       <c r="AW134" s="20"/>
     </row>
     <row r="135" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15287,16 +14826,16 @@
       <c r="T136" s="19"/>
       <c r="U136" s="19"/>
       <c r="V136" s="19"/>
-      <c r="W136" s="137"/>
-      <c r="X136" s="137"/>
-      <c r="Y136" s="137"/>
-      <c r="Z136" s="137"/>
+      <c r="W136" s="132"/>
+      <c r="X136" s="132"/>
+      <c r="Y136" s="132"/>
+      <c r="Z136" s="132"/>
       <c r="AA136" s="19"/>
       <c r="AB136" s="19"/>
       <c r="AC136" s="19"/>
       <c r="AD136" s="19"/>
-      <c r="AE136" s="137"/>
-      <c r="AF136" s="137"/>
+      <c r="AE136" s="132"/>
+      <c r="AF136" s="132"/>
       <c r="AG136" s="19"/>
       <c r="AH136" s="19"/>
       <c r="AI136" s="19"/>
@@ -15316,7 +14855,7 @@
     </row>
     <row r="137" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="17"/>
-      <c r="C137" s="138" t="s">
+      <c r="C137" s="133" t="s">
         <v>45</v>
       </c>
       <c r="D137" s="72" t="s">
@@ -15331,18 +14870,18 @@
       <c r="K137" s="72"/>
       <c r="L137" s="72"/>
       <c r="M137" s="72"/>
-      <c r="N137" s="139" t="s">
+      <c r="N137" s="134" t="s">
         <v>63</v>
       </c>
-      <c r="O137" s="139"/>
-      <c r="P137" s="139"/>
-      <c r="Q137" s="139"/>
-      <c r="R137" s="139"/>
-      <c r="S137" s="139"/>
-      <c r="T137" s="139"/>
-      <c r="U137" s="139"/>
-      <c r="V137" s="139"/>
-      <c r="W137" s="139"/>
+      <c r="O137" s="134"/>
+      <c r="P137" s="134"/>
+      <c r="Q137" s="134"/>
+      <c r="R137" s="134"/>
+      <c r="S137" s="134"/>
+      <c r="T137" s="134"/>
+      <c r="U137" s="134"/>
+      <c r="V137" s="134"/>
+      <c r="W137" s="134"/>
       <c r="X137" s="73" t="s">
         <v>49</v>
       </c>
@@ -15374,488 +14913,444 @@
     </row>
     <row r="138" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="17"/>
-      <c r="C138" s="140" t="n">
+      <c r="C138" s="135" t="n">
         <v>1</v>
       </c>
-      <c r="D138" s="141" t="s">
+      <c r="D138" s="136" t="s">
         <v>78</v>
       </c>
-      <c r="E138" s="97"/>
-      <c r="F138" s="97"/>
-      <c r="G138" s="97"/>
-      <c r="H138" s="97"/>
-      <c r="I138" s="97"/>
-      <c r="J138" s="97"/>
-      <c r="K138" s="97"/>
-      <c r="L138" s="97"/>
-      <c r="M138" s="142"/>
-      <c r="N138" s="143" t="s">
+      <c r="E138" s="137"/>
+      <c r="F138" s="137"/>
+      <c r="G138" s="137"/>
+      <c r="H138" s="137"/>
+      <c r="I138" s="137"/>
+      <c r="J138" s="137"/>
+      <c r="K138" s="137"/>
+      <c r="L138" s="137"/>
+      <c r="M138" s="138"/>
+      <c r="N138" s="136" t="s">
         <v>79</v>
       </c>
-      <c r="O138" s="144"/>
-      <c r="P138" s="144"/>
-      <c r="Q138" s="144"/>
-      <c r="R138" s="144"/>
-      <c r="S138" s="144"/>
-      <c r="T138" s="144"/>
-      <c r="U138" s="144"/>
-      <c r="V138" s="144"/>
-      <c r="W138" s="145"/>
-      <c r="X138" s="143" t="s">
+      <c r="O138" s="137"/>
+      <c r="P138" s="137"/>
+      <c r="Q138" s="137"/>
+      <c r="R138" s="137"/>
+      <c r="S138" s="137"/>
+      <c r="T138" s="137"/>
+      <c r="U138" s="137"/>
+      <c r="V138" s="137"/>
+      <c r="W138" s="138"/>
+      <c r="X138" s="136" t="s">
         <v>80</v>
       </c>
-      <c r="Y138" s="146"/>
-      <c r="Z138" s="146"/>
-      <c r="AA138" s="146"/>
-      <c r="AB138" s="144"/>
-      <c r="AC138" s="144"/>
-      <c r="AD138" s="144"/>
-      <c r="AE138" s="144"/>
-      <c r="AF138" s="146"/>
-      <c r="AG138" s="146"/>
-      <c r="AH138" s="144"/>
-      <c r="AI138" s="144"/>
-      <c r="AJ138" s="144"/>
-      <c r="AK138" s="144"/>
-      <c r="AL138" s="144"/>
-      <c r="AM138" s="144"/>
-      <c r="AN138" s="144"/>
-      <c r="AO138" s="144"/>
-      <c r="AP138" s="144"/>
-      <c r="AQ138" s="144"/>
-      <c r="AR138" s="144"/>
-      <c r="AS138" s="144"/>
-      <c r="AT138" s="144"/>
-      <c r="AU138" s="144"/>
-      <c r="AV138" s="145"/>
+      <c r="Y138" s="139"/>
+      <c r="Z138" s="139"/>
+      <c r="AA138" s="139"/>
+      <c r="AB138" s="137"/>
+      <c r="AC138" s="137"/>
+      <c r="AD138" s="137"/>
+      <c r="AE138" s="137"/>
+      <c r="AF138" s="139"/>
+      <c r="AG138" s="139"/>
+      <c r="AH138" s="137"/>
+      <c r="AI138" s="137"/>
+      <c r="AJ138" s="137"/>
+      <c r="AK138" s="137"/>
+      <c r="AL138" s="137"/>
+      <c r="AM138" s="137"/>
+      <c r="AN138" s="137"/>
+      <c r="AO138" s="137"/>
+      <c r="AP138" s="137"/>
+      <c r="AQ138" s="137"/>
+      <c r="AR138" s="137"/>
+      <c r="AS138" s="137"/>
+      <c r="AT138" s="137"/>
+      <c r="AU138" s="137"/>
+      <c r="AV138" s="138"/>
       <c r="AW138" s="20"/>
     </row>
-    <row r="139" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="139" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="17"/>
-      <c r="C139" s="147"/>
-      <c r="D139" s="148"/>
-      <c r="E139" s="149"/>
-      <c r="F139" s="149"/>
-      <c r="G139" s="149"/>
-      <c r="H139" s="149"/>
-      <c r="I139" s="149"/>
-      <c r="J139" s="149"/>
-      <c r="K139" s="149"/>
-      <c r="L139" s="149"/>
-      <c r="M139" s="150"/>
-      <c r="N139" s="148"/>
-      <c r="O139" s="149"/>
-      <c r="P139" s="149"/>
-      <c r="Q139" s="149"/>
-      <c r="R139" s="149"/>
-      <c r="S139" s="149"/>
-      <c r="T139" s="149"/>
-      <c r="U139" s="149"/>
-      <c r="V139" s="149"/>
-      <c r="W139" s="150"/>
-      <c r="X139" s="148"/>
-      <c r="Y139" s="151"/>
-      <c r="Z139" s="151"/>
-      <c r="AA139" s="151"/>
-      <c r="AB139" s="149"/>
-      <c r="AC139" s="149"/>
-      <c r="AD139" s="149"/>
-      <c r="AE139" s="149"/>
-      <c r="AF139" s="151"/>
-      <c r="AG139" s="151"/>
-      <c r="AH139" s="149"/>
-      <c r="AI139" s="149"/>
-      <c r="AJ139" s="149"/>
-      <c r="AK139" s="149"/>
-      <c r="AL139" s="149"/>
-      <c r="AM139" s="149"/>
-      <c r="AN139" s="149"/>
-      <c r="AO139" s="149"/>
-      <c r="AP139" s="149"/>
-      <c r="AQ139" s="149"/>
-      <c r="AR139" s="149"/>
-      <c r="AS139" s="149"/>
-      <c r="AT139" s="149"/>
-      <c r="AU139" s="149"/>
-      <c r="AV139" s="150"/>
+      <c r="B139" s="59"/>
+      <c r="C139" s="141"/>
+      <c r="D139" s="99"/>
       <c r="AW139" s="20"/>
-    </row>
-    <row r="140" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AKQ139" s="0"/>
+      <c r="AKR139" s="0"/>
+      <c r="AKS139" s="0"/>
+      <c r="AKT139" s="0"/>
+      <c r="AKU139" s="0"/>
+      <c r="AKV139" s="0"/>
+      <c r="AKW139" s="0"/>
+      <c r="AKX139" s="0"/>
+      <c r="AKY139" s="0"/>
+      <c r="AKZ139" s="0"/>
+      <c r="ALA139" s="0"/>
+      <c r="ALB139" s="0"/>
+      <c r="ALC139" s="0"/>
+      <c r="ALD139" s="0"/>
+      <c r="ALE139" s="0"/>
+      <c r="ALF139" s="0"/>
+      <c r="ALG139" s="0"/>
+      <c r="ALH139" s="0"/>
+      <c r="ALI139" s="0"/>
+      <c r="ALJ139" s="0"/>
+      <c r="ALK139" s="0"/>
+      <c r="ALL139" s="0"/>
+      <c r="ALM139" s="0"/>
+      <c r="ALN139" s="0"/>
+      <c r="ALO139" s="0"/>
+      <c r="ALP139" s="0"/>
+      <c r="ALQ139" s="0"/>
+      <c r="ALR139" s="0"/>
+      <c r="ALS139" s="0"/>
+      <c r="ALT139" s="0"/>
+      <c r="ALU139" s="0"/>
+      <c r="ALV139" s="0"/>
+      <c r="ALW139" s="0"/>
+      <c r="ALX139" s="0"/>
+      <c r="ALY139" s="0"/>
+      <c r="ALZ139" s="0"/>
+      <c r="AMA139" s="0"/>
+      <c r="AMB139" s="0"/>
+      <c r="AMC139" s="0"/>
+      <c r="AMD139" s="0"/>
+      <c r="AME139" s="0"/>
+      <c r="AMF139" s="0"/>
+      <c r="AMG139" s="0"/>
+      <c r="AMH139" s="0"/>
+      <c r="AMI139" s="0"/>
+      <c r="AMJ139" s="0"/>
+    </row>
+    <row r="140" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="0"/>
       <c r="B140" s="0"/>
-      <c r="C140" s="152"/>
-      <c r="D140" s="153"/>
-      <c r="E140" s="154"/>
-      <c r="F140" s="154"/>
-      <c r="G140" s="154"/>
-      <c r="H140" s="154"/>
-      <c r="I140" s="154"/>
-      <c r="J140" s="154"/>
-      <c r="K140" s="154"/>
-      <c r="L140" s="154"/>
-      <c r="M140" s="155"/>
-      <c r="N140" s="156"/>
-      <c r="O140" s="157"/>
-      <c r="P140" s="157"/>
-      <c r="Q140" s="157"/>
-      <c r="R140" s="157"/>
-      <c r="S140" s="157"/>
-      <c r="T140" s="157"/>
-      <c r="U140" s="157"/>
-      <c r="V140" s="157"/>
-      <c r="W140" s="158"/>
-      <c r="X140" s="156"/>
-      <c r="Y140" s="159"/>
-      <c r="Z140" s="159"/>
-      <c r="AA140" s="159"/>
-      <c r="AB140" s="157"/>
-      <c r="AC140" s="157"/>
-      <c r="AD140" s="157"/>
-      <c r="AE140" s="157"/>
-      <c r="AF140" s="159"/>
-      <c r="AG140" s="159"/>
-      <c r="AH140" s="157"/>
-      <c r="AI140" s="157"/>
-      <c r="AJ140" s="157"/>
-      <c r="AK140" s="157"/>
-      <c r="AL140" s="157"/>
-      <c r="AM140" s="157"/>
-      <c r="AN140" s="157"/>
-      <c r="AO140" s="157"/>
-      <c r="AP140" s="157"/>
-      <c r="AQ140" s="157"/>
-      <c r="AR140" s="157"/>
-      <c r="AS140" s="157"/>
-      <c r="AT140" s="157"/>
-      <c r="AU140" s="157"/>
-      <c r="AV140" s="160"/>
+      <c r="C140" s="141"/>
+      <c r="D140" s="99"/>
       <c r="AW140" s="20"/>
-    </row>
-    <row r="141" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AKQ140" s="0"/>
+      <c r="AKR140" s="0"/>
+      <c r="AKS140" s="0"/>
+      <c r="AKT140" s="0"/>
+      <c r="AKU140" s="0"/>
+      <c r="AKV140" s="0"/>
+      <c r="AKW140" s="0"/>
+      <c r="AKX140" s="0"/>
+      <c r="AKY140" s="0"/>
+      <c r="AKZ140" s="0"/>
+      <c r="ALA140" s="0"/>
+      <c r="ALB140" s="0"/>
+      <c r="ALC140" s="0"/>
+      <c r="ALD140" s="0"/>
+      <c r="ALE140" s="0"/>
+      <c r="ALF140" s="0"/>
+      <c r="ALG140" s="0"/>
+      <c r="ALH140" s="0"/>
+      <c r="ALI140" s="0"/>
+      <c r="ALJ140" s="0"/>
+      <c r="ALK140" s="0"/>
+      <c r="ALL140" s="0"/>
+      <c r="ALM140" s="0"/>
+      <c r="ALN140" s="0"/>
+      <c r="ALO140" s="0"/>
+      <c r="ALP140" s="0"/>
+      <c r="ALQ140" s="0"/>
+      <c r="ALR140" s="0"/>
+      <c r="ALS140" s="0"/>
+      <c r="ALT140" s="0"/>
+      <c r="ALU140" s="0"/>
+      <c r="ALV140" s="0"/>
+      <c r="ALW140" s="0"/>
+      <c r="ALX140" s="0"/>
+      <c r="ALY140" s="0"/>
+      <c r="ALZ140" s="0"/>
+      <c r="AMA140" s="0"/>
+      <c r="AMB140" s="0"/>
+      <c r="AMC140" s="0"/>
+      <c r="AMD140" s="0"/>
+      <c r="AME140" s="0"/>
+      <c r="AMF140" s="0"/>
+      <c r="AMG140" s="0"/>
+      <c r="AMH140" s="0"/>
+      <c r="AMI140" s="0"/>
+      <c r="AMJ140" s="0"/>
+    </row>
+    <row r="141" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="0"/>
       <c r="B141" s="0"/>
-      <c r="C141" s="137"/>
-      <c r="D141" s="161"/>
-      <c r="E141" s="19"/>
-      <c r="F141" s="19"/>
-      <c r="G141" s="19"/>
-      <c r="H141" s="19"/>
-      <c r="I141" s="19"/>
-      <c r="J141" s="19"/>
-      <c r="K141" s="19"/>
-      <c r="L141" s="19"/>
-      <c r="M141" s="19"/>
-      <c r="N141" s="19"/>
-      <c r="O141" s="19"/>
-      <c r="P141" s="19"/>
-      <c r="Q141" s="19"/>
-      <c r="R141" s="19"/>
-      <c r="S141" s="19"/>
-      <c r="T141" s="19"/>
-      <c r="U141" s="19"/>
-      <c r="V141" s="19"/>
-      <c r="W141" s="19"/>
-      <c r="X141" s="19"/>
-      <c r="Y141" s="137"/>
-      <c r="Z141" s="137"/>
-      <c r="AA141" s="137"/>
-      <c r="AB141" s="19"/>
-      <c r="AC141" s="19"/>
-      <c r="AD141" s="19"/>
-      <c r="AE141" s="19"/>
-      <c r="AF141" s="137"/>
-      <c r="AG141" s="137"/>
-      <c r="AH141" s="19"/>
-      <c r="AI141" s="19"/>
-      <c r="AJ141" s="19"/>
-      <c r="AK141" s="19"/>
-      <c r="AL141" s="19"/>
-      <c r="AM141" s="19"/>
-      <c r="AN141" s="19"/>
-      <c r="AO141" s="19"/>
-      <c r="AP141" s="19"/>
-      <c r="AQ141" s="19"/>
-      <c r="AR141" s="19"/>
-      <c r="AS141" s="19"/>
-      <c r="AT141" s="19"/>
-      <c r="AU141" s="19"/>
+      <c r="C141" s="141"/>
+      <c r="D141" s="99"/>
       <c r="AW141" s="20"/>
-    </row>
-    <row r="142" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AKQ141" s="0"/>
+      <c r="AKR141" s="0"/>
+      <c r="AKS141" s="0"/>
+      <c r="AKT141" s="0"/>
+      <c r="AKU141" s="0"/>
+      <c r="AKV141" s="0"/>
+      <c r="AKW141" s="0"/>
+      <c r="AKX141" s="0"/>
+      <c r="AKY141" s="0"/>
+      <c r="AKZ141" s="0"/>
+      <c r="ALA141" s="0"/>
+      <c r="ALB141" s="0"/>
+      <c r="ALC141" s="0"/>
+      <c r="ALD141" s="0"/>
+      <c r="ALE141" s="0"/>
+      <c r="ALF141" s="0"/>
+      <c r="ALG141" s="0"/>
+      <c r="ALH141" s="0"/>
+      <c r="ALI141" s="0"/>
+      <c r="ALJ141" s="0"/>
+      <c r="ALK141" s="0"/>
+      <c r="ALL141" s="0"/>
+      <c r="ALM141" s="0"/>
+      <c r="ALN141" s="0"/>
+      <c r="ALO141" s="0"/>
+      <c r="ALP141" s="0"/>
+      <c r="ALQ141" s="0"/>
+      <c r="ALR141" s="0"/>
+      <c r="ALS141" s="0"/>
+      <c r="ALT141" s="0"/>
+      <c r="ALU141" s="0"/>
+      <c r="ALV141" s="0"/>
+      <c r="ALW141" s="0"/>
+      <c r="ALX141" s="0"/>
+      <c r="ALY141" s="0"/>
+      <c r="ALZ141" s="0"/>
+      <c r="AMA141" s="0"/>
+      <c r="AMB141" s="0"/>
+      <c r="AMC141" s="0"/>
+      <c r="AMD141" s="0"/>
+      <c r="AME141" s="0"/>
+      <c r="AMF141" s="0"/>
+      <c r="AMG141" s="0"/>
+      <c r="AMH141" s="0"/>
+      <c r="AMI141" s="0"/>
+      <c r="AMJ141" s="0"/>
+    </row>
+    <row r="142" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="0"/>
       <c r="B142" s="0"/>
-      <c r="C142" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D142" s="19"/>
-      <c r="E142" s="19"/>
-      <c r="F142" s="19"/>
-      <c r="G142" s="19"/>
-      <c r="H142" s="19"/>
-      <c r="I142" s="19"/>
-      <c r="J142" s="19"/>
-      <c r="K142" s="19"/>
-      <c r="L142" s="19"/>
-      <c r="M142" s="19"/>
-      <c r="N142" s="19"/>
-      <c r="O142" s="19"/>
-      <c r="P142" s="19"/>
-      <c r="Q142" s="19"/>
-      <c r="R142" s="19"/>
-      <c r="S142" s="19"/>
-      <c r="T142" s="19"/>
-      <c r="U142" s="19"/>
-      <c r="V142" s="19"/>
-      <c r="W142" s="137"/>
-      <c r="X142" s="137"/>
-      <c r="Y142" s="137"/>
-      <c r="Z142" s="137"/>
-      <c r="AA142" s="19"/>
-      <c r="AB142" s="19"/>
-      <c r="AC142" s="19"/>
-      <c r="AD142" s="19"/>
-      <c r="AE142" s="137"/>
-      <c r="AF142" s="137"/>
-      <c r="AG142" s="19"/>
-      <c r="AH142" s="19"/>
-      <c r="AI142" s="19"/>
-      <c r="AJ142" s="19"/>
-      <c r="AK142" s="19"/>
-      <c r="AL142" s="19"/>
-      <c r="AM142" s="19"/>
-      <c r="AN142" s="19"/>
-      <c r="AO142" s="19"/>
-      <c r="AP142" s="19"/>
-      <c r="AQ142" s="19"/>
-      <c r="AR142" s="19"/>
-      <c r="AS142" s="19"/>
-      <c r="AT142" s="19"/>
-      <c r="AU142" s="19"/>
+      <c r="C142" s="141"/>
+      <c r="D142" s="99"/>
       <c r="AW142" s="20"/>
-    </row>
-    <row r="143" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AKQ142" s="0"/>
+      <c r="AKR142" s="0"/>
+      <c r="AKS142" s="0"/>
+      <c r="AKT142" s="0"/>
+      <c r="AKU142" s="0"/>
+      <c r="AKV142" s="0"/>
+      <c r="AKW142" s="0"/>
+      <c r="AKX142" s="0"/>
+      <c r="AKY142" s="0"/>
+      <c r="AKZ142" s="0"/>
+      <c r="ALA142" s="0"/>
+      <c r="ALB142" s="0"/>
+      <c r="ALC142" s="0"/>
+      <c r="ALD142" s="0"/>
+      <c r="ALE142" s="0"/>
+      <c r="ALF142" s="0"/>
+      <c r="ALG142" s="0"/>
+      <c r="ALH142" s="0"/>
+      <c r="ALI142" s="0"/>
+      <c r="ALJ142" s="0"/>
+      <c r="ALK142" s="0"/>
+      <c r="ALL142" s="0"/>
+      <c r="ALM142" s="0"/>
+      <c r="ALN142" s="0"/>
+      <c r="ALO142" s="0"/>
+      <c r="ALP142" s="0"/>
+      <c r="ALQ142" s="0"/>
+      <c r="ALR142" s="0"/>
+      <c r="ALS142" s="0"/>
+      <c r="ALT142" s="0"/>
+      <c r="ALU142" s="0"/>
+      <c r="ALV142" s="0"/>
+      <c r="ALW142" s="0"/>
+      <c r="ALX142" s="0"/>
+      <c r="ALY142" s="0"/>
+      <c r="ALZ142" s="0"/>
+      <c r="AMA142" s="0"/>
+      <c r="AMB142" s="0"/>
+      <c r="AMC142" s="0"/>
+      <c r="AMD142" s="0"/>
+      <c r="AME142" s="0"/>
+      <c r="AMF142" s="0"/>
+      <c r="AMG142" s="0"/>
+      <c r="AMH142" s="0"/>
+      <c r="AMI142" s="0"/>
+      <c r="AMJ142" s="0"/>
+    </row>
+    <row r="143" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="0"/>
       <c r="B143" s="0"/>
-      <c r="C143" s="138" t="s">
-        <v>45</v>
-      </c>
-      <c r="D143" s="72" t="s">
-        <v>59</v>
-      </c>
-      <c r="E143" s="72"/>
-      <c r="F143" s="72"/>
-      <c r="G143" s="72"/>
-      <c r="H143" s="72"/>
-      <c r="I143" s="72"/>
-      <c r="J143" s="72"/>
-      <c r="K143" s="72"/>
-      <c r="L143" s="72"/>
-      <c r="M143" s="72"/>
-      <c r="N143" s="139" t="s">
-        <v>63</v>
-      </c>
-      <c r="O143" s="139"/>
-      <c r="P143" s="139"/>
-      <c r="Q143" s="139"/>
-      <c r="R143" s="139"/>
-      <c r="S143" s="139"/>
-      <c r="T143" s="139"/>
-      <c r="U143" s="139"/>
-      <c r="V143" s="139"/>
-      <c r="W143" s="139"/>
-      <c r="X143" s="73" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y143" s="73"/>
-      <c r="Z143" s="73"/>
-      <c r="AA143" s="73"/>
-      <c r="AB143" s="73"/>
-      <c r="AC143" s="73"/>
-      <c r="AD143" s="73"/>
-      <c r="AE143" s="73"/>
-      <c r="AF143" s="73"/>
-      <c r="AG143" s="73"/>
-      <c r="AH143" s="73"/>
-      <c r="AI143" s="73"/>
-      <c r="AJ143" s="73"/>
-      <c r="AK143" s="73"/>
-      <c r="AL143" s="73"/>
-      <c r="AM143" s="73"/>
-      <c r="AN143" s="73"/>
-      <c r="AO143" s="73"/>
-      <c r="AP143" s="73"/>
-      <c r="AQ143" s="73"/>
-      <c r="AR143" s="73"/>
-      <c r="AS143" s="73"/>
-      <c r="AT143" s="73"/>
-      <c r="AU143" s="73"/>
-      <c r="AV143" s="73"/>
+      <c r="C143" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D143" s="19"/>
+      <c r="E143" s="132"/>
+      <c r="F143" s="19"/>
+      <c r="G143" s="19"/>
+      <c r="H143" s="19"/>
+      <c r="I143" s="19"/>
+      <c r="J143" s="19"/>
+      <c r="K143" s="24"/>
+      <c r="L143" s="24"/>
       <c r="AW143" s="20"/>
+      <c r="AKQ143" s="0"/>
+      <c r="AKR143" s="0"/>
+      <c r="AKS143" s="0"/>
+      <c r="AKT143" s="0"/>
+      <c r="AKU143" s="0"/>
+      <c r="AKV143" s="0"/>
+      <c r="AKW143" s="0"/>
+      <c r="AKX143" s="0"/>
+      <c r="AKY143" s="0"/>
+      <c r="AKZ143" s="0"/>
+      <c r="ALA143" s="0"/>
+      <c r="ALB143" s="0"/>
+      <c r="ALC143" s="0"/>
+      <c r="ALD143" s="0"/>
+      <c r="ALE143" s="0"/>
+      <c r="ALF143" s="0"/>
+      <c r="ALG143" s="0"/>
+      <c r="ALH143" s="0"/>
+      <c r="ALI143" s="0"/>
+      <c r="ALJ143" s="0"/>
+      <c r="ALK143" s="0"/>
+      <c r="ALL143" s="0"/>
+      <c r="ALM143" s="0"/>
+      <c r="ALN143" s="0"/>
+      <c r="ALO143" s="0"/>
+      <c r="ALP143" s="0"/>
+      <c r="ALQ143" s="0"/>
+      <c r="ALR143" s="0"/>
+      <c r="ALS143" s="0"/>
+      <c r="ALT143" s="0"/>
+      <c r="ALU143" s="0"/>
+      <c r="ALV143" s="0"/>
+      <c r="ALW143" s="0"/>
+      <c r="ALX143" s="0"/>
+      <c r="ALY143" s="0"/>
+      <c r="ALZ143" s="0"/>
+      <c r="AMA143" s="0"/>
+      <c r="AMB143" s="0"/>
+      <c r="AMC143" s="0"/>
+      <c r="AMD143" s="0"/>
+      <c r="AME143" s="0"/>
+      <c r="AMF143" s="0"/>
+      <c r="AMG143" s="0"/>
+      <c r="AMH143" s="0"/>
+      <c r="AMI143" s="0"/>
+      <c r="AMJ143" s="0"/>
     </row>
     <row r="144" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="0"/>
       <c r="B144" s="0"/>
-      <c r="C144" s="140" t="n">
-        <v>1</v>
-      </c>
-      <c r="D144" s="141" t="s">
-        <v>82</v>
-      </c>
-      <c r="E144" s="97"/>
-      <c r="F144" s="97"/>
-      <c r="G144" s="97"/>
-      <c r="H144" s="97"/>
-      <c r="I144" s="97"/>
-      <c r="J144" s="97"/>
-      <c r="K144" s="97"/>
-      <c r="L144" s="97"/>
-      <c r="M144" s="142"/>
-      <c r="N144" s="143" t="s">
-        <v>83</v>
-      </c>
-      <c r="O144" s="144"/>
-      <c r="P144" s="144"/>
-      <c r="Q144" s="144"/>
-      <c r="R144" s="144"/>
-      <c r="S144" s="144"/>
-      <c r="T144" s="144"/>
-      <c r="U144" s="144"/>
-      <c r="V144" s="144"/>
-      <c r="W144" s="145"/>
-      <c r="X144" s="143" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y144" s="146"/>
-      <c r="Z144" s="146"/>
-      <c r="AA144" s="146"/>
-      <c r="AB144" s="144"/>
-      <c r="AC144" s="144"/>
-      <c r="AD144" s="144"/>
-      <c r="AE144" s="144"/>
-      <c r="AF144" s="146"/>
-      <c r="AG144" s="146"/>
-      <c r="AH144" s="144"/>
-      <c r="AI144" s="144"/>
-      <c r="AJ144" s="144"/>
-      <c r="AK144" s="144"/>
-      <c r="AL144" s="144"/>
-      <c r="AM144" s="144"/>
-      <c r="AN144" s="144"/>
-      <c r="AO144" s="144"/>
-      <c r="AP144" s="144"/>
-      <c r="AQ144" s="144"/>
-      <c r="AR144" s="144"/>
-      <c r="AS144" s="144"/>
-      <c r="AT144" s="144"/>
-      <c r="AU144" s="144"/>
-      <c r="AV144" s="145"/>
+      <c r="C144" s="127"/>
+      <c r="D144" s="128"/>
+      <c r="E144" s="128"/>
+      <c r="F144" s="128"/>
+      <c r="G144" s="129"/>
+      <c r="H144" s="129"/>
+      <c r="I144" s="129"/>
+      <c r="J144" s="129"/>
+      <c r="K144" s="129"/>
+      <c r="L144" s="129"/>
+      <c r="M144" s="129"/>
+      <c r="N144" s="129"/>
+      <c r="O144" s="129"/>
+      <c r="P144" s="129"/>
+      <c r="Q144" s="129"/>
+      <c r="R144" s="129"/>
+      <c r="S144" s="128"/>
+      <c r="T144" s="127"/>
+      <c r="U144" s="130"/>
+      <c r="V144" s="128"/>
+      <c r="W144" s="128"/>
+      <c r="X144" s="128"/>
+      <c r="Y144" s="128"/>
+      <c r="Z144" s="127"/>
+      <c r="AA144" s="128"/>
+      <c r="AB144" s="128"/>
+      <c r="AC144" s="128"/>
+      <c r="AD144" s="128"/>
+      <c r="AE144" s="128"/>
+      <c r="AF144" s="128"/>
+      <c r="AG144" s="128"/>
+      <c r="AH144" s="128"/>
+      <c r="AI144" s="128"/>
+      <c r="AJ144" s="128"/>
+      <c r="AK144" s="128"/>
+      <c r="AL144" s="128"/>
+      <c r="AM144" s="128"/>
+      <c r="AN144" s="128"/>
+      <c r="AO144" s="128"/>
+      <c r="AP144" s="128"/>
+      <c r="AQ144" s="128"/>
+      <c r="AR144" s="128"/>
+      <c r="AS144" s="128"/>
+      <c r="AT144" s="128"/>
+      <c r="AU144" s="128"/>
+      <c r="AV144" s="131"/>
       <c r="AW144" s="20"/>
     </row>
     <row r="145" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="0"/>
       <c r="B145" s="0"/>
-      <c r="C145" s="147" t="n">
-        <v>2</v>
-      </c>
-      <c r="D145" s="148"/>
-      <c r="E145" s="149"/>
-      <c r="F145" s="149"/>
-      <c r="G145" s="149"/>
-      <c r="H145" s="149"/>
-      <c r="I145" s="149"/>
-      <c r="J145" s="149"/>
-      <c r="K145" s="149"/>
-      <c r="L145" s="149"/>
-      <c r="M145" s="150"/>
-      <c r="N145" s="148"/>
-      <c r="O145" s="149"/>
-      <c r="P145" s="149"/>
-      <c r="Q145" s="149"/>
-      <c r="R145" s="149"/>
-      <c r="S145" s="149"/>
-      <c r="T145" s="149"/>
-      <c r="U145" s="149"/>
-      <c r="V145" s="149"/>
-      <c r="W145" s="150"/>
-      <c r="X145" s="148"/>
-      <c r="Y145" s="151"/>
-      <c r="Z145" s="151"/>
-      <c r="AA145" s="151"/>
-      <c r="AB145" s="149"/>
-      <c r="AC145" s="149"/>
-      <c r="AD145" s="149"/>
-      <c r="AE145" s="149"/>
-      <c r="AF145" s="151"/>
-      <c r="AG145" s="151"/>
-      <c r="AH145" s="149"/>
-      <c r="AI145" s="149"/>
-      <c r="AJ145" s="149"/>
-      <c r="AK145" s="149"/>
-      <c r="AL145" s="149"/>
-      <c r="AM145" s="149"/>
-      <c r="AN145" s="149"/>
-      <c r="AO145" s="149"/>
-      <c r="AP145" s="149"/>
-      <c r="AQ145" s="149"/>
-      <c r="AR145" s="149"/>
-      <c r="AS145" s="149"/>
-      <c r="AT145" s="149"/>
-      <c r="AU145" s="149"/>
-      <c r="AV145" s="150"/>
       <c r="AW145" s="20"/>
-      <c r="AY145" s="162"/>
+      <c r="AY145" s="144"/>
     </row>
     <row r="146" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="0"/>
       <c r="B146" s="0"/>
-      <c r="C146" s="152"/>
-      <c r="D146" s="153"/>
-      <c r="E146" s="154"/>
-      <c r="F146" s="154"/>
-      <c r="G146" s="154"/>
-      <c r="H146" s="154"/>
-      <c r="I146" s="154"/>
-      <c r="J146" s="154"/>
-      <c r="K146" s="154"/>
-      <c r="L146" s="154"/>
-      <c r="M146" s="155"/>
-      <c r="N146" s="156"/>
-      <c r="O146" s="157"/>
-      <c r="P146" s="157"/>
-      <c r="Q146" s="157"/>
-      <c r="R146" s="157"/>
-      <c r="S146" s="157"/>
-      <c r="T146" s="157"/>
-      <c r="U146" s="157"/>
-      <c r="V146" s="157"/>
-      <c r="W146" s="158"/>
-      <c r="X146" s="156"/>
-      <c r="Y146" s="159"/>
-      <c r="Z146" s="159"/>
-      <c r="AA146" s="159"/>
-      <c r="AB146" s="157"/>
-      <c r="AC146" s="157"/>
-      <c r="AD146" s="157"/>
-      <c r="AE146" s="157"/>
-      <c r="AF146" s="159"/>
-      <c r="AG146" s="159"/>
-      <c r="AH146" s="157"/>
-      <c r="AI146" s="157"/>
-      <c r="AJ146" s="157"/>
-      <c r="AK146" s="157"/>
-      <c r="AL146" s="157"/>
-      <c r="AM146" s="157"/>
-      <c r="AN146" s="157"/>
-      <c r="AO146" s="157"/>
-      <c r="AP146" s="157"/>
-      <c r="AQ146" s="157"/>
-      <c r="AR146" s="157"/>
-      <c r="AS146" s="157"/>
-      <c r="AT146" s="157"/>
-      <c r="AU146" s="157"/>
-      <c r="AV146" s="160"/>
+      <c r="C146" s="19"/>
+      <c r="D146" s="19"/>
+      <c r="E146" s="19"/>
+      <c r="F146" s="19"/>
+      <c r="G146" s="19"/>
+      <c r="H146" s="19"/>
+      <c r="I146" s="19"/>
+      <c r="J146" s="19"/>
+      <c r="K146" s="19"/>
+      <c r="L146" s="19"/>
+      <c r="M146" s="19"/>
+      <c r="N146" s="19"/>
+      <c r="O146" s="19"/>
+      <c r="P146" s="19"/>
+      <c r="Q146" s="19"/>
+      <c r="R146" s="19"/>
+      <c r="S146" s="19"/>
+      <c r="T146" s="19"/>
+      <c r="U146" s="19"/>
+      <c r="V146" s="19"/>
+      <c r="W146" s="132"/>
+      <c r="X146" s="132"/>
+      <c r="Y146" s="132"/>
+      <c r="Z146" s="132"/>
+      <c r="AA146" s="19"/>
+      <c r="AB146" s="19"/>
+      <c r="AC146" s="19"/>
+      <c r="AD146" s="19"/>
+      <c r="AE146" s="132"/>
+      <c r="AF146" s="132"/>
+      <c r="AG146" s="19"/>
+      <c r="AH146" s="19"/>
+      <c r="AI146" s="19"/>
+      <c r="AJ146" s="19"/>
+      <c r="AK146" s="19"/>
+      <c r="AL146" s="19"/>
+      <c r="AM146" s="19"/>
+      <c r="AN146" s="19"/>
+      <c r="AO146" s="19"/>
+      <c r="AP146" s="19"/>
+      <c r="AQ146" s="19"/>
+      <c r="AR146" s="19"/>
+      <c r="AS146" s="19"/>
+      <c r="AT146" s="19"/>
+      <c r="AU146" s="19"/>
       <c r="AW146" s="20"/>
-      <c r="AY146" s="162"/>
+      <c r="AY146" s="144"/>
     </row>
     <row r="147" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="0"/>
@@ -15907,7 +15402,7 @@
       <c r="AU147" s="0"/>
       <c r="AV147" s="0"/>
       <c r="AW147" s="20"/>
-      <c r="AY147" s="162"/>
+      <c r="AY147" s="144"/>
     </row>
     <row r="148" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="0"/>
@@ -15959,34 +15454,32 @@
       <c r="AU148" s="0"/>
       <c r="AV148" s="0"/>
       <c r="AW148" s="20"/>
-      <c r="AY148" s="163"/>
-      <c r="AZ148" s="163"/>
-      <c r="BA148" s="163"/>
-      <c r="BB148" s="163"/>
-      <c r="BC148" s="163"/>
-      <c r="BD148" s="163"/>
-      <c r="BE148" s="163"/>
-      <c r="BF148" s="163"/>
-      <c r="BG148" s="163"/>
-      <c r="BH148" s="163"/>
-      <c r="BI148" s="163"/>
-      <c r="BJ148" s="163"/>
+      <c r="AY148" s="145"/>
+      <c r="AZ148" s="145"/>
+      <c r="BA148" s="145"/>
+      <c r="BB148" s="145"/>
+      <c r="BC148" s="145"/>
+      <c r="BD148" s="145"/>
+      <c r="BE148" s="145"/>
+      <c r="BF148" s="145"/>
+      <c r="BG148" s="145"/>
+      <c r="BH148" s="145"/>
+      <c r="BI148" s="145"/>
+      <c r="BJ148" s="145"/>
     </row>
     <row r="149" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="0"/>
       <c r="B149" s="0"/>
-      <c r="C149" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D149" s="19"/>
-      <c r="E149" s="137"/>
-      <c r="F149" s="19"/>
-      <c r="G149" s="19"/>
-      <c r="H149" s="19"/>
-      <c r="I149" s="19"/>
-      <c r="J149" s="19"/>
-      <c r="K149" s="24"/>
-      <c r="L149" s="24"/>
+      <c r="C149" s="0"/>
+      <c r="D149" s="0"/>
+      <c r="E149" s="0"/>
+      <c r="F149" s="0"/>
+      <c r="G149" s="0"/>
+      <c r="H149" s="0"/>
+      <c r="I149" s="0"/>
+      <c r="J149" s="0"/>
+      <c r="K149" s="0"/>
+      <c r="L149" s="0"/>
       <c r="M149" s="24"/>
       <c r="N149" s="24"/>
       <c r="O149" s="24"/>
@@ -16024,1234 +15517,1301 @@
       <c r="AV149" s="0"/>
       <c r="AW149" s="20"/>
     </row>
-    <row r="150" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="150" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="0"/>
       <c r="B150" s="0"/>
-      <c r="D150" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="E150" s="137"/>
-      <c r="F150" s="19"/>
-      <c r="G150" s="19"/>
-      <c r="H150" s="19"/>
-      <c r="I150" s="19"/>
-      <c r="J150" s="19"/>
-      <c r="K150" s="19"/>
-      <c r="L150" s="19"/>
-      <c r="M150" s="19"/>
-      <c r="N150" s="19"/>
-      <c r="O150" s="19"/>
-      <c r="P150" s="19"/>
-      <c r="Q150" s="19"/>
-      <c r="R150" s="19"/>
-      <c r="S150" s="19"/>
-      <c r="T150" s="19"/>
-      <c r="U150" s="19"/>
-      <c r="V150" s="19"/>
-      <c r="W150" s="19"/>
-      <c r="X150" s="19"/>
-      <c r="Y150" s="19"/>
-      <c r="Z150" s="19"/>
-      <c r="AA150" s="19"/>
-      <c r="AB150" s="19"/>
-      <c r="AC150" s="19"/>
-      <c r="AD150" s="19"/>
-      <c r="AE150" s="1"/>
-      <c r="AF150" s="19"/>
-      <c r="AG150" s="19"/>
-      <c r="AH150" s="19"/>
-      <c r="AI150" s="19"/>
-      <c r="AJ150" s="19"/>
-      <c r="AK150" s="19"/>
-      <c r="AL150" s="19"/>
-      <c r="AM150" s="19"/>
-      <c r="AN150" s="19"/>
-      <c r="AO150" s="19"/>
-      <c r="AP150" s="19"/>
-      <c r="AQ150" s="19"/>
-      <c r="AR150" s="19"/>
-      <c r="AS150" s="19"/>
-      <c r="AT150" s="19"/>
-      <c r="AU150" s="19"/>
-      <c r="AV150" s="0"/>
+      <c r="C150" s="9"/>
       <c r="AW150" s="20"/>
-    </row>
-    <row r="151" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AKO150" s="0"/>
+      <c r="AKP150" s="0"/>
+      <c r="AKQ150" s="0"/>
+      <c r="AKR150" s="0"/>
+      <c r="AKS150" s="0"/>
+      <c r="AKT150" s="0"/>
+      <c r="AKU150" s="0"/>
+      <c r="AKV150" s="0"/>
+      <c r="AKW150" s="0"/>
+      <c r="AKX150" s="0"/>
+      <c r="AKY150" s="0"/>
+      <c r="AKZ150" s="0"/>
+      <c r="ALA150" s="0"/>
+      <c r="ALB150" s="0"/>
+      <c r="ALC150" s="0"/>
+      <c r="ALD150" s="0"/>
+      <c r="ALE150" s="0"/>
+      <c r="ALF150" s="0"/>
+      <c r="ALG150" s="0"/>
+      <c r="ALH150" s="0"/>
+      <c r="ALI150" s="0"/>
+      <c r="ALJ150" s="0"/>
+      <c r="ALK150" s="0"/>
+      <c r="ALL150" s="0"/>
+      <c r="ALM150" s="0"/>
+      <c r="ALN150" s="0"/>
+      <c r="ALO150" s="0"/>
+      <c r="ALP150" s="0"/>
+      <c r="ALQ150" s="0"/>
+      <c r="ALR150" s="0"/>
+      <c r="ALS150" s="0"/>
+      <c r="ALT150" s="0"/>
+      <c r="ALU150" s="0"/>
+      <c r="ALV150" s="0"/>
+      <c r="ALW150" s="0"/>
+      <c r="ALX150" s="0"/>
+      <c r="ALY150" s="0"/>
+      <c r="ALZ150" s="0"/>
+      <c r="AMA150" s="0"/>
+      <c r="AMB150" s="0"/>
+      <c r="AMC150" s="0"/>
+      <c r="AMD150" s="0"/>
+      <c r="AME150" s="0"/>
+      <c r="AMF150" s="0"/>
+      <c r="AMG150" s="0"/>
+      <c r="AMH150" s="0"/>
+      <c r="AMI150" s="0"/>
+      <c r="AMJ150" s="0"/>
+    </row>
+    <row r="151" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="0"/>
       <c r="B151" s="0"/>
-      <c r="D151" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E151" s="137"/>
-      <c r="F151" s="19"/>
-      <c r="G151" s="19"/>
-      <c r="H151" s="19"/>
-      <c r="I151" s="19"/>
-      <c r="J151" s="19"/>
-      <c r="K151" s="19"/>
-      <c r="L151" s="19"/>
-      <c r="M151" s="19"/>
-      <c r="N151" s="19"/>
-      <c r="O151" s="19"/>
-      <c r="P151" s="19"/>
-      <c r="Q151" s="19"/>
-      <c r="R151" s="19"/>
-      <c r="S151" s="19"/>
-      <c r="T151" s="19"/>
-      <c r="U151" s="19"/>
-      <c r="V151" s="19"/>
-      <c r="W151" s="19"/>
-      <c r="X151" s="19"/>
-      <c r="Y151" s="19"/>
-      <c r="Z151" s="19"/>
-      <c r="AA151" s="19"/>
-      <c r="AB151" s="19"/>
-      <c r="AC151" s="19"/>
-      <c r="AD151" s="19"/>
-      <c r="AE151" s="1"/>
-      <c r="AF151" s="19"/>
-      <c r="AG151" s="19"/>
-      <c r="AH151" s="19"/>
-      <c r="AI151" s="19"/>
-      <c r="AJ151" s="19"/>
-      <c r="AK151" s="19"/>
-      <c r="AL151" s="19"/>
-      <c r="AM151" s="19"/>
-      <c r="AN151" s="19"/>
-      <c r="AO151" s="19"/>
-      <c r="AP151" s="19"/>
-      <c r="AQ151" s="19"/>
-      <c r="AR151" s="19"/>
-      <c r="AS151" s="19"/>
-      <c r="AT151" s="19"/>
-      <c r="AU151" s="19"/>
-      <c r="AV151" s="0"/>
+      <c r="C151" s="9"/>
       <c r="AW151" s="20"/>
-    </row>
-    <row r="152" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AKO151" s="0"/>
+      <c r="AKP151" s="0"/>
+      <c r="AKQ151" s="0"/>
+      <c r="AKR151" s="0"/>
+      <c r="AKS151" s="0"/>
+      <c r="AKT151" s="0"/>
+      <c r="AKU151" s="0"/>
+      <c r="AKV151" s="0"/>
+      <c r="AKW151" s="0"/>
+      <c r="AKX151" s="0"/>
+      <c r="AKY151" s="0"/>
+      <c r="AKZ151" s="0"/>
+      <c r="ALA151" s="0"/>
+      <c r="ALB151" s="0"/>
+      <c r="ALC151" s="0"/>
+      <c r="ALD151" s="0"/>
+      <c r="ALE151" s="0"/>
+      <c r="ALF151" s="0"/>
+      <c r="ALG151" s="0"/>
+      <c r="ALH151" s="0"/>
+      <c r="ALI151" s="0"/>
+      <c r="ALJ151" s="0"/>
+      <c r="ALK151" s="0"/>
+      <c r="ALL151" s="0"/>
+      <c r="ALM151" s="0"/>
+      <c r="ALN151" s="0"/>
+      <c r="ALO151" s="0"/>
+      <c r="ALP151" s="0"/>
+      <c r="ALQ151" s="0"/>
+      <c r="ALR151" s="0"/>
+      <c r="ALS151" s="0"/>
+      <c r="ALT151" s="0"/>
+      <c r="ALU151" s="0"/>
+      <c r="ALV151" s="0"/>
+      <c r="ALW151" s="0"/>
+      <c r="ALX151" s="0"/>
+      <c r="ALY151" s="0"/>
+      <c r="ALZ151" s="0"/>
+      <c r="AMA151" s="0"/>
+      <c r="AMB151" s="0"/>
+      <c r="AMC151" s="0"/>
+      <c r="AMD151" s="0"/>
+      <c r="AME151" s="0"/>
+      <c r="AMF151" s="0"/>
+      <c r="AMG151" s="0"/>
+      <c r="AMH151" s="0"/>
+      <c r="AMI151" s="0"/>
+      <c r="AMJ151" s="0"/>
+    </row>
+    <row r="152" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="0"/>
       <c r="B152" s="0"/>
-      <c r="D152" s="19"/>
-      <c r="E152" s="164" t="s">
-        <v>95</v>
-      </c>
-      <c r="F152" s="19"/>
-      <c r="G152" s="19"/>
-      <c r="H152" s="19"/>
-      <c r="I152" s="19"/>
-      <c r="J152" s="19"/>
-      <c r="K152" s="19"/>
-      <c r="L152" s="19"/>
-      <c r="M152" s="19"/>
-      <c r="N152" s="19"/>
-      <c r="O152" s="19"/>
-      <c r="P152" s="19"/>
-      <c r="Q152" s="19"/>
-      <c r="R152" s="19"/>
-      <c r="S152" s="19"/>
-      <c r="T152" s="19"/>
-      <c r="U152" s="19"/>
-      <c r="V152" s="19"/>
-      <c r="W152" s="19"/>
-      <c r="X152" s="19"/>
-      <c r="Y152" s="19"/>
-      <c r="Z152" s="19"/>
-      <c r="AA152" s="19"/>
-      <c r="AB152" s="19"/>
-      <c r="AC152" s="19"/>
-      <c r="AD152" s="19"/>
-      <c r="AE152" s="1"/>
-      <c r="AF152" s="19"/>
-      <c r="AG152" s="19"/>
-      <c r="AH152" s="19"/>
-      <c r="AI152" s="19"/>
-      <c r="AJ152" s="19"/>
-      <c r="AK152" s="19"/>
-      <c r="AL152" s="19"/>
-      <c r="AM152" s="19"/>
-      <c r="AN152" s="19"/>
-      <c r="AO152" s="19"/>
-      <c r="AP152" s="19"/>
-      <c r="AQ152" s="19"/>
-      <c r="AR152" s="19"/>
-      <c r="AS152" s="19"/>
-      <c r="AT152" s="19"/>
-      <c r="AU152" s="19"/>
-      <c r="AV152" s="0"/>
+      <c r="C152" s="9"/>
       <c r="AW152" s="20"/>
-    </row>
-    <row r="153" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AKO152" s="0"/>
+      <c r="AKP152" s="0"/>
+      <c r="AKQ152" s="0"/>
+      <c r="AKR152" s="0"/>
+      <c r="AKS152" s="0"/>
+      <c r="AKT152" s="0"/>
+      <c r="AKU152" s="0"/>
+      <c r="AKV152" s="0"/>
+      <c r="AKW152" s="0"/>
+      <c r="AKX152" s="0"/>
+      <c r="AKY152" s="0"/>
+      <c r="AKZ152" s="0"/>
+      <c r="ALA152" s="0"/>
+      <c r="ALB152" s="0"/>
+      <c r="ALC152" s="0"/>
+      <c r="ALD152" s="0"/>
+      <c r="ALE152" s="0"/>
+      <c r="ALF152" s="0"/>
+      <c r="ALG152" s="0"/>
+      <c r="ALH152" s="0"/>
+      <c r="ALI152" s="0"/>
+      <c r="ALJ152" s="0"/>
+      <c r="ALK152" s="0"/>
+      <c r="ALL152" s="0"/>
+      <c r="ALM152" s="0"/>
+      <c r="ALN152" s="0"/>
+      <c r="ALO152" s="0"/>
+      <c r="ALP152" s="0"/>
+      <c r="ALQ152" s="0"/>
+      <c r="ALR152" s="0"/>
+      <c r="ALS152" s="0"/>
+      <c r="ALT152" s="0"/>
+      <c r="ALU152" s="0"/>
+      <c r="ALV152" s="0"/>
+      <c r="ALW152" s="0"/>
+      <c r="ALX152" s="0"/>
+      <c r="ALY152" s="0"/>
+      <c r="ALZ152" s="0"/>
+      <c r="AMA152" s="0"/>
+      <c r="AMB152" s="0"/>
+      <c r="AMC152" s="0"/>
+      <c r="AMD152" s="0"/>
+      <c r="AME152" s="0"/>
+      <c r="AMF152" s="0"/>
+      <c r="AMG152" s="0"/>
+      <c r="AMH152" s="0"/>
+      <c r="AMI152" s="0"/>
+      <c r="AMJ152" s="0"/>
+    </row>
+    <row r="153" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="0"/>
       <c r="B153" s="0"/>
-      <c r="D153" s="19"/>
-      <c r="E153" s="165" t="s">
-        <v>45</v>
-      </c>
-      <c r="F153" s="166" t="s">
-        <v>59</v>
-      </c>
-      <c r="G153" s="166"/>
-      <c r="H153" s="166"/>
-      <c r="I153" s="166"/>
-      <c r="J153" s="166"/>
-      <c r="K153" s="166"/>
-      <c r="L153" s="166"/>
-      <c r="M153" s="166"/>
-      <c r="N153" s="166" t="s">
-        <v>96</v>
-      </c>
-      <c r="O153" s="166"/>
-      <c r="P153" s="166"/>
-      <c r="Q153" s="166"/>
-      <c r="R153" s="166"/>
-      <c r="S153" s="166"/>
-      <c r="T153" s="166"/>
-      <c r="U153" s="166"/>
-      <c r="V153" s="166"/>
-      <c r="W153" s="166"/>
-      <c r="X153" s="166"/>
-      <c r="Y153" s="166"/>
-      <c r="Z153" s="166"/>
-      <c r="AA153" s="166"/>
-      <c r="AB153" s="166"/>
-      <c r="AC153" s="166"/>
-      <c r="AD153" s="166"/>
-      <c r="AE153" s="166"/>
-      <c r="AF153" s="166"/>
-      <c r="AG153" s="166"/>
-      <c r="AH153" s="166"/>
-      <c r="AI153" s="166"/>
-      <c r="AJ153" s="167" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK153" s="167"/>
-      <c r="AL153" s="167"/>
-      <c r="AM153" s="167"/>
-      <c r="AN153" s="167"/>
-      <c r="AO153" s="167"/>
-      <c r="AP153" s="167"/>
-      <c r="AQ153" s="167"/>
-      <c r="AR153" s="167"/>
-      <c r="AS153" s="167"/>
-      <c r="AT153" s="167"/>
-      <c r="AU153" s="167"/>
-      <c r="AV153" s="0"/>
+      <c r="C153" s="9"/>
       <c r="AW153" s="20"/>
-    </row>
-    <row r="154" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AKO153" s="0"/>
+      <c r="AKP153" s="0"/>
+      <c r="AKQ153" s="0"/>
+      <c r="AKR153" s="0"/>
+      <c r="AKS153" s="0"/>
+      <c r="AKT153" s="0"/>
+      <c r="AKU153" s="0"/>
+      <c r="AKV153" s="0"/>
+      <c r="AKW153" s="0"/>
+      <c r="AKX153" s="0"/>
+      <c r="AKY153" s="0"/>
+      <c r="AKZ153" s="0"/>
+      <c r="ALA153" s="0"/>
+      <c r="ALB153" s="0"/>
+      <c r="ALC153" s="0"/>
+      <c r="ALD153" s="0"/>
+      <c r="ALE153" s="0"/>
+      <c r="ALF153" s="0"/>
+      <c r="ALG153" s="0"/>
+      <c r="ALH153" s="0"/>
+      <c r="ALI153" s="0"/>
+      <c r="ALJ153" s="0"/>
+      <c r="ALK153" s="0"/>
+      <c r="ALL153" s="0"/>
+      <c r="ALM153" s="0"/>
+      <c r="ALN153" s="0"/>
+      <c r="ALO153" s="0"/>
+      <c r="ALP153" s="0"/>
+      <c r="ALQ153" s="0"/>
+      <c r="ALR153" s="0"/>
+      <c r="ALS153" s="0"/>
+      <c r="ALT153" s="0"/>
+      <c r="ALU153" s="0"/>
+      <c r="ALV153" s="0"/>
+      <c r="ALW153" s="0"/>
+      <c r="ALX153" s="0"/>
+      <c r="ALY153" s="0"/>
+      <c r="ALZ153" s="0"/>
+      <c r="AMA153" s="0"/>
+      <c r="AMB153" s="0"/>
+      <c r="AMC153" s="0"/>
+      <c r="AMD153" s="0"/>
+      <c r="AME153" s="0"/>
+      <c r="AMF153" s="0"/>
+      <c r="AMG153" s="0"/>
+      <c r="AMH153" s="0"/>
+      <c r="AMI153" s="0"/>
+      <c r="AMJ153" s="0"/>
+    </row>
+    <row r="154" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="17"/>
-      <c r="D154" s="19"/>
-      <c r="E154" s="168"/>
-      <c r="F154" s="169"/>
-      <c r="G154" s="170"/>
-      <c r="H154" s="170"/>
-      <c r="I154" s="171"/>
-      <c r="J154" s="171"/>
-      <c r="K154" s="171"/>
-      <c r="L154" s="171"/>
-      <c r="M154" s="172"/>
-      <c r="N154" s="173"/>
-      <c r="O154" s="170"/>
-      <c r="P154" s="170"/>
-      <c r="Q154" s="171"/>
-      <c r="R154" s="171"/>
-      <c r="S154" s="171"/>
-      <c r="T154" s="171"/>
-      <c r="U154" s="171"/>
-      <c r="V154" s="174"/>
-      <c r="W154" s="174"/>
-      <c r="X154" s="174"/>
-      <c r="Y154" s="174"/>
-      <c r="Z154" s="174"/>
-      <c r="AA154" s="174"/>
-      <c r="AB154" s="174"/>
-      <c r="AC154" s="174"/>
-      <c r="AD154" s="174"/>
-      <c r="AE154" s="174"/>
-      <c r="AF154" s="174"/>
-      <c r="AG154" s="174"/>
-      <c r="AH154" s="174"/>
-      <c r="AI154" s="175"/>
-      <c r="AJ154" s="176"/>
-      <c r="AK154" s="177"/>
-      <c r="AL154" s="177"/>
-      <c r="AM154" s="177"/>
-      <c r="AN154" s="177"/>
-      <c r="AO154" s="177"/>
-      <c r="AP154" s="177"/>
-      <c r="AQ154" s="177"/>
-      <c r="AR154" s="177"/>
-      <c r="AS154" s="177"/>
-      <c r="AT154" s="177"/>
-      <c r="AU154" s="178"/>
-      <c r="AV154" s="19"/>
+      <c r="B154" s="59"/>
+      <c r="C154" s="9"/>
       <c r="AW154" s="20"/>
-    </row>
-    <row r="155" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AKO154" s="0"/>
+      <c r="AKP154" s="0"/>
+      <c r="AKQ154" s="0"/>
+      <c r="AKR154" s="0"/>
+      <c r="AKS154" s="0"/>
+      <c r="AKT154" s="0"/>
+      <c r="AKU154" s="0"/>
+      <c r="AKV154" s="0"/>
+      <c r="AKW154" s="0"/>
+      <c r="AKX154" s="0"/>
+      <c r="AKY154" s="0"/>
+      <c r="AKZ154" s="0"/>
+      <c r="ALA154" s="0"/>
+      <c r="ALB154" s="0"/>
+      <c r="ALC154" s="0"/>
+      <c r="ALD154" s="0"/>
+      <c r="ALE154" s="0"/>
+      <c r="ALF154" s="0"/>
+      <c r="ALG154" s="0"/>
+      <c r="ALH154" s="0"/>
+      <c r="ALI154" s="0"/>
+      <c r="ALJ154" s="0"/>
+      <c r="ALK154" s="0"/>
+      <c r="ALL154" s="0"/>
+      <c r="ALM154" s="0"/>
+      <c r="ALN154" s="0"/>
+      <c r="ALO154" s="0"/>
+      <c r="ALP154" s="0"/>
+      <c r="ALQ154" s="0"/>
+      <c r="ALR154" s="0"/>
+      <c r="ALS154" s="0"/>
+      <c r="ALT154" s="0"/>
+      <c r="ALU154" s="0"/>
+      <c r="ALV154" s="0"/>
+      <c r="ALW154" s="0"/>
+      <c r="ALX154" s="0"/>
+      <c r="ALY154" s="0"/>
+      <c r="ALZ154" s="0"/>
+      <c r="AMA154" s="0"/>
+      <c r="AMB154" s="0"/>
+      <c r="AMC154" s="0"/>
+      <c r="AMD154" s="0"/>
+      <c r="AME154" s="0"/>
+      <c r="AMF154" s="0"/>
+      <c r="AMG154" s="0"/>
+      <c r="AMH154" s="0"/>
+      <c r="AMI154" s="0"/>
+      <c r="AMJ154" s="0"/>
+    </row>
+    <row r="155" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="17"/>
-      <c r="D155" s="19"/>
-      <c r="E155" s="179"/>
-      <c r="F155" s="180"/>
-      <c r="G155" s="181"/>
-      <c r="H155" s="181"/>
-      <c r="I155" s="182"/>
-      <c r="J155" s="182"/>
-      <c r="K155" s="182"/>
-      <c r="L155" s="182"/>
-      <c r="M155" s="183"/>
-      <c r="N155" s="180"/>
-      <c r="O155" s="181"/>
-      <c r="P155" s="181"/>
-      <c r="Q155" s="182"/>
-      <c r="R155" s="182"/>
-      <c r="S155" s="182"/>
-      <c r="T155" s="182"/>
-      <c r="U155" s="182"/>
-      <c r="V155" s="184"/>
-      <c r="W155" s="184"/>
-      <c r="X155" s="184"/>
-      <c r="Y155" s="184"/>
-      <c r="Z155" s="184"/>
-      <c r="AA155" s="184"/>
-      <c r="AB155" s="184"/>
-      <c r="AC155" s="184"/>
-      <c r="AD155" s="184"/>
-      <c r="AE155" s="184"/>
-      <c r="AF155" s="184"/>
-      <c r="AG155" s="184"/>
-      <c r="AH155" s="184"/>
-      <c r="AI155" s="185"/>
-      <c r="AJ155" s="186"/>
-      <c r="AK155" s="187"/>
-      <c r="AL155" s="187"/>
-      <c r="AM155" s="187"/>
-      <c r="AN155" s="187"/>
-      <c r="AO155" s="187"/>
-      <c r="AP155" s="187"/>
-      <c r="AQ155" s="187"/>
-      <c r="AR155" s="187"/>
-      <c r="AS155" s="187"/>
-      <c r="AT155" s="187"/>
-      <c r="AU155" s="188"/>
-      <c r="AV155" s="19"/>
+      <c r="B155" s="59"/>
+      <c r="C155" s="9"/>
       <c r="AW155" s="20"/>
-    </row>
-    <row r="156" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AKO155" s="0"/>
+      <c r="AKP155" s="0"/>
+      <c r="AKQ155" s="0"/>
+      <c r="AKR155" s="0"/>
+      <c r="AKS155" s="0"/>
+      <c r="AKT155" s="0"/>
+      <c r="AKU155" s="0"/>
+      <c r="AKV155" s="0"/>
+      <c r="AKW155" s="0"/>
+      <c r="AKX155" s="0"/>
+      <c r="AKY155" s="0"/>
+      <c r="AKZ155" s="0"/>
+      <c r="ALA155" s="0"/>
+      <c r="ALB155" s="0"/>
+      <c r="ALC155" s="0"/>
+      <c r="ALD155" s="0"/>
+      <c r="ALE155" s="0"/>
+      <c r="ALF155" s="0"/>
+      <c r="ALG155" s="0"/>
+      <c r="ALH155" s="0"/>
+      <c r="ALI155" s="0"/>
+      <c r="ALJ155" s="0"/>
+      <c r="ALK155" s="0"/>
+      <c r="ALL155" s="0"/>
+      <c r="ALM155" s="0"/>
+      <c r="ALN155" s="0"/>
+      <c r="ALO155" s="0"/>
+      <c r="ALP155" s="0"/>
+      <c r="ALQ155" s="0"/>
+      <c r="ALR155" s="0"/>
+      <c r="ALS155" s="0"/>
+      <c r="ALT155" s="0"/>
+      <c r="ALU155" s="0"/>
+      <c r="ALV155" s="0"/>
+      <c r="ALW155" s="0"/>
+      <c r="ALX155" s="0"/>
+      <c r="ALY155" s="0"/>
+      <c r="ALZ155" s="0"/>
+      <c r="AMA155" s="0"/>
+      <c r="AMB155" s="0"/>
+      <c r="AMC155" s="0"/>
+      <c r="AMD155" s="0"/>
+      <c r="AME155" s="0"/>
+      <c r="AMF155" s="0"/>
+      <c r="AMG155" s="0"/>
+      <c r="AMH155" s="0"/>
+      <c r="AMI155" s="0"/>
+      <c r="AMJ155" s="0"/>
+    </row>
+    <row r="156" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="17"/>
-      <c r="D156" s="19"/>
-      <c r="E156" s="189"/>
-      <c r="F156" s="190"/>
-      <c r="G156" s="191"/>
-      <c r="H156" s="191"/>
-      <c r="I156" s="192"/>
-      <c r="J156" s="192"/>
-      <c r="K156" s="192"/>
-      <c r="L156" s="192"/>
-      <c r="M156" s="193"/>
-      <c r="N156" s="194"/>
-      <c r="O156" s="194"/>
-      <c r="P156" s="194"/>
-      <c r="Q156" s="194"/>
-      <c r="R156" s="194"/>
-      <c r="S156" s="194"/>
-      <c r="T156" s="194"/>
-      <c r="U156" s="194"/>
-      <c r="V156" s="194"/>
-      <c r="W156" s="194"/>
-      <c r="X156" s="194"/>
-      <c r="Y156" s="194"/>
-      <c r="Z156" s="194"/>
-      <c r="AA156" s="194"/>
-      <c r="AB156" s="194"/>
-      <c r="AC156" s="194"/>
-      <c r="AD156" s="194"/>
-      <c r="AE156" s="194"/>
-      <c r="AF156" s="194"/>
-      <c r="AG156" s="194"/>
-      <c r="AH156" s="194"/>
-      <c r="AI156" s="194"/>
-      <c r="AJ156" s="195"/>
-      <c r="AK156" s="196"/>
-      <c r="AL156" s="196"/>
-      <c r="AM156" s="196"/>
-      <c r="AN156" s="196"/>
-      <c r="AO156" s="196"/>
-      <c r="AP156" s="196"/>
-      <c r="AQ156" s="196"/>
-      <c r="AR156" s="196"/>
-      <c r="AS156" s="196"/>
-      <c r="AT156" s="196"/>
-      <c r="AU156" s="197"/>
-      <c r="AV156" s="19"/>
+      <c r="B156" s="59"/>
+      <c r="C156" s="9"/>
       <c r="AW156" s="20"/>
-    </row>
-    <row r="157" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AKO156" s="0"/>
+      <c r="AKP156" s="0"/>
+      <c r="AKQ156" s="0"/>
+      <c r="AKR156" s="0"/>
+      <c r="AKS156" s="0"/>
+      <c r="AKT156" s="0"/>
+      <c r="AKU156" s="0"/>
+      <c r="AKV156" s="0"/>
+      <c r="AKW156" s="0"/>
+      <c r="AKX156" s="0"/>
+      <c r="AKY156" s="0"/>
+      <c r="AKZ156" s="0"/>
+      <c r="ALA156" s="0"/>
+      <c r="ALB156" s="0"/>
+      <c r="ALC156" s="0"/>
+      <c r="ALD156" s="0"/>
+      <c r="ALE156" s="0"/>
+      <c r="ALF156" s="0"/>
+      <c r="ALG156" s="0"/>
+      <c r="ALH156" s="0"/>
+      <c r="ALI156" s="0"/>
+      <c r="ALJ156" s="0"/>
+      <c r="ALK156" s="0"/>
+      <c r="ALL156" s="0"/>
+      <c r="ALM156" s="0"/>
+      <c r="ALN156" s="0"/>
+      <c r="ALO156" s="0"/>
+      <c r="ALP156" s="0"/>
+      <c r="ALQ156" s="0"/>
+      <c r="ALR156" s="0"/>
+      <c r="ALS156" s="0"/>
+      <c r="ALT156" s="0"/>
+      <c r="ALU156" s="0"/>
+      <c r="ALV156" s="0"/>
+      <c r="ALW156" s="0"/>
+      <c r="ALX156" s="0"/>
+      <c r="ALY156" s="0"/>
+      <c r="ALZ156" s="0"/>
+      <c r="AMA156" s="0"/>
+      <c r="AMB156" s="0"/>
+      <c r="AMC156" s="0"/>
+      <c r="AMD156" s="0"/>
+      <c r="AME156" s="0"/>
+      <c r="AMF156" s="0"/>
+      <c r="AMG156" s="0"/>
+      <c r="AMH156" s="0"/>
+      <c r="AMI156" s="0"/>
+      <c r="AMJ156" s="0"/>
+    </row>
+    <row r="157" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="17"/>
-      <c r="D157" s="19"/>
-      <c r="E157" s="179"/>
-      <c r="F157" s="180"/>
-      <c r="G157" s="181"/>
-      <c r="H157" s="181"/>
-      <c r="I157" s="182"/>
-      <c r="J157" s="182"/>
-      <c r="K157" s="182"/>
-      <c r="L157" s="182"/>
-      <c r="M157" s="183"/>
-      <c r="N157" s="180"/>
-      <c r="O157" s="181"/>
-      <c r="P157" s="181"/>
-      <c r="Q157" s="182"/>
-      <c r="R157" s="182"/>
-      <c r="S157" s="182"/>
-      <c r="T157" s="182"/>
-      <c r="U157" s="182"/>
-      <c r="V157" s="184"/>
-      <c r="W157" s="184"/>
-      <c r="X157" s="184"/>
-      <c r="Y157" s="184"/>
-      <c r="Z157" s="184"/>
-      <c r="AA157" s="184"/>
-      <c r="AB157" s="184"/>
-      <c r="AC157" s="184"/>
-      <c r="AD157" s="184"/>
-      <c r="AE157" s="184"/>
-      <c r="AF157" s="184"/>
-      <c r="AG157" s="184"/>
-      <c r="AH157" s="184"/>
-      <c r="AI157" s="185"/>
-      <c r="AJ157" s="186"/>
-      <c r="AK157" s="187"/>
-      <c r="AL157" s="187"/>
-      <c r="AM157" s="187"/>
-      <c r="AN157" s="187"/>
-      <c r="AO157" s="187"/>
-      <c r="AP157" s="187"/>
-      <c r="AQ157" s="187"/>
-      <c r="AR157" s="187"/>
-      <c r="AS157" s="187"/>
-      <c r="AT157" s="187"/>
-      <c r="AU157" s="188"/>
-      <c r="AV157" s="19"/>
+      <c r="B157" s="59"/>
+      <c r="C157" s="9"/>
       <c r="AW157" s="20"/>
-    </row>
-    <row r="158" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AKO157" s="0"/>
+      <c r="AKP157" s="0"/>
+      <c r="AKQ157" s="0"/>
+      <c r="AKR157" s="0"/>
+      <c r="AKS157" s="0"/>
+      <c r="AKT157" s="0"/>
+      <c r="AKU157" s="0"/>
+      <c r="AKV157" s="0"/>
+      <c r="AKW157" s="0"/>
+      <c r="AKX157" s="0"/>
+      <c r="AKY157" s="0"/>
+      <c r="AKZ157" s="0"/>
+      <c r="ALA157" s="0"/>
+      <c r="ALB157" s="0"/>
+      <c r="ALC157" s="0"/>
+      <c r="ALD157" s="0"/>
+      <c r="ALE157" s="0"/>
+      <c r="ALF157" s="0"/>
+      <c r="ALG157" s="0"/>
+      <c r="ALH157" s="0"/>
+      <c r="ALI157" s="0"/>
+      <c r="ALJ157" s="0"/>
+      <c r="ALK157" s="0"/>
+      <c r="ALL157" s="0"/>
+      <c r="ALM157" s="0"/>
+      <c r="ALN157" s="0"/>
+      <c r="ALO157" s="0"/>
+      <c r="ALP157" s="0"/>
+      <c r="ALQ157" s="0"/>
+      <c r="ALR157" s="0"/>
+      <c r="ALS157" s="0"/>
+      <c r="ALT157" s="0"/>
+      <c r="ALU157" s="0"/>
+      <c r="ALV157" s="0"/>
+      <c r="ALW157" s="0"/>
+      <c r="ALX157" s="0"/>
+      <c r="ALY157" s="0"/>
+      <c r="ALZ157" s="0"/>
+      <c r="AMA157" s="0"/>
+      <c r="AMB157" s="0"/>
+      <c r="AMC157" s="0"/>
+      <c r="AMD157" s="0"/>
+      <c r="AME157" s="0"/>
+      <c r="AMF157" s="0"/>
+      <c r="AMG157" s="0"/>
+      <c r="AMH157" s="0"/>
+      <c r="AMI157" s="0"/>
+      <c r="AMJ157" s="0"/>
+    </row>
+    <row r="158" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="17"/>
-      <c r="D158" s="19"/>
-      <c r="E158" s="189"/>
-      <c r="F158" s="190"/>
-      <c r="G158" s="191"/>
-      <c r="H158" s="191"/>
-      <c r="I158" s="192"/>
-      <c r="J158" s="192"/>
-      <c r="K158" s="192"/>
-      <c r="L158" s="192"/>
-      <c r="M158" s="193"/>
-      <c r="N158" s="194"/>
-      <c r="O158" s="194"/>
-      <c r="P158" s="194"/>
-      <c r="Q158" s="194"/>
-      <c r="R158" s="194"/>
-      <c r="S158" s="194"/>
-      <c r="T158" s="194"/>
-      <c r="U158" s="194"/>
-      <c r="V158" s="194"/>
-      <c r="W158" s="194"/>
-      <c r="X158" s="194"/>
-      <c r="Y158" s="194"/>
-      <c r="Z158" s="194"/>
-      <c r="AA158" s="194"/>
-      <c r="AB158" s="194"/>
-      <c r="AC158" s="194"/>
-      <c r="AD158" s="194"/>
-      <c r="AE158" s="194"/>
-      <c r="AF158" s="194"/>
-      <c r="AG158" s="194"/>
-      <c r="AH158" s="194"/>
-      <c r="AI158" s="194"/>
-      <c r="AJ158" s="195"/>
-      <c r="AK158" s="196"/>
-      <c r="AL158" s="196"/>
-      <c r="AM158" s="196"/>
-      <c r="AN158" s="196"/>
-      <c r="AO158" s="196"/>
-      <c r="AP158" s="196"/>
-      <c r="AQ158" s="196"/>
-      <c r="AR158" s="196"/>
-      <c r="AS158" s="196"/>
-      <c r="AT158" s="196"/>
-      <c r="AU158" s="197"/>
-      <c r="AV158" s="19"/>
+      <c r="B158" s="59"/>
+      <c r="C158" s="9"/>
       <c r="AW158" s="20"/>
-    </row>
-    <row r="159" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AKO158" s="0"/>
+      <c r="AKP158" s="0"/>
+      <c r="AKQ158" s="0"/>
+      <c r="AKR158" s="0"/>
+      <c r="AKS158" s="0"/>
+      <c r="AKT158" s="0"/>
+      <c r="AKU158" s="0"/>
+      <c r="AKV158" s="0"/>
+      <c r="AKW158" s="0"/>
+      <c r="AKX158" s="0"/>
+      <c r="AKY158" s="0"/>
+      <c r="AKZ158" s="0"/>
+      <c r="ALA158" s="0"/>
+      <c r="ALB158" s="0"/>
+      <c r="ALC158" s="0"/>
+      <c r="ALD158" s="0"/>
+      <c r="ALE158" s="0"/>
+      <c r="ALF158" s="0"/>
+      <c r="ALG158" s="0"/>
+      <c r="ALH158" s="0"/>
+      <c r="ALI158" s="0"/>
+      <c r="ALJ158" s="0"/>
+      <c r="ALK158" s="0"/>
+      <c r="ALL158" s="0"/>
+      <c r="ALM158" s="0"/>
+      <c r="ALN158" s="0"/>
+      <c r="ALO158" s="0"/>
+      <c r="ALP158" s="0"/>
+      <c r="ALQ158" s="0"/>
+      <c r="ALR158" s="0"/>
+      <c r="ALS158" s="0"/>
+      <c r="ALT158" s="0"/>
+      <c r="ALU158" s="0"/>
+      <c r="ALV158" s="0"/>
+      <c r="ALW158" s="0"/>
+      <c r="ALX158" s="0"/>
+      <c r="ALY158" s="0"/>
+      <c r="ALZ158" s="0"/>
+      <c r="AMA158" s="0"/>
+      <c r="AMB158" s="0"/>
+      <c r="AMC158" s="0"/>
+      <c r="AMD158" s="0"/>
+      <c r="AME158" s="0"/>
+      <c r="AMF158" s="0"/>
+      <c r="AMG158" s="0"/>
+      <c r="AMH158" s="0"/>
+      <c r="AMI158" s="0"/>
+      <c r="AMJ158" s="0"/>
+    </row>
+    <row r="159" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="17"/>
-      <c r="D159" s="19"/>
-      <c r="E159" s="137"/>
-      <c r="F159" s="19"/>
-      <c r="G159" s="19"/>
-      <c r="H159" s="19"/>
-      <c r="I159" s="19"/>
-      <c r="J159" s="19"/>
-      <c r="K159" s="19"/>
-      <c r="L159" s="19"/>
-      <c r="M159" s="19"/>
-      <c r="N159" s="19"/>
-      <c r="O159" s="19"/>
-      <c r="P159" s="19"/>
-      <c r="Q159" s="19"/>
-      <c r="R159" s="19"/>
-      <c r="S159" s="19"/>
-      <c r="T159" s="19"/>
-      <c r="U159" s="19"/>
-      <c r="V159" s="19"/>
-      <c r="W159" s="19"/>
-      <c r="X159" s="19"/>
-      <c r="Y159" s="19"/>
-      <c r="Z159" s="19"/>
-      <c r="AA159" s="19"/>
-      <c r="AB159" s="19"/>
-      <c r="AC159" s="19"/>
-      <c r="AD159" s="19"/>
-      <c r="AE159" s="1"/>
-      <c r="AF159" s="19"/>
-      <c r="AG159" s="19"/>
-      <c r="AH159" s="19"/>
-      <c r="AI159" s="19"/>
-      <c r="AJ159" s="19"/>
-      <c r="AK159" s="19"/>
-      <c r="AL159" s="19"/>
-      <c r="AM159" s="19"/>
-      <c r="AN159" s="19"/>
-      <c r="AO159" s="19"/>
-      <c r="AP159" s="19"/>
-      <c r="AQ159" s="19"/>
-      <c r="AR159" s="19"/>
-      <c r="AS159" s="19"/>
-      <c r="AT159" s="19"/>
-      <c r="AU159" s="19"/>
-      <c r="AV159" s="19"/>
+      <c r="B159" s="59"/>
+      <c r="C159" s="9"/>
       <c r="AW159" s="20"/>
-    </row>
-    <row r="160" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AKO159" s="0"/>
+      <c r="AKP159" s="0"/>
+      <c r="AKQ159" s="0"/>
+      <c r="AKR159" s="0"/>
+      <c r="AKS159" s="0"/>
+      <c r="AKT159" s="0"/>
+      <c r="AKU159" s="0"/>
+      <c r="AKV159" s="0"/>
+      <c r="AKW159" s="0"/>
+      <c r="AKX159" s="0"/>
+      <c r="AKY159" s="0"/>
+      <c r="AKZ159" s="0"/>
+      <c r="ALA159" s="0"/>
+      <c r="ALB159" s="0"/>
+      <c r="ALC159" s="0"/>
+      <c r="ALD159" s="0"/>
+      <c r="ALE159" s="0"/>
+      <c r="ALF159" s="0"/>
+      <c r="ALG159" s="0"/>
+      <c r="ALH159" s="0"/>
+      <c r="ALI159" s="0"/>
+      <c r="ALJ159" s="0"/>
+      <c r="ALK159" s="0"/>
+      <c r="ALL159" s="0"/>
+      <c r="ALM159" s="0"/>
+      <c r="ALN159" s="0"/>
+      <c r="ALO159" s="0"/>
+      <c r="ALP159" s="0"/>
+      <c r="ALQ159" s="0"/>
+      <c r="ALR159" s="0"/>
+      <c r="ALS159" s="0"/>
+      <c r="ALT159" s="0"/>
+      <c r="ALU159" s="0"/>
+      <c r="ALV159" s="0"/>
+      <c r="ALW159" s="0"/>
+      <c r="ALX159" s="0"/>
+      <c r="ALY159" s="0"/>
+      <c r="ALZ159" s="0"/>
+      <c r="AMA159" s="0"/>
+      <c r="AMB159" s="0"/>
+      <c r="AMC159" s="0"/>
+      <c r="AMD159" s="0"/>
+      <c r="AME159" s="0"/>
+      <c r="AMF159" s="0"/>
+      <c r="AMG159" s="0"/>
+      <c r="AMH159" s="0"/>
+      <c r="AMI159" s="0"/>
+      <c r="AMJ159" s="0"/>
+    </row>
+    <row r="160" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="17"/>
-      <c r="D160" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="E160" s="198"/>
-      <c r="F160" s="24"/>
-      <c r="G160" s="24"/>
-      <c r="H160" s="24"/>
-      <c r="I160" s="24"/>
-      <c r="J160" s="24"/>
-      <c r="K160" s="24"/>
-      <c r="L160" s="24"/>
-      <c r="M160" s="24"/>
-      <c r="N160" s="24"/>
-      <c r="O160" s="24"/>
-      <c r="P160" s="24"/>
-      <c r="Q160" s="24"/>
-      <c r="R160" s="24"/>
-      <c r="S160" s="24"/>
-      <c r="T160" s="24"/>
-      <c r="U160" s="24"/>
-      <c r="V160" s="24"/>
-      <c r="W160" s="24"/>
-      <c r="X160" s="24"/>
-      <c r="Y160" s="24"/>
-      <c r="Z160" s="24"/>
-      <c r="AA160" s="24"/>
-      <c r="AB160" s="24"/>
-      <c r="AC160" s="24"/>
-      <c r="AD160" s="24"/>
-      <c r="AF160" s="24"/>
-      <c r="AG160" s="24"/>
-      <c r="AH160" s="24"/>
-      <c r="AI160" s="24"/>
-      <c r="AJ160" s="24"/>
-      <c r="AK160" s="24"/>
-      <c r="AL160" s="24"/>
-      <c r="AM160" s="24"/>
-      <c r="AN160" s="24"/>
-      <c r="AO160" s="24"/>
-      <c r="AP160" s="24"/>
-      <c r="AQ160" s="24"/>
-      <c r="AR160" s="24"/>
-      <c r="AS160" s="24"/>
-      <c r="AT160" s="24"/>
-      <c r="AU160" s="24"/>
-      <c r="AV160" s="19"/>
+      <c r="B160" s="59"/>
+      <c r="C160" s="9"/>
       <c r="AW160" s="20"/>
-    </row>
-    <row r="161" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AKO160" s="0"/>
+      <c r="AKP160" s="0"/>
+      <c r="AKQ160" s="0"/>
+      <c r="AKR160" s="0"/>
+      <c r="AKS160" s="0"/>
+      <c r="AKT160" s="0"/>
+      <c r="AKU160" s="0"/>
+      <c r="AKV160" s="0"/>
+      <c r="AKW160" s="0"/>
+      <c r="AKX160" s="0"/>
+      <c r="AKY160" s="0"/>
+      <c r="AKZ160" s="0"/>
+      <c r="ALA160" s="0"/>
+      <c r="ALB160" s="0"/>
+      <c r="ALC160" s="0"/>
+      <c r="ALD160" s="0"/>
+      <c r="ALE160" s="0"/>
+      <c r="ALF160" s="0"/>
+      <c r="ALG160" s="0"/>
+      <c r="ALH160" s="0"/>
+      <c r="ALI160" s="0"/>
+      <c r="ALJ160" s="0"/>
+      <c r="ALK160" s="0"/>
+      <c r="ALL160" s="0"/>
+      <c r="ALM160" s="0"/>
+      <c r="ALN160" s="0"/>
+      <c r="ALO160" s="0"/>
+      <c r="ALP160" s="0"/>
+      <c r="ALQ160" s="0"/>
+      <c r="ALR160" s="0"/>
+      <c r="ALS160" s="0"/>
+      <c r="ALT160" s="0"/>
+      <c r="ALU160" s="0"/>
+      <c r="ALV160" s="0"/>
+      <c r="ALW160" s="0"/>
+      <c r="ALX160" s="0"/>
+      <c r="ALY160" s="0"/>
+      <c r="ALZ160" s="0"/>
+      <c r="AMA160" s="0"/>
+      <c r="AMB160" s="0"/>
+      <c r="AMC160" s="0"/>
+      <c r="AMD160" s="0"/>
+      <c r="AME160" s="0"/>
+      <c r="AMF160" s="0"/>
+      <c r="AMG160" s="0"/>
+      <c r="AMH160" s="0"/>
+      <c r="AMI160" s="0"/>
+      <c r="AMJ160" s="0"/>
+    </row>
+    <row r="161" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="17"/>
-      <c r="D161" s="19"/>
-      <c r="E161" s="199"/>
-      <c r="F161" s="200"/>
-      <c r="G161" s="200"/>
-      <c r="H161" s="200"/>
-      <c r="I161" s="200"/>
-      <c r="J161" s="200"/>
-      <c r="K161" s="200"/>
-      <c r="L161" s="200"/>
-      <c r="M161" s="200"/>
-      <c r="N161" s="200"/>
-      <c r="O161" s="200"/>
-      <c r="P161" s="200"/>
-      <c r="Q161" s="200"/>
-      <c r="R161" s="200"/>
-      <c r="S161" s="200"/>
-      <c r="T161" s="200"/>
-      <c r="U161" s="200"/>
-      <c r="V161" s="200"/>
-      <c r="W161" s="200"/>
-      <c r="X161" s="200"/>
-      <c r="Y161" s="200"/>
-      <c r="Z161" s="200"/>
-      <c r="AA161" s="200"/>
-      <c r="AB161" s="200"/>
-      <c r="AC161" s="200"/>
-      <c r="AD161" s="200"/>
-      <c r="AE161" s="200"/>
-      <c r="AF161" s="200"/>
-      <c r="AG161" s="200"/>
-      <c r="AH161" s="200"/>
-      <c r="AI161" s="200"/>
-      <c r="AJ161" s="200"/>
-      <c r="AK161" s="200"/>
-      <c r="AL161" s="200"/>
-      <c r="AM161" s="200"/>
-      <c r="AN161" s="200"/>
-      <c r="AO161" s="200"/>
-      <c r="AP161" s="200"/>
-      <c r="AQ161" s="200"/>
-      <c r="AR161" s="200"/>
-      <c r="AS161" s="200"/>
-      <c r="AT161" s="200"/>
-      <c r="AU161" s="200"/>
-      <c r="AV161" s="19"/>
+      <c r="B161" s="59"/>
+      <c r="C161" s="9"/>
       <c r="AW161" s="20"/>
-    </row>
-    <row r="162" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AKO161" s="0"/>
+      <c r="AKP161" s="0"/>
+      <c r="AKQ161" s="0"/>
+      <c r="AKR161" s="0"/>
+      <c r="AKS161" s="0"/>
+      <c r="AKT161" s="0"/>
+      <c r="AKU161" s="0"/>
+      <c r="AKV161" s="0"/>
+      <c r="AKW161" s="0"/>
+      <c r="AKX161" s="0"/>
+      <c r="AKY161" s="0"/>
+      <c r="AKZ161" s="0"/>
+      <c r="ALA161" s="0"/>
+      <c r="ALB161" s="0"/>
+      <c r="ALC161" s="0"/>
+      <c r="ALD161" s="0"/>
+      <c r="ALE161" s="0"/>
+      <c r="ALF161" s="0"/>
+      <c r="ALG161" s="0"/>
+      <c r="ALH161" s="0"/>
+      <c r="ALI161" s="0"/>
+      <c r="ALJ161" s="0"/>
+      <c r="ALK161" s="0"/>
+      <c r="ALL161" s="0"/>
+      <c r="ALM161" s="0"/>
+      <c r="ALN161" s="0"/>
+      <c r="ALO161" s="0"/>
+      <c r="ALP161" s="0"/>
+      <c r="ALQ161" s="0"/>
+      <c r="ALR161" s="0"/>
+      <c r="ALS161" s="0"/>
+      <c r="ALT161" s="0"/>
+      <c r="ALU161" s="0"/>
+      <c r="ALV161" s="0"/>
+      <c r="ALW161" s="0"/>
+      <c r="ALX161" s="0"/>
+      <c r="ALY161" s="0"/>
+      <c r="ALZ161" s="0"/>
+      <c r="AMA161" s="0"/>
+      <c r="AMB161" s="0"/>
+      <c r="AMC161" s="0"/>
+      <c r="AMD161" s="0"/>
+      <c r="AME161" s="0"/>
+      <c r="AMF161" s="0"/>
+      <c r="AMG161" s="0"/>
+      <c r="AMH161" s="0"/>
+      <c r="AMI161" s="0"/>
+      <c r="AMJ161" s="0"/>
+    </row>
+    <row r="162" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="17"/>
-      <c r="D162" s="19"/>
-      <c r="E162" s="201" t="s">
-        <v>99</v>
-      </c>
-      <c r="F162" s="201"/>
-      <c r="G162" s="201"/>
-      <c r="H162" s="201"/>
-      <c r="I162" s="201"/>
-      <c r="J162" s="201"/>
-      <c r="K162" s="201"/>
-      <c r="L162" s="202" t="s">
-        <v>100</v>
-      </c>
-      <c r="M162" s="202"/>
-      <c r="N162" s="202"/>
-      <c r="O162" s="202"/>
-      <c r="P162" s="202"/>
-      <c r="Q162" s="202"/>
-      <c r="R162" s="202"/>
-      <c r="S162" s="202"/>
-      <c r="T162" s="202"/>
-      <c r="U162" s="202"/>
-      <c r="V162" s="202"/>
-      <c r="W162" s="202"/>
-      <c r="X162" s="202"/>
-      <c r="Y162" s="202"/>
-      <c r="Z162" s="202"/>
-      <c r="AA162" s="202"/>
-      <c r="AB162" s="202"/>
-      <c r="AC162" s="202"/>
-      <c r="AD162" s="202"/>
-      <c r="AE162" s="202"/>
-      <c r="AF162" s="202"/>
-      <c r="AG162" s="202"/>
-      <c r="AH162" s="202"/>
-      <c r="AI162" s="202"/>
-      <c r="AJ162" s="202"/>
-      <c r="AK162" s="202"/>
-      <c r="AL162" s="202"/>
-      <c r="AM162" s="202"/>
-      <c r="AN162" s="202"/>
-      <c r="AO162" s="202"/>
-      <c r="AP162" s="202"/>
-      <c r="AQ162" s="202"/>
-      <c r="AR162" s="202"/>
-      <c r="AS162" s="202"/>
-      <c r="AT162" s="202"/>
-      <c r="AU162" s="202"/>
-      <c r="AV162" s="19"/>
+      <c r="B162" s="59"/>
+      <c r="C162" s="9"/>
       <c r="AW162" s="20"/>
-    </row>
-    <row r="163" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AKO162" s="0"/>
+      <c r="AKP162" s="0"/>
+      <c r="AKQ162" s="0"/>
+      <c r="AKR162" s="0"/>
+      <c r="AKS162" s="0"/>
+      <c r="AKT162" s="0"/>
+      <c r="AKU162" s="0"/>
+      <c r="AKV162" s="0"/>
+      <c r="AKW162" s="0"/>
+      <c r="AKX162" s="0"/>
+      <c r="AKY162" s="0"/>
+      <c r="AKZ162" s="0"/>
+      <c r="ALA162" s="0"/>
+      <c r="ALB162" s="0"/>
+      <c r="ALC162" s="0"/>
+      <c r="ALD162" s="0"/>
+      <c r="ALE162" s="0"/>
+      <c r="ALF162" s="0"/>
+      <c r="ALG162" s="0"/>
+      <c r="ALH162" s="0"/>
+      <c r="ALI162" s="0"/>
+      <c r="ALJ162" s="0"/>
+      <c r="ALK162" s="0"/>
+      <c r="ALL162" s="0"/>
+      <c r="ALM162" s="0"/>
+      <c r="ALN162" s="0"/>
+      <c r="ALO162" s="0"/>
+      <c r="ALP162" s="0"/>
+      <c r="ALQ162" s="0"/>
+      <c r="ALR162" s="0"/>
+      <c r="ALS162" s="0"/>
+      <c r="ALT162" s="0"/>
+      <c r="ALU162" s="0"/>
+      <c r="ALV162" s="0"/>
+      <c r="ALW162" s="0"/>
+      <c r="ALX162" s="0"/>
+      <c r="ALY162" s="0"/>
+      <c r="ALZ162" s="0"/>
+      <c r="AMA162" s="0"/>
+      <c r="AMB162" s="0"/>
+      <c r="AMC162" s="0"/>
+      <c r="AMD162" s="0"/>
+      <c r="AME162" s="0"/>
+      <c r="AMF162" s="0"/>
+      <c r="AMG162" s="0"/>
+      <c r="AMH162" s="0"/>
+      <c r="AMI162" s="0"/>
+      <c r="AMJ162" s="0"/>
+    </row>
+    <row r="163" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="17"/>
-      <c r="D163" s="19"/>
-      <c r="E163" s="201"/>
-      <c r="F163" s="201"/>
-      <c r="G163" s="201"/>
-      <c r="H163" s="201"/>
-      <c r="I163" s="201"/>
-      <c r="J163" s="201"/>
-      <c r="K163" s="201"/>
-      <c r="L163" s="203"/>
-      <c r="M163" s="171"/>
-      <c r="N163" s="171" t="s">
-        <v>101</v>
-      </c>
-      <c r="O163" s="171"/>
-      <c r="P163" s="171"/>
-      <c r="Q163" s="174"/>
-      <c r="R163" s="174"/>
-      <c r="S163" s="174"/>
-      <c r="T163" s="174"/>
-      <c r="U163" s="174"/>
-      <c r="V163" s="174"/>
-      <c r="W163" s="174"/>
-      <c r="X163" s="174"/>
-      <c r="Y163" s="204" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z163" s="174" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA163" s="174"/>
-      <c r="AB163" s="174"/>
-      <c r="AC163" s="174"/>
-      <c r="AD163" s="174"/>
-      <c r="AE163" s="174"/>
-      <c r="AF163" s="174"/>
-      <c r="AG163" s="174"/>
-      <c r="AH163" s="174"/>
-      <c r="AI163" s="174"/>
-      <c r="AJ163" s="174"/>
-      <c r="AK163" s="174"/>
-      <c r="AL163" s="174"/>
-      <c r="AM163" s="174"/>
-      <c r="AN163" s="174"/>
-      <c r="AO163" s="174"/>
-      <c r="AP163" s="174"/>
-      <c r="AQ163" s="174"/>
-      <c r="AR163" s="174"/>
-      <c r="AS163" s="174"/>
-      <c r="AT163" s="174"/>
-      <c r="AU163" s="175"/>
-      <c r="AV163" s="19"/>
+      <c r="B163" s="59"/>
+      <c r="C163" s="9"/>
       <c r="AW163" s="20"/>
-    </row>
-    <row r="164" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AKO163" s="0"/>
+      <c r="AKP163" s="0"/>
+      <c r="AKQ163" s="0"/>
+      <c r="AKR163" s="0"/>
+      <c r="AKS163" s="0"/>
+      <c r="AKT163" s="0"/>
+      <c r="AKU163" s="0"/>
+      <c r="AKV163" s="0"/>
+      <c r="AKW163" s="0"/>
+      <c r="AKX163" s="0"/>
+      <c r="AKY163" s="0"/>
+      <c r="AKZ163" s="0"/>
+      <c r="ALA163" s="0"/>
+      <c r="ALB163" s="0"/>
+      <c r="ALC163" s="0"/>
+      <c r="ALD163" s="0"/>
+      <c r="ALE163" s="0"/>
+      <c r="ALF163" s="0"/>
+      <c r="ALG163" s="0"/>
+      <c r="ALH163" s="0"/>
+      <c r="ALI163" s="0"/>
+      <c r="ALJ163" s="0"/>
+      <c r="ALK163" s="0"/>
+      <c r="ALL163" s="0"/>
+      <c r="ALM163" s="0"/>
+      <c r="ALN163" s="0"/>
+      <c r="ALO163" s="0"/>
+      <c r="ALP163" s="0"/>
+      <c r="ALQ163" s="0"/>
+      <c r="ALR163" s="0"/>
+      <c r="ALS163" s="0"/>
+      <c r="ALT163" s="0"/>
+      <c r="ALU163" s="0"/>
+      <c r="ALV163" s="0"/>
+      <c r="ALW163" s="0"/>
+      <c r="ALX163" s="0"/>
+      <c r="ALY163" s="0"/>
+      <c r="ALZ163" s="0"/>
+      <c r="AMA163" s="0"/>
+      <c r="AMB163" s="0"/>
+      <c r="AMC163" s="0"/>
+      <c r="AMD163" s="0"/>
+      <c r="AME163" s="0"/>
+      <c r="AMF163" s="0"/>
+      <c r="AMG163" s="0"/>
+      <c r="AMH163" s="0"/>
+      <c r="AMI163" s="0"/>
+      <c r="AMJ163" s="0"/>
+    </row>
+    <row r="164" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="17"/>
-      <c r="D164" s="19"/>
-      <c r="E164" s="201"/>
-      <c r="F164" s="201"/>
-      <c r="G164" s="201"/>
-      <c r="H164" s="201"/>
-      <c r="I164" s="201"/>
-      <c r="J164" s="201"/>
-      <c r="K164" s="201"/>
-      <c r="L164" s="205"/>
-      <c r="M164" s="192"/>
-      <c r="N164" s="192" t="s">
-        <v>104</v>
-      </c>
-      <c r="O164" s="192"/>
-      <c r="P164" s="192"/>
-      <c r="Q164" s="206"/>
-      <c r="R164" s="206"/>
-      <c r="S164" s="206"/>
-      <c r="T164" s="206"/>
-      <c r="U164" s="206"/>
-      <c r="V164" s="206"/>
-      <c r="W164" s="206"/>
-      <c r="X164" s="206"/>
-      <c r="Y164" s="207" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z164" s="206" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA164" s="206"/>
-      <c r="AB164" s="206"/>
-      <c r="AC164" s="206"/>
-      <c r="AD164" s="206"/>
-      <c r="AE164" s="206"/>
-      <c r="AF164" s="206"/>
-      <c r="AG164" s="206"/>
-      <c r="AH164" s="206"/>
-      <c r="AI164" s="206"/>
-      <c r="AJ164" s="206"/>
-      <c r="AK164" s="206"/>
-      <c r="AL164" s="206"/>
-      <c r="AM164" s="206"/>
-      <c r="AN164" s="206"/>
-      <c r="AO164" s="206"/>
-      <c r="AP164" s="206"/>
-      <c r="AQ164" s="206"/>
-      <c r="AR164" s="206"/>
-      <c r="AS164" s="206"/>
-      <c r="AT164" s="206"/>
-      <c r="AU164" s="208"/>
-      <c r="AV164" s="19"/>
+      <c r="B164" s="59"/>
+      <c r="C164" s="9"/>
       <c r="AW164" s="20"/>
-    </row>
-    <row r="165" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AKO164" s="0"/>
+      <c r="AKP164" s="0"/>
+      <c r="AKQ164" s="0"/>
+      <c r="AKR164" s="0"/>
+      <c r="AKS164" s="0"/>
+      <c r="AKT164" s="0"/>
+      <c r="AKU164" s="0"/>
+      <c r="AKV164" s="0"/>
+      <c r="AKW164" s="0"/>
+      <c r="AKX164" s="0"/>
+      <c r="AKY164" s="0"/>
+      <c r="AKZ164" s="0"/>
+      <c r="ALA164" s="0"/>
+      <c r="ALB164" s="0"/>
+      <c r="ALC164" s="0"/>
+      <c r="ALD164" s="0"/>
+      <c r="ALE164" s="0"/>
+      <c r="ALF164" s="0"/>
+      <c r="ALG164" s="0"/>
+      <c r="ALH164" s="0"/>
+      <c r="ALI164" s="0"/>
+      <c r="ALJ164" s="0"/>
+      <c r="ALK164" s="0"/>
+      <c r="ALL164" s="0"/>
+      <c r="ALM164" s="0"/>
+      <c r="ALN164" s="0"/>
+      <c r="ALO164" s="0"/>
+      <c r="ALP164" s="0"/>
+      <c r="ALQ164" s="0"/>
+      <c r="ALR164" s="0"/>
+      <c r="ALS164" s="0"/>
+      <c r="ALT164" s="0"/>
+      <c r="ALU164" s="0"/>
+      <c r="ALV164" s="0"/>
+      <c r="ALW164" s="0"/>
+      <c r="ALX164" s="0"/>
+      <c r="ALY164" s="0"/>
+      <c r="ALZ164" s="0"/>
+      <c r="AMA164" s="0"/>
+      <c r="AMB164" s="0"/>
+      <c r="AMC164" s="0"/>
+      <c r="AMD164" s="0"/>
+      <c r="AME164" s="0"/>
+      <c r="AMF164" s="0"/>
+      <c r="AMG164" s="0"/>
+      <c r="AMH164" s="0"/>
+      <c r="AMI164" s="0"/>
+      <c r="AMJ164" s="0"/>
+    </row>
+    <row r="165" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="17"/>
-      <c r="D165" s="19"/>
-      <c r="E165" s="201"/>
-      <c r="F165" s="201"/>
-      <c r="G165" s="201"/>
-      <c r="H165" s="201"/>
-      <c r="I165" s="201"/>
-      <c r="J165" s="201"/>
-      <c r="K165" s="201"/>
-      <c r="L165" s="205"/>
-      <c r="M165" s="192"/>
-      <c r="N165" s="192" t="s">
-        <v>105</v>
-      </c>
-      <c r="O165" s="192"/>
-      <c r="P165" s="192"/>
-      <c r="Q165" s="206"/>
-      <c r="R165" s="206"/>
-      <c r="S165" s="206"/>
-      <c r="T165" s="206"/>
-      <c r="U165" s="206"/>
-      <c r="V165" s="206"/>
-      <c r="W165" s="206"/>
-      <c r="X165" s="206"/>
-      <c r="Y165" s="207" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z165" s="206" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA165" s="206"/>
-      <c r="AB165" s="206"/>
-      <c r="AC165" s="206"/>
-      <c r="AD165" s="206"/>
-      <c r="AE165" s="206"/>
-      <c r="AF165" s="206"/>
-      <c r="AG165" s="206"/>
-      <c r="AH165" s="206"/>
-      <c r="AI165" s="206"/>
-      <c r="AJ165" s="206"/>
-      <c r="AK165" s="206"/>
-      <c r="AL165" s="206"/>
-      <c r="AM165" s="206"/>
-      <c r="AN165" s="206"/>
-      <c r="AO165" s="206"/>
-      <c r="AP165" s="206"/>
-      <c r="AQ165" s="206"/>
-      <c r="AR165" s="206"/>
-      <c r="AS165" s="206"/>
-      <c r="AT165" s="206"/>
-      <c r="AU165" s="208"/>
-      <c r="AV165" s="19"/>
+      <c r="B165" s="59"/>
+      <c r="C165" s="9"/>
       <c r="AW165" s="20"/>
-    </row>
-    <row r="166" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AKO165" s="0"/>
+      <c r="AKP165" s="0"/>
+      <c r="AKQ165" s="0"/>
+      <c r="AKR165" s="0"/>
+      <c r="AKS165" s="0"/>
+      <c r="AKT165" s="0"/>
+      <c r="AKU165" s="0"/>
+      <c r="AKV165" s="0"/>
+      <c r="AKW165" s="0"/>
+      <c r="AKX165" s="0"/>
+      <c r="AKY165" s="0"/>
+      <c r="AKZ165" s="0"/>
+      <c r="ALA165" s="0"/>
+      <c r="ALB165" s="0"/>
+      <c r="ALC165" s="0"/>
+      <c r="ALD165" s="0"/>
+      <c r="ALE165" s="0"/>
+      <c r="ALF165" s="0"/>
+      <c r="ALG165" s="0"/>
+      <c r="ALH165" s="0"/>
+      <c r="ALI165" s="0"/>
+      <c r="ALJ165" s="0"/>
+      <c r="ALK165" s="0"/>
+      <c r="ALL165" s="0"/>
+      <c r="ALM165" s="0"/>
+      <c r="ALN165" s="0"/>
+      <c r="ALO165" s="0"/>
+      <c r="ALP165" s="0"/>
+      <c r="ALQ165" s="0"/>
+      <c r="ALR165" s="0"/>
+      <c r="ALS165" s="0"/>
+      <c r="ALT165" s="0"/>
+      <c r="ALU165" s="0"/>
+      <c r="ALV165" s="0"/>
+      <c r="ALW165" s="0"/>
+      <c r="ALX165" s="0"/>
+      <c r="ALY165" s="0"/>
+      <c r="ALZ165" s="0"/>
+      <c r="AMA165" s="0"/>
+      <c r="AMB165" s="0"/>
+      <c r="AMC165" s="0"/>
+      <c r="AMD165" s="0"/>
+      <c r="AME165" s="0"/>
+      <c r="AMF165" s="0"/>
+      <c r="AMG165" s="0"/>
+      <c r="AMH165" s="0"/>
+      <c r="AMI165" s="0"/>
+      <c r="AMJ165" s="0"/>
+    </row>
+    <row r="166" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="17"/>
-      <c r="D166" s="164"/>
-      <c r="E166" s="199"/>
-      <c r="F166" s="19"/>
-      <c r="G166" s="19"/>
-      <c r="H166" s="19"/>
-      <c r="I166" s="19"/>
-      <c r="J166" s="19"/>
-      <c r="K166" s="19"/>
-      <c r="L166" s="19"/>
-      <c r="M166" s="19"/>
-      <c r="N166" s="19"/>
-      <c r="O166" s="19"/>
-      <c r="P166" s="19"/>
-      <c r="Q166" s="19"/>
-      <c r="R166" s="19"/>
-      <c r="S166" s="19"/>
-      <c r="T166" s="19"/>
-      <c r="U166" s="19"/>
-      <c r="V166" s="19"/>
-      <c r="W166" s="19"/>
-      <c r="X166" s="19"/>
-      <c r="Y166" s="19"/>
-      <c r="Z166" s="24"/>
-      <c r="AA166" s="24"/>
-      <c r="AB166" s="24"/>
-      <c r="AC166" s="24"/>
-      <c r="AD166" s="24"/>
-      <c r="AF166" s="24"/>
-      <c r="AG166" s="24"/>
-      <c r="AH166" s="24"/>
-      <c r="AI166" s="24"/>
-      <c r="AJ166" s="24"/>
-      <c r="AK166" s="24"/>
-      <c r="AL166" s="24"/>
-      <c r="AM166" s="24"/>
-      <c r="AN166" s="24"/>
-      <c r="AO166" s="24"/>
-      <c r="AP166" s="24"/>
-      <c r="AQ166" s="24"/>
-      <c r="AR166" s="24"/>
-      <c r="AS166" s="24"/>
-      <c r="AT166" s="24"/>
-      <c r="AU166" s="24"/>
-      <c r="AV166" s="19"/>
+      <c r="B166" s="59"/>
+      <c r="C166" s="9"/>
       <c r="AW166" s="20"/>
-    </row>
-    <row r="167" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AKO166" s="0"/>
+      <c r="AKP166" s="0"/>
+      <c r="AKQ166" s="0"/>
+      <c r="AKR166" s="0"/>
+      <c r="AKS166" s="0"/>
+      <c r="AKT166" s="0"/>
+      <c r="AKU166" s="0"/>
+      <c r="AKV166" s="0"/>
+      <c r="AKW166" s="0"/>
+      <c r="AKX166" s="0"/>
+      <c r="AKY166" s="0"/>
+      <c r="AKZ166" s="0"/>
+      <c r="ALA166" s="0"/>
+      <c r="ALB166" s="0"/>
+      <c r="ALC166" s="0"/>
+      <c r="ALD166" s="0"/>
+      <c r="ALE166" s="0"/>
+      <c r="ALF166" s="0"/>
+      <c r="ALG166" s="0"/>
+      <c r="ALH166" s="0"/>
+      <c r="ALI166" s="0"/>
+      <c r="ALJ166" s="0"/>
+      <c r="ALK166" s="0"/>
+      <c r="ALL166" s="0"/>
+      <c r="ALM166" s="0"/>
+      <c r="ALN166" s="0"/>
+      <c r="ALO166" s="0"/>
+      <c r="ALP166" s="0"/>
+      <c r="ALQ166" s="0"/>
+      <c r="ALR166" s="0"/>
+      <c r="ALS166" s="0"/>
+      <c r="ALT166" s="0"/>
+      <c r="ALU166" s="0"/>
+      <c r="ALV166" s="0"/>
+      <c r="ALW166" s="0"/>
+      <c r="ALX166" s="0"/>
+      <c r="ALY166" s="0"/>
+      <c r="ALZ166" s="0"/>
+      <c r="AMA166" s="0"/>
+      <c r="AMB166" s="0"/>
+      <c r="AMC166" s="0"/>
+      <c r="AMD166" s="0"/>
+      <c r="AME166" s="0"/>
+      <c r="AMF166" s="0"/>
+      <c r="AMG166" s="0"/>
+      <c r="AMH166" s="0"/>
+      <c r="AMI166" s="0"/>
+      <c r="AMJ166" s="0"/>
+    </row>
+    <row r="167" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="17"/>
-      <c r="D167" s="164"/>
-      <c r="E167" s="198"/>
-      <c r="F167" s="24"/>
-      <c r="G167" s="24"/>
-      <c r="H167" s="24"/>
-      <c r="I167" s="24"/>
-      <c r="J167" s="24"/>
-      <c r="K167" s="24"/>
-      <c r="L167" s="24"/>
-      <c r="M167" s="24"/>
-      <c r="N167" s="24"/>
-      <c r="O167" s="24"/>
-      <c r="P167" s="24"/>
-      <c r="Q167" s="24"/>
-      <c r="R167" s="24"/>
-      <c r="S167" s="24"/>
-      <c r="T167" s="24"/>
-      <c r="U167" s="24"/>
-      <c r="V167" s="24"/>
-      <c r="W167" s="24"/>
-      <c r="X167" s="24"/>
-      <c r="Y167" s="24"/>
-      <c r="Z167" s="24"/>
-      <c r="AA167" s="24"/>
-      <c r="AB167" s="24"/>
-      <c r="AC167" s="24"/>
-      <c r="AD167" s="24"/>
-      <c r="AF167" s="24"/>
-      <c r="AG167" s="24"/>
-      <c r="AH167" s="24"/>
-      <c r="AI167" s="24"/>
-      <c r="AJ167" s="24"/>
-      <c r="AK167" s="24"/>
-      <c r="AL167" s="24"/>
-      <c r="AM167" s="24"/>
-      <c r="AN167" s="24"/>
-      <c r="AO167" s="24"/>
-      <c r="AP167" s="24"/>
-      <c r="AQ167" s="24"/>
-      <c r="AR167" s="24"/>
-      <c r="AS167" s="24"/>
-      <c r="AT167" s="24"/>
-      <c r="AU167" s="24"/>
-      <c r="AV167" s="19"/>
+      <c r="B167" s="59"/>
+      <c r="C167" s="9"/>
       <c r="AW167" s="20"/>
-    </row>
-    <row r="168" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AKO167" s="0"/>
+      <c r="AKP167" s="0"/>
+      <c r="AKQ167" s="0"/>
+      <c r="AKR167" s="0"/>
+      <c r="AKS167" s="0"/>
+      <c r="AKT167" s="0"/>
+      <c r="AKU167" s="0"/>
+      <c r="AKV167" s="0"/>
+      <c r="AKW167" s="0"/>
+      <c r="AKX167" s="0"/>
+      <c r="AKY167" s="0"/>
+      <c r="AKZ167" s="0"/>
+      <c r="ALA167" s="0"/>
+      <c r="ALB167" s="0"/>
+      <c r="ALC167" s="0"/>
+      <c r="ALD167" s="0"/>
+      <c r="ALE167" s="0"/>
+      <c r="ALF167" s="0"/>
+      <c r="ALG167" s="0"/>
+      <c r="ALH167" s="0"/>
+      <c r="ALI167" s="0"/>
+      <c r="ALJ167" s="0"/>
+      <c r="ALK167" s="0"/>
+      <c r="ALL167" s="0"/>
+      <c r="ALM167" s="0"/>
+      <c r="ALN167" s="0"/>
+      <c r="ALO167" s="0"/>
+      <c r="ALP167" s="0"/>
+      <c r="ALQ167" s="0"/>
+      <c r="ALR167" s="0"/>
+      <c r="ALS167" s="0"/>
+      <c r="ALT167" s="0"/>
+      <c r="ALU167" s="0"/>
+      <c r="ALV167" s="0"/>
+      <c r="ALW167" s="0"/>
+      <c r="ALX167" s="0"/>
+      <c r="ALY167" s="0"/>
+      <c r="ALZ167" s="0"/>
+      <c r="AMA167" s="0"/>
+      <c r="AMB167" s="0"/>
+      <c r="AMC167" s="0"/>
+      <c r="AMD167" s="0"/>
+      <c r="AME167" s="0"/>
+      <c r="AMF167" s="0"/>
+      <c r="AMG167" s="0"/>
+      <c r="AMH167" s="0"/>
+      <c r="AMI167" s="0"/>
+      <c r="AMJ167" s="0"/>
+    </row>
+    <row r="168" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="17"/>
-      <c r="D168" s="164"/>
-      <c r="E168" s="164"/>
-      <c r="F168" s="24"/>
-      <c r="G168" s="24"/>
-      <c r="H168" s="24"/>
-      <c r="I168" s="24"/>
-      <c r="J168" s="24"/>
-      <c r="K168" s="24"/>
-      <c r="L168" s="24"/>
-      <c r="M168" s="24"/>
-      <c r="N168" s="24"/>
-      <c r="O168" s="24"/>
-      <c r="P168" s="24"/>
-      <c r="Q168" s="24"/>
-      <c r="R168" s="24"/>
-      <c r="S168" s="24"/>
-      <c r="T168" s="24"/>
-      <c r="U168" s="24"/>
-      <c r="V168" s="24"/>
-      <c r="W168" s="24"/>
-      <c r="X168" s="24"/>
-      <c r="Y168" s="24"/>
-      <c r="Z168" s="24"/>
-      <c r="AA168" s="24"/>
-      <c r="AB168" s="24"/>
-      <c r="AC168" s="24"/>
-      <c r="AD168" s="24"/>
-      <c r="AF168" s="24"/>
-      <c r="AG168" s="24"/>
-      <c r="AH168" s="24"/>
-      <c r="AI168" s="24"/>
-      <c r="AJ168" s="24"/>
-      <c r="AK168" s="24"/>
-      <c r="AL168" s="24"/>
-      <c r="AM168" s="24"/>
-      <c r="AN168" s="24"/>
-      <c r="AO168" s="24"/>
-      <c r="AP168" s="24"/>
-      <c r="AQ168" s="24"/>
-      <c r="AR168" s="24"/>
-      <c r="AS168" s="24"/>
-      <c r="AT168" s="24"/>
-      <c r="AU168" s="24"/>
-      <c r="AV168" s="19"/>
+      <c r="B168" s="59"/>
+      <c r="C168" s="9"/>
       <c r="AW168" s="20"/>
-    </row>
-    <row r="169" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AKO168" s="0"/>
+      <c r="AKP168" s="0"/>
+      <c r="AKQ168" s="0"/>
+      <c r="AKR168" s="0"/>
+      <c r="AKS168" s="0"/>
+      <c r="AKT168" s="0"/>
+      <c r="AKU168" s="0"/>
+      <c r="AKV168" s="0"/>
+      <c r="AKW168" s="0"/>
+      <c r="AKX168" s="0"/>
+      <c r="AKY168" s="0"/>
+      <c r="AKZ168" s="0"/>
+      <c r="ALA168" s="0"/>
+      <c r="ALB168" s="0"/>
+      <c r="ALC168" s="0"/>
+      <c r="ALD168" s="0"/>
+      <c r="ALE168" s="0"/>
+      <c r="ALF168" s="0"/>
+      <c r="ALG168" s="0"/>
+      <c r="ALH168" s="0"/>
+      <c r="ALI168" s="0"/>
+      <c r="ALJ168" s="0"/>
+      <c r="ALK168" s="0"/>
+      <c r="ALL168" s="0"/>
+      <c r="ALM168" s="0"/>
+      <c r="ALN168" s="0"/>
+      <c r="ALO168" s="0"/>
+      <c r="ALP168" s="0"/>
+      <c r="ALQ168" s="0"/>
+      <c r="ALR168" s="0"/>
+      <c r="ALS168" s="0"/>
+      <c r="ALT168" s="0"/>
+      <c r="ALU168" s="0"/>
+      <c r="ALV168" s="0"/>
+      <c r="ALW168" s="0"/>
+      <c r="ALX168" s="0"/>
+      <c r="ALY168" s="0"/>
+      <c r="ALZ168" s="0"/>
+      <c r="AMA168" s="0"/>
+      <c r="AMB168" s="0"/>
+      <c r="AMC168" s="0"/>
+      <c r="AMD168" s="0"/>
+      <c r="AME168" s="0"/>
+      <c r="AMF168" s="0"/>
+      <c r="AMG168" s="0"/>
+      <c r="AMH168" s="0"/>
+      <c r="AMI168" s="0"/>
+      <c r="AMJ168" s="0"/>
+    </row>
+    <row r="169" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="17"/>
-      <c r="D169" s="164"/>
-      <c r="E169" s="198"/>
-      <c r="F169" s="24"/>
-      <c r="G169" s="24"/>
-      <c r="H169" s="24"/>
-      <c r="I169" s="24"/>
-      <c r="J169" s="24"/>
-      <c r="K169" s="24"/>
-      <c r="L169" s="24"/>
-      <c r="M169" s="24"/>
-      <c r="N169" s="24"/>
-      <c r="O169" s="24"/>
-      <c r="P169" s="24"/>
-      <c r="Q169" s="24"/>
-      <c r="R169" s="24"/>
-      <c r="S169" s="24"/>
-      <c r="T169" s="24"/>
-      <c r="U169" s="24"/>
-      <c r="V169" s="24"/>
-      <c r="W169" s="24"/>
-      <c r="X169" s="24"/>
-      <c r="Y169" s="24"/>
-      <c r="Z169" s="24"/>
-      <c r="AA169" s="24"/>
-      <c r="AB169" s="24"/>
-      <c r="AC169" s="24"/>
-      <c r="AD169" s="24"/>
-      <c r="AF169" s="24"/>
-      <c r="AG169" s="24"/>
-      <c r="AH169" s="24"/>
-      <c r="AI169" s="24"/>
-      <c r="AJ169" s="24"/>
-      <c r="AK169" s="24"/>
-      <c r="AL169" s="24"/>
-      <c r="AM169" s="24"/>
-      <c r="AN169" s="24"/>
-      <c r="AO169" s="24"/>
-      <c r="AP169" s="24"/>
-      <c r="AQ169" s="24"/>
-      <c r="AR169" s="24"/>
-      <c r="AS169" s="24"/>
-      <c r="AT169" s="24"/>
-      <c r="AU169" s="24"/>
-      <c r="AV169" s="19"/>
+      <c r="B169" s="59"/>
+      <c r="C169" s="9"/>
       <c r="AW169" s="20"/>
-    </row>
-    <row r="170" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AKO169" s="0"/>
+      <c r="AKP169" s="0"/>
+      <c r="AKQ169" s="0"/>
+      <c r="AKR169" s="0"/>
+      <c r="AKS169" s="0"/>
+      <c r="AKT169" s="0"/>
+      <c r="AKU169" s="0"/>
+      <c r="AKV169" s="0"/>
+      <c r="AKW169" s="0"/>
+      <c r="AKX169" s="0"/>
+      <c r="AKY169" s="0"/>
+      <c r="AKZ169" s="0"/>
+      <c r="ALA169" s="0"/>
+      <c r="ALB169" s="0"/>
+      <c r="ALC169" s="0"/>
+      <c r="ALD169" s="0"/>
+      <c r="ALE169" s="0"/>
+      <c r="ALF169" s="0"/>
+      <c r="ALG169" s="0"/>
+      <c r="ALH169" s="0"/>
+      <c r="ALI169" s="0"/>
+      <c r="ALJ169" s="0"/>
+      <c r="ALK169" s="0"/>
+      <c r="ALL169" s="0"/>
+      <c r="ALM169" s="0"/>
+      <c r="ALN169" s="0"/>
+      <c r="ALO169" s="0"/>
+      <c r="ALP169" s="0"/>
+      <c r="ALQ169" s="0"/>
+      <c r="ALR169" s="0"/>
+      <c r="ALS169" s="0"/>
+      <c r="ALT169" s="0"/>
+      <c r="ALU169" s="0"/>
+      <c r="ALV169" s="0"/>
+      <c r="ALW169" s="0"/>
+      <c r="ALX169" s="0"/>
+      <c r="ALY169" s="0"/>
+      <c r="ALZ169" s="0"/>
+      <c r="AMA169" s="0"/>
+      <c r="AMB169" s="0"/>
+      <c r="AMC169" s="0"/>
+      <c r="AMD169" s="0"/>
+      <c r="AME169" s="0"/>
+      <c r="AMF169" s="0"/>
+      <c r="AMG169" s="0"/>
+      <c r="AMH169" s="0"/>
+      <c r="AMI169" s="0"/>
+      <c r="AMJ169" s="0"/>
+    </row>
+    <row r="170" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="17"/>
-      <c r="D170" s="164"/>
-      <c r="E170" s="209" t="s">
-        <v>106</v>
-      </c>
-      <c r="F170" s="210"/>
-      <c r="G170" s="210"/>
-      <c r="H170" s="211"/>
-      <c r="I170" s="201" t="s">
-        <v>107</v>
-      </c>
-      <c r="J170" s="201"/>
-      <c r="K170" s="201"/>
-      <c r="L170" s="201"/>
-      <c r="M170" s="201"/>
-      <c r="N170" s="201"/>
-      <c r="O170" s="201"/>
-      <c r="P170" s="201"/>
-      <c r="Q170" s="201"/>
-      <c r="R170" s="201"/>
-      <c r="S170" s="201"/>
-      <c r="T170" s="201"/>
-      <c r="U170" s="201"/>
-      <c r="V170" s="201"/>
-      <c r="W170" s="201"/>
-      <c r="X170" s="201"/>
-      <c r="Y170" s="201"/>
-      <c r="Z170" s="201"/>
-      <c r="AA170" s="201"/>
-      <c r="AB170" s="201"/>
-      <c r="AC170" s="201"/>
-      <c r="AD170" s="201"/>
-      <c r="AE170" s="201"/>
-      <c r="AF170" s="201"/>
-      <c r="AG170" s="201"/>
-      <c r="AH170" s="201"/>
-      <c r="AI170" s="201"/>
-      <c r="AJ170" s="201" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK170" s="201"/>
-      <c r="AL170" s="201"/>
-      <c r="AM170" s="201"/>
-      <c r="AN170" s="201"/>
-      <c r="AO170" s="201"/>
-      <c r="AP170" s="201"/>
-      <c r="AQ170" s="201"/>
-      <c r="AR170" s="201"/>
-      <c r="AS170" s="201"/>
-      <c r="AT170" s="201"/>
-      <c r="AU170" s="24"/>
-      <c r="AV170" s="19"/>
+      <c r="B170" s="59"/>
+      <c r="C170" s="9"/>
       <c r="AW170" s="20"/>
-    </row>
-    <row r="171" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AKO170" s="0"/>
+      <c r="AKP170" s="0"/>
+      <c r="AKQ170" s="0"/>
+      <c r="AKR170" s="0"/>
+      <c r="AKS170" s="0"/>
+      <c r="AKT170" s="0"/>
+      <c r="AKU170" s="0"/>
+      <c r="AKV170" s="0"/>
+      <c r="AKW170" s="0"/>
+      <c r="AKX170" s="0"/>
+      <c r="AKY170" s="0"/>
+      <c r="AKZ170" s="0"/>
+      <c r="ALA170" s="0"/>
+      <c r="ALB170" s="0"/>
+      <c r="ALC170" s="0"/>
+      <c r="ALD170" s="0"/>
+      <c r="ALE170" s="0"/>
+      <c r="ALF170" s="0"/>
+      <c r="ALG170" s="0"/>
+      <c r="ALH170" s="0"/>
+      <c r="ALI170" s="0"/>
+      <c r="ALJ170" s="0"/>
+      <c r="ALK170" s="0"/>
+      <c r="ALL170" s="0"/>
+      <c r="ALM170" s="0"/>
+      <c r="ALN170" s="0"/>
+      <c r="ALO170" s="0"/>
+      <c r="ALP170" s="0"/>
+      <c r="ALQ170" s="0"/>
+      <c r="ALR170" s="0"/>
+      <c r="ALS170" s="0"/>
+      <c r="ALT170" s="0"/>
+      <c r="ALU170" s="0"/>
+      <c r="ALV170" s="0"/>
+      <c r="ALW170" s="0"/>
+      <c r="ALX170" s="0"/>
+      <c r="ALY170" s="0"/>
+      <c r="ALZ170" s="0"/>
+      <c r="AMA170" s="0"/>
+      <c r="AMB170" s="0"/>
+      <c r="AMC170" s="0"/>
+      <c r="AMD170" s="0"/>
+      <c r="AME170" s="0"/>
+      <c r="AMF170" s="0"/>
+      <c r="AMG170" s="0"/>
+      <c r="AMH170" s="0"/>
+      <c r="AMI170" s="0"/>
+      <c r="AMJ170" s="0"/>
+    </row>
+    <row r="171" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="17"/>
-      <c r="D171" s="164"/>
-      <c r="E171" s="212" t="s">
-        <v>108</v>
-      </c>
-      <c r="F171" s="212"/>
-      <c r="G171" s="212"/>
-      <c r="H171" s="212"/>
-      <c r="I171" s="213" t="s">
-        <v>109</v>
-      </c>
-      <c r="J171" s="214"/>
-      <c r="K171" s="214"/>
-      <c r="L171" s="214"/>
-      <c r="M171" s="214"/>
-      <c r="N171" s="214"/>
-      <c r="O171" s="214"/>
-      <c r="P171" s="214"/>
-      <c r="Q171" s="214"/>
-      <c r="R171" s="214"/>
-      <c r="S171" s="214"/>
-      <c r="T171" s="214"/>
-      <c r="U171" s="214"/>
-      <c r="V171" s="214"/>
-      <c r="W171" s="214"/>
-      <c r="X171" s="214"/>
-      <c r="Y171" s="214"/>
-      <c r="Z171" s="214"/>
-      <c r="AA171" s="214"/>
-      <c r="AB171" s="214"/>
-      <c r="AC171" s="214"/>
-      <c r="AD171" s="214"/>
-      <c r="AE171" s="215"/>
-      <c r="AF171" s="214"/>
-      <c r="AG171" s="214"/>
-      <c r="AH171" s="214"/>
-      <c r="AI171" s="216"/>
-      <c r="AJ171" s="176" t="n">
-        <v>200</v>
-      </c>
-      <c r="AK171" s="214"/>
-      <c r="AL171" s="214"/>
-      <c r="AM171" s="214"/>
-      <c r="AN171" s="214"/>
-      <c r="AO171" s="214"/>
-      <c r="AP171" s="214"/>
-      <c r="AQ171" s="214"/>
-      <c r="AR171" s="214"/>
-      <c r="AS171" s="214"/>
-      <c r="AT171" s="216"/>
-      <c r="AU171" s="24"/>
-      <c r="AV171" s="19"/>
+      <c r="B171" s="59"/>
+      <c r="C171" s="9"/>
       <c r="AW171" s="20"/>
-      <c r="AX171" s="1"/>
-    </row>
-    <row r="172" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AKO171" s="0"/>
+      <c r="AKP171" s="0"/>
+      <c r="AKQ171" s="0"/>
+      <c r="AKR171" s="0"/>
+      <c r="AKS171" s="0"/>
+      <c r="AKT171" s="0"/>
+      <c r="AKU171" s="0"/>
+      <c r="AKV171" s="0"/>
+      <c r="AKW171" s="0"/>
+      <c r="AKX171" s="0"/>
+      <c r="AKY171" s="0"/>
+      <c r="AKZ171" s="0"/>
+      <c r="ALA171" s="0"/>
+      <c r="ALB171" s="0"/>
+      <c r="ALC171" s="0"/>
+      <c r="ALD171" s="0"/>
+      <c r="ALE171" s="0"/>
+      <c r="ALF171" s="0"/>
+      <c r="ALG171" s="0"/>
+      <c r="ALH171" s="0"/>
+      <c r="ALI171" s="0"/>
+      <c r="ALJ171" s="0"/>
+      <c r="ALK171" s="0"/>
+      <c r="ALL171" s="0"/>
+      <c r="ALM171" s="0"/>
+      <c r="ALN171" s="0"/>
+      <c r="ALO171" s="0"/>
+      <c r="ALP171" s="0"/>
+      <c r="ALQ171" s="0"/>
+      <c r="ALR171" s="0"/>
+      <c r="ALS171" s="0"/>
+      <c r="ALT171" s="0"/>
+      <c r="ALU171" s="0"/>
+      <c r="ALV171" s="0"/>
+      <c r="ALW171" s="0"/>
+      <c r="ALX171" s="0"/>
+      <c r="ALY171" s="0"/>
+      <c r="ALZ171" s="0"/>
+      <c r="AMA171" s="0"/>
+      <c r="AMB171" s="0"/>
+      <c r="AMC171" s="0"/>
+      <c r="AMD171" s="0"/>
+      <c r="AME171" s="0"/>
+      <c r="AMF171" s="0"/>
+      <c r="AMG171" s="0"/>
+      <c r="AMH171" s="0"/>
+      <c r="AMI171" s="0"/>
+      <c r="AMJ171" s="0"/>
+    </row>
+    <row r="172" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="17"/>
-      <c r="D172" s="164"/>
-      <c r="E172" s="217" t="s">
-        <v>110</v>
-      </c>
-      <c r="F172" s="217"/>
-      <c r="G172" s="217"/>
-      <c r="H172" s="217"/>
-      <c r="I172" s="218"/>
-      <c r="J172" s="219"/>
-      <c r="K172" s="219"/>
-      <c r="L172" s="219"/>
-      <c r="M172" s="219"/>
-      <c r="N172" s="219"/>
-      <c r="O172" s="219"/>
-      <c r="P172" s="219"/>
-      <c r="Q172" s="219"/>
-      <c r="R172" s="219"/>
-      <c r="S172" s="219"/>
-      <c r="T172" s="219"/>
-      <c r="U172" s="219"/>
-      <c r="V172" s="219"/>
-      <c r="W172" s="219"/>
-      <c r="X172" s="219"/>
-      <c r="Y172" s="219"/>
-      <c r="Z172" s="219"/>
-      <c r="AA172" s="219"/>
-      <c r="AB172" s="219"/>
-      <c r="AC172" s="219"/>
-      <c r="AD172" s="219"/>
-      <c r="AE172" s="220"/>
-      <c r="AF172" s="219"/>
-      <c r="AG172" s="219"/>
-      <c r="AH172" s="219"/>
-      <c r="AI172" s="221"/>
-      <c r="AJ172" s="222"/>
-      <c r="AK172" s="219"/>
-      <c r="AL172" s="219"/>
-      <c r="AM172" s="219"/>
-      <c r="AN172" s="219"/>
-      <c r="AO172" s="219"/>
-      <c r="AP172" s="219"/>
-      <c r="AQ172" s="219"/>
-      <c r="AR172" s="219"/>
-      <c r="AS172" s="219"/>
-      <c r="AT172" s="221"/>
-      <c r="AU172" s="24"/>
-      <c r="AV172" s="19"/>
+      <c r="B172" s="59"/>
+      <c r="C172" s="9"/>
       <c r="AW172" s="20"/>
-    </row>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AKO172" s="0"/>
+      <c r="AKP172" s="0"/>
+      <c r="AKQ172" s="0"/>
+      <c r="AKR172" s="0"/>
+      <c r="AKS172" s="0"/>
+      <c r="AKT172" s="0"/>
+      <c r="AKU172" s="0"/>
+      <c r="AKV172" s="0"/>
+      <c r="AKW172" s="0"/>
+      <c r="AKX172" s="0"/>
+      <c r="AKY172" s="0"/>
+      <c r="AKZ172" s="0"/>
+      <c r="ALA172" s="0"/>
+      <c r="ALB172" s="0"/>
+      <c r="ALC172" s="0"/>
+      <c r="ALD172" s="0"/>
+      <c r="ALE172" s="0"/>
+      <c r="ALF172" s="0"/>
+      <c r="ALG172" s="0"/>
+      <c r="ALH172" s="0"/>
+      <c r="ALI172" s="0"/>
+      <c r="ALJ172" s="0"/>
+      <c r="ALK172" s="0"/>
+      <c r="ALL172" s="0"/>
+      <c r="ALM172" s="0"/>
+      <c r="ALN172" s="0"/>
+      <c r="ALO172" s="0"/>
+      <c r="ALP172" s="0"/>
+      <c r="ALQ172" s="0"/>
+      <c r="ALR172" s="0"/>
+      <c r="ALS172" s="0"/>
+      <c r="ALT172" s="0"/>
+      <c r="ALU172" s="0"/>
+      <c r="ALV172" s="0"/>
+      <c r="ALW172" s="0"/>
+      <c r="ALX172" s="0"/>
+      <c r="ALY172" s="0"/>
+      <c r="ALZ172" s="0"/>
+      <c r="AMA172" s="0"/>
+      <c r="AMB172" s="0"/>
+      <c r="AMC172" s="0"/>
+      <c r="AMD172" s="0"/>
+      <c r="AME172" s="0"/>
+      <c r="AMF172" s="0"/>
+      <c r="AMG172" s="0"/>
+      <c r="AMH172" s="0"/>
+      <c r="AMI172" s="0"/>
+      <c r="AMJ172" s="0"/>
+    </row>
+    <row r="173" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="17"/>
+      <c r="B173" s="59"/>
       <c r="C173" s="0"/>
-      <c r="D173" s="0"/>
-      <c r="E173" s="0"/>
-      <c r="F173" s="0"/>
-      <c r="G173" s="0"/>
-      <c r="H173" s="0"/>
-      <c r="I173" s="0"/>
-      <c r="J173" s="0"/>
-      <c r="K173" s="0"/>
-      <c r="L173" s="0"/>
-      <c r="M173" s="0"/>
-      <c r="N173" s="0"/>
-      <c r="O173" s="0"/>
-      <c r="P173" s="0"/>
-      <c r="Q173" s="0"/>
-      <c r="R173" s="0"/>
-      <c r="S173" s="0"/>
-      <c r="T173" s="0"/>
-      <c r="U173" s="0"/>
-      <c r="V173" s="0"/>
-      <c r="W173" s="0"/>
-      <c r="X173" s="0"/>
-      <c r="Y173" s="0"/>
-      <c r="Z173" s="0"/>
-      <c r="AA173" s="0"/>
-      <c r="AB173" s="0"/>
-      <c r="AC173" s="0"/>
-      <c r="AD173" s="0"/>
-      <c r="AE173" s="0"/>
-      <c r="AF173" s="0"/>
-      <c r="AG173" s="0"/>
-      <c r="AH173" s="0"/>
-      <c r="AI173" s="0"/>
-      <c r="AJ173" s="0"/>
-      <c r="AK173" s="0"/>
-      <c r="AL173" s="0"/>
-      <c r="AM173" s="0"/>
-      <c r="AN173" s="0"/>
-      <c r="AO173" s="0"/>
-      <c r="AP173" s="0"/>
-      <c r="AQ173" s="0"/>
-      <c r="AR173" s="0"/>
-      <c r="AS173" s="0"/>
-      <c r="AT173" s="0"/>
-      <c r="AU173" s="0"/>
-      <c r="AV173" s="19"/>
       <c r="AW173" s="20"/>
+      <c r="AKO173" s="0"/>
+      <c r="AKP173" s="0"/>
+      <c r="AKQ173" s="0"/>
+      <c r="AKR173" s="0"/>
+      <c r="AKS173" s="0"/>
+      <c r="AKT173" s="0"/>
+      <c r="AKU173" s="0"/>
+      <c r="AKV173" s="0"/>
+      <c r="AKW173" s="0"/>
+      <c r="AKX173" s="0"/>
+      <c r="AKY173" s="0"/>
+      <c r="AKZ173" s="0"/>
+      <c r="ALA173" s="0"/>
+      <c r="ALB173" s="0"/>
+      <c r="ALC173" s="0"/>
+      <c r="ALD173" s="0"/>
+      <c r="ALE173" s="0"/>
+      <c r="ALF173" s="0"/>
+      <c r="ALG173" s="0"/>
+      <c r="ALH173" s="0"/>
+      <c r="ALI173" s="0"/>
+      <c r="ALJ173" s="0"/>
+      <c r="ALK173" s="0"/>
+      <c r="ALL173" s="0"/>
+      <c r="ALM173" s="0"/>
+      <c r="ALN173" s="0"/>
+      <c r="ALO173" s="0"/>
+      <c r="ALP173" s="0"/>
+      <c r="ALQ173" s="0"/>
+      <c r="ALR173" s="0"/>
+      <c r="ALS173" s="0"/>
+      <c r="ALT173" s="0"/>
+      <c r="ALU173" s="0"/>
+      <c r="ALV173" s="0"/>
+      <c r="ALW173" s="0"/>
+      <c r="ALX173" s="0"/>
+      <c r="ALY173" s="0"/>
+      <c r="ALZ173" s="0"/>
+      <c r="AMA173" s="0"/>
+      <c r="AMB173" s="0"/>
+      <c r="AMC173" s="0"/>
+      <c r="AMD173" s="0"/>
+      <c r="AME173" s="0"/>
+      <c r="AMF173" s="0"/>
+      <c r="AMG173" s="0"/>
+      <c r="AMH173" s="0"/>
+      <c r="AMI173" s="0"/>
+      <c r="AMJ173" s="0"/>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="17"/>
@@ -17485,7 +17045,7 @@
       <c r="AG178" s="24"/>
       <c r="AH178" s="24"/>
       <c r="AI178" s="24"/>
-      <c r="AJ178" s="223"/>
+      <c r="AJ178" s="146"/>
       <c r="AK178" s="24"/>
       <c r="AL178" s="24"/>
       <c r="AM178" s="24"/>
@@ -17532,7 +17092,7 @@
       <c r="AG179" s="24"/>
       <c r="AH179" s="24"/>
       <c r="AI179" s="24"/>
-      <c r="AJ179" s="223"/>
+      <c r="AJ179" s="146"/>
       <c r="AK179" s="24"/>
       <c r="AL179" s="24"/>
       <c r="AM179" s="24"/>
@@ -17572,7 +17132,7 @@
       <c r="AG180" s="24"/>
       <c r="AH180" s="24"/>
       <c r="AI180" s="24"/>
-      <c r="AJ180" s="223"/>
+      <c r="AJ180" s="146"/>
       <c r="AK180" s="24"/>
       <c r="AL180" s="24"/>
       <c r="AM180" s="24"/>
@@ -17612,7 +17172,7 @@
       <c r="AG181" s="24"/>
       <c r="AH181" s="24"/>
       <c r="AI181" s="24"/>
-      <c r="AJ181" s="223"/>
+      <c r="AJ181" s="146"/>
       <c r="AK181" s="24"/>
       <c r="AL181" s="24"/>
       <c r="AM181" s="24"/>
@@ -17629,8 +17189,8 @@
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="17"/>
-      <c r="D182" s="164" t="s">
-        <v>111</v>
+      <c r="D182" s="147" t="s">
+        <v>89</v>
       </c>
       <c r="L182" s="24"/>
       <c r="M182" s="24"/>
@@ -17655,7 +17215,7 @@
       <c r="AG182" s="24"/>
       <c r="AH182" s="24"/>
       <c r="AI182" s="24"/>
-      <c r="AJ182" s="223"/>
+      <c r="AJ182" s="146"/>
       <c r="AK182" s="24"/>
       <c r="AL182" s="24"/>
       <c r="AM182" s="24"/>
@@ -17672,7 +17232,7 @@
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="17"/>
-      <c r="D183" s="164"/>
+      <c r="D183" s="147"/>
       <c r="E183" s="24"/>
       <c r="F183" s="24"/>
       <c r="G183" s="24"/>
@@ -17703,7 +17263,7 @@
       <c r="AG183" s="24"/>
       <c r="AH183" s="24"/>
       <c r="AI183" s="24"/>
-      <c r="AJ183" s="223"/>
+      <c r="AJ183" s="146"/>
       <c r="AK183" s="24"/>
       <c r="AL183" s="24"/>
       <c r="AM183" s="24"/>
@@ -17720,58 +17280,58 @@
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="25"/>
-      <c r="B184" s="224"/>
+      <c r="B184" s="148"/>
       <c r="C184" s="26"/>
-      <c r="D184" s="225"/>
-      <c r="E184" s="24"/>
-      <c r="F184" s="226"/>
-      <c r="G184" s="226"/>
-      <c r="H184" s="226"/>
-      <c r="I184" s="226"/>
-      <c r="J184" s="226"/>
-      <c r="K184" s="226"/>
-      <c r="L184" s="226"/>
-      <c r="M184" s="226"/>
-      <c r="N184" s="226"/>
-      <c r="O184" s="226"/>
-      <c r="P184" s="226"/>
-      <c r="Q184" s="226"/>
-      <c r="R184" s="226"/>
-      <c r="S184" s="226"/>
-      <c r="T184" s="226"/>
-      <c r="U184" s="226"/>
-      <c r="V184" s="226"/>
-      <c r="W184" s="226"/>
-      <c r="X184" s="226"/>
-      <c r="Y184" s="226"/>
-      <c r="Z184" s="226"/>
-      <c r="AA184" s="226"/>
-      <c r="AB184" s="226"/>
-      <c r="AC184" s="226"/>
-      <c r="AD184" s="226"/>
-      <c r="AE184" s="227"/>
-      <c r="AF184" s="226"/>
-      <c r="AG184" s="226"/>
-      <c r="AH184" s="226"/>
-      <c r="AI184" s="226"/>
-      <c r="AJ184" s="228"/>
-      <c r="AK184" s="226"/>
-      <c r="AL184" s="226"/>
-      <c r="AM184" s="226"/>
-      <c r="AN184" s="226"/>
-      <c r="AO184" s="226"/>
-      <c r="AP184" s="226"/>
-      <c r="AQ184" s="226"/>
-      <c r="AR184" s="226"/>
-      <c r="AS184" s="226"/>
-      <c r="AT184" s="226"/>
-      <c r="AU184" s="226"/>
+      <c r="D184" s="149"/>
+      <c r="E184" s="149"/>
+      <c r="F184" s="150"/>
+      <c r="G184" s="150"/>
+      <c r="H184" s="150"/>
+      <c r="I184" s="150"/>
+      <c r="J184" s="150"/>
+      <c r="K184" s="150"/>
+      <c r="L184" s="150"/>
+      <c r="M184" s="150"/>
+      <c r="N184" s="150"/>
+      <c r="O184" s="150"/>
+      <c r="P184" s="150"/>
+      <c r="Q184" s="150"/>
+      <c r="R184" s="150"/>
+      <c r="S184" s="150"/>
+      <c r="T184" s="150"/>
+      <c r="U184" s="150"/>
+      <c r="V184" s="150"/>
+      <c r="W184" s="150"/>
+      <c r="X184" s="150"/>
+      <c r="Y184" s="150"/>
+      <c r="Z184" s="150"/>
+      <c r="AA184" s="150"/>
+      <c r="AB184" s="150"/>
+      <c r="AC184" s="150"/>
+      <c r="AD184" s="150"/>
+      <c r="AE184" s="151"/>
+      <c r="AF184" s="150"/>
+      <c r="AG184" s="150"/>
+      <c r="AH184" s="150"/>
+      <c r="AI184" s="150"/>
+      <c r="AJ184" s="152"/>
+      <c r="AK184" s="150"/>
+      <c r="AL184" s="150"/>
+      <c r="AM184" s="150"/>
+      <c r="AN184" s="150"/>
+      <c r="AO184" s="150"/>
+      <c r="AP184" s="150"/>
+      <c r="AQ184" s="150"/>
+      <c r="AR184" s="150"/>
+      <c r="AS184" s="150"/>
+      <c r="AT184" s="150"/>
+      <c r="AU184" s="150"/>
       <c r="AV184" s="26"/>
       <c r="AW184" s="27"/>
     </row>
     <row r="1048575" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="115">
+  <mergeCells count="97">
     <mergeCell ref="A1:I3"/>
     <mergeCell ref="J1:O3"/>
     <mergeCell ref="P1:U3"/>
@@ -17820,9 +17380,6 @@
     <mergeCell ref="D55:M55"/>
     <mergeCell ref="N55:W55"/>
     <mergeCell ref="X55:AV55"/>
-    <mergeCell ref="D61:M61"/>
-    <mergeCell ref="N61:W61"/>
-    <mergeCell ref="X61:AV61"/>
     <mergeCell ref="A81:I83"/>
     <mergeCell ref="J81:O83"/>
     <mergeCell ref="P81:U83"/>
@@ -17871,22 +17428,7 @@
     <mergeCell ref="D137:M137"/>
     <mergeCell ref="N137:W137"/>
     <mergeCell ref="X137:AV137"/>
-    <mergeCell ref="D143:M143"/>
-    <mergeCell ref="N143:W143"/>
-    <mergeCell ref="X143:AV143"/>
     <mergeCell ref="AY148:BJ148"/>
-    <mergeCell ref="F153:M153"/>
-    <mergeCell ref="N153:AI153"/>
-    <mergeCell ref="AJ153:AU153"/>
-    <mergeCell ref="N156:AI156"/>
-    <mergeCell ref="N158:AI158"/>
-    <mergeCell ref="E162:K162"/>
-    <mergeCell ref="L162:AU162"/>
-    <mergeCell ref="E163:K165"/>
-    <mergeCell ref="I170:AI170"/>
-    <mergeCell ref="AJ170:AT170"/>
-    <mergeCell ref="E171:H171"/>
-    <mergeCell ref="E172:H172"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.590277777777778" right="0.590277777777778" top="0.590277777777778" bottom="0.590277777777778" header="0.511811023622047" footer="0.511811023622047"/>

--- a/design/chitiet/products.xlsx
+++ b/design/chitiet/products.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_bia" sheetId="1" state="visible" r:id="rId2"/>
@@ -333,7 +333,7 @@
     <t xml:space="preserve">Products </t>
   </si>
   <si>
-    <t xml:space="preserve">Table quản lý products </t>
+    <t xml:space="preserve">Table sản phẩm  </t>
   </si>
   <si>
     <t xml:space="preserve">O</t>
@@ -595,10 +595,10 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10.5"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1695,9 +1695,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>36720</xdr:colOff>
+      <xdr:colOff>36000</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>65160</xdr:rowOff>
+      <xdr:rowOff>64440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1711,7 +1711,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3453840" y="22755240"/>
-          <a:ext cx="676080" cy="970200"/>
+          <a:ext cx="675360" cy="969480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1731,10 +1731,10 @@
       <xdr:rowOff>133200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>720</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>186120</xdr:colOff>
       <xdr:row>140</xdr:row>
-      <xdr:rowOff>93600</xdr:rowOff>
+      <xdr:rowOff>92880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1744,7 +1744,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3324960" y="24307560"/>
-          <a:ext cx="955080" cy="646200"/>
+          <a:ext cx="954360" cy="645480"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst>
@@ -1797,15 +1797,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>70200</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>65880</xdr:rowOff>
+      <xdr:rowOff>65520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>73800</xdr:colOff>
+      <xdr:colOff>72720</xdr:colOff>
       <xdr:row>136</xdr:row>
-      <xdr:rowOff>131040</xdr:rowOff>
+      <xdr:rowOff>129960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1814,8 +1814,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="3791160" y="23725800"/>
-          <a:ext cx="3240" cy="579240"/>
+          <a:off x="3790800" y="23725440"/>
+          <a:ext cx="2520" cy="578520"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1860,9 +1860,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>122400</xdr:colOff>
+      <xdr:colOff>121680</xdr:colOff>
       <xdr:row>141</xdr:row>
-      <xdr:rowOff>84240</xdr:rowOff>
+      <xdr:rowOff>83520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1872,7 +1872,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2365920" y="22507560"/>
-          <a:ext cx="2779920" cy="2608560"/>
+          <a:ext cx="2779200" cy="2607840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1904,9 +1904,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>74880</xdr:colOff>
+      <xdr:colOff>74160</xdr:colOff>
       <xdr:row>127</xdr:row>
-      <xdr:rowOff>27360</xdr:rowOff>
+      <xdr:rowOff>26640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1916,7 +1916,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3165480" y="22231440"/>
-          <a:ext cx="1188720" cy="427320"/>
+          <a:ext cx="1188000" cy="426600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1942,22 +1942,22 @@
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
-          <a:pPr algn="ctr">
+          <a:pPr>
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1050" spc="-1" strike="noStrike">
+            <a:rPr b="0" lang="en-US" sz="900" spc="-1" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="Arial"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="Noto Sans CJK SC"/>
             </a:rPr>
-            <a:t>Màn hình Login</a:t>
+            <a:t>Màn hình xem tất cả sản phảm </a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1050" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="900" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1974,9 +1974,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>65160</xdr:colOff>
+      <xdr:colOff>64440</xdr:colOff>
       <xdr:row>132</xdr:row>
-      <xdr:rowOff>93960</xdr:rowOff>
+      <xdr:rowOff>93240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1986,7 +1986,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="372240" y="23184000"/>
-          <a:ext cx="995400" cy="398520"/>
+          <a:ext cx="994680" cy="397800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2148,9 +2148,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>179280</xdr:colOff>
+      <xdr:colOff>178560</xdr:colOff>
       <xdr:row>135</xdr:row>
-      <xdr:rowOff>17640</xdr:rowOff>
+      <xdr:rowOff>16920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2160,7 +2160,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6335280" y="23621760"/>
-          <a:ext cx="914040" cy="398880"/>
+          <a:ext cx="913320" cy="398160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2216,9 +2216,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>84240</xdr:colOff>
+      <xdr:colOff>83520</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>65160</xdr:rowOff>
+      <xdr:rowOff>64440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2232,7 +2232,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6478200" y="22755240"/>
-          <a:ext cx="676080" cy="970200"/>
+          <a:ext cx="675360" cy="969480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2258,9 +2258,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>93960</xdr:colOff>
+      <xdr:colOff>93240</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>151200</xdr:rowOff>
+      <xdr:rowOff>150480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2270,7 +2270,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1788840" y="1457280"/>
-          <a:ext cx="4817160" cy="417960"/>
+          <a:ext cx="4816440" cy="417240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2297,18 +2297,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>152640</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>62280</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>124560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>239400</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>30960</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>46440</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>63360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2321,8 +2321,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2100600" y="1190880"/>
-          <a:ext cx="4650840" cy="5364720"/>
+          <a:off x="1922760" y="991440"/>
+          <a:ext cx="5097240" cy="5425200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2344,8 +2344,8 @@
   </sheetPr>
   <dimension ref="A1:AX160"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BA141" activeCellId="0" sqref="BA141"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U126" activeCellId="0" sqref="U126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10237,8 +10237,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048575"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A139" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q183" activeCellId="0" sqref="Q183"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AS25" activeCellId="0" sqref="AS25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.640625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
